--- a/UploadExcel/TD_RegOrderCreation.xlsx
+++ b/UploadExcel/TD_RegOrderCreation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\TestSuites\UploadExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\UploadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25613D2C-886A-45D9-8651-311BC25F5D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B0028C-7CB9-4D6E-A5D9-D322C1F08FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="391">
   <si>
     <t>TesctCaseName</t>
   </si>
@@ -151,44 +151,9 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>20240910115804Test</t>
-  </si>
-  <si>
-    <t>20240910115804Auto</t>
-  </si>
-  <si>
-    <t>20240910115804@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP c9916715-80c8-4f74-bb04-1eda5248e663","Using soldTo : c9916715-80c8-4f74-bb04-1eda5248e663","Using billTo: c9916715-80c8-4f74-bb04-1eda5248e663","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214431 for AS order 20240910115804","version":"1.3.5-qa2.100","biId":"3214431"}}'}}}</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
-    <t>3214431</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214431 for AS order 20240910115804</t>
-  </si>
-  <si>
-    <t>8000047065</t>
-  </si>
-  <si>
-    <t>20240830201217</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e397a\"eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2022-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115804 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2023-09-12T15:00:14-05\" paymentDate: \"2023-09-12T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Alipay\" upfrontPaymentDate: \"2023-09-12T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" apc: 1990.00 appliedDiscount: 0.00 discountType: \"ArticleTypeDiscount\" estimatedTax: 0.00 totalChargedAmount: 1990.00 currency: \"USD\" taxExceptionNumber: \"40180089023\" taxExceptionExpirationDate: \"2024-10-26\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f42344553\" title: \"Secrets of nature\" dhId: \"e0c7594c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"CAM448363\" jpcmsArticleIdentifier: \"CAM4.48363.ART\" articleDOI: \"10.1111/CAM4.48363\" } soldToDetails: { firstName: \"20240910115804Test\" lastName: \"20240910115804Auto\" email: \"20240910115804@Wiley.com\" userId: \"ALM-77d825fc-4df8-47b4-b941-029ff74bfc2b\" participantId: \"77d825fc-4df8-47b4-b941-029ff74bfc2b\" } billToDetails: [ { chargedAmount: 1990.00 AlipayDetails: { alipayOrderNumber: \"23154811\", alipayPaymentNumber: \"87540622\", alipayPaymentDate:\"2024-09-10 08:00:00\" } billingAddress: { firstName: \"20240910115804Test\" lastName: \"20240910115804Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"No. 1 Xikang Road\"] addressLocality: \"Nanjing\" addressRegion: \"190\" countryCode: \"CN\" postalCode: \"510055\" phoneNumber: \"0703503263\" email: \"20240910115804@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e397a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f42344553</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:04.784</t>
-  </si>
-  <si>
     <t>CreateCC Order with New Customer P1 with Society Discounts with GOA</t>
   </si>
   <si>
@@ -225,41 +190,6 @@
     <t>NJ</t>
   </si>
   <si>
-    <t>20240910115809Test</t>
-  </si>
-  <si>
-    <t>20240910115809Auto</t>
-  </si>
-  <si>
-    <t>20240910115809@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP df22f4b2-e5bc-473b-a981-0e5b6701b7af","Using soldTo : df22f4b2-e5bc-473b-a981-0e5b6701b7af","Using billTo: df22f4b2-e5bc-473b-a981-0e5b6701b7af","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214432 for AS order 20240910115809","version":"1.3.5-qa2.100","biId":"3214432"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214432</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214432 for AS order 20240910115809</t>
-  </si>
-  <si>
-    <t>8000047066</t>
-  </si>
-  <si>
-    <t>20240830201219</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e736a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115809 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 2000 appliedDiscount: 200.00 discountCode: \"ZSV1\" discountType: \"Society\" estimatedTax: 0.00 totalChargedAmount: 1800 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"c597beef-e45f-4cc7-b34c-0df812e2ef25\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f77518627\" title: \"Secrets of volcano\" dhId: \"e0c6021c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115809Test\" lastName: \"20240910115809Auto\" email: \"20240910115809@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 1800 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115809Test\" lastName: \"20240910115809Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"1234567890\" email: \"20240910115809@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f77518627</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:09.568</t>
-  </si>
-  <si>
     <t>CreateCC Order with New Customer P2 with Promo Discounts with GOA</t>
   </si>
   <si>
@@ -296,41 +226,6 @@
     <t>HCK</t>
   </si>
   <si>
-    <t>20240910115814Test</t>
-  </si>
-  <si>
-    <t>20240910115814Auto</t>
-  </si>
-  <si>
-    <t>20240910115814@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 3dc492bd-b807-46a1-b857-806544c58732","Using soldTo : 3dc492bd-b807-46a1-b857-806544c58732","Using billTo: 3dc492bd-b807-46a1-b857-806544c58732","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214433 for AS order 20240910115814","version":"1.3.5-qa2.100","biId":"3214433"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214433</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214433 for AS order 20240910115814</t>
-  </si>
-  <si>
-    <t>8000047068</t>
-  </si>
-  <si>
-    <t>20240830201222</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e633a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115814 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 2471 appliedDiscount: 370.65 discountCode: \"ZPP1\" discountType: \"WileyPromoCode\" estimatedTax: 420.07 totalChargedAmount: 2520.42 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"d94e6868-e4c6-458d-9f9d-2aa21986e441\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f22218903\" title: \"Secrets of volcano\" dhId: \"e0c6019c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115814Test\" lastName: \"20240910115814Auto\" email: \"20240910115814@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 2520.42 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115814Test\" lastName: \"20240910115814Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"1234567890\" email: \"20240910115814@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f22218903</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:14.152</t>
-  </si>
-  <si>
     <t>CreateCC Order with New Customer P3 with Editorial Discounts without VAT ID with GOA</t>
   </si>
   <si>
@@ -361,41 +256,6 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>20240910115818Test</t>
-  </si>
-  <si>
-    <t>20240910115818Auto</t>
-  </si>
-  <si>
-    <t>20240910115818@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 9063b697-1928-4e3d-90fa-f7ad232dac8b","Using soldTo : 9063b697-1928-4e3d-90fa-f7ad232dac8b","Using billTo: 9063b697-1928-4e3d-90fa-f7ad232dac8b","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214434 for AS order 20240910115818","version":"1.3.5-qa2.100","biId":"3214434"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214434</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214434 for AS order 20240910115818</t>
-  </si>
-  <si>
-    <t>8000047069</t>
-  </si>
-  <si>
-    <t>20240830201226</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e879a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115818 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 2900.00 appliedDiscount: 50.00 discountCode: \"ZEPA\" discountType: \"EditorialDiscount\" estimatedTax: 570.00 totalChargedAmount: 3420.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f58668703\" title: \"Secrets of volcano\" dhId: \"e0c1838c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115818Test\" lastName: \"20240910115818Auto\" email: \"20240910115818@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3420.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115818Test\" lastName: \"20240910115818Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"1234567890\" email: \"20240910115818@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f58668703</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:18.860</t>
-  </si>
-  <si>
     <t>CreateCC Order with New Customer P3 with Editorial Discounts with VAT ID with GOA</t>
   </si>
   <si>
@@ -405,41 +265,6 @@
     <t>DE177813251</t>
   </si>
   <si>
-    <t>20240910115823Test</t>
-  </si>
-  <si>
-    <t>20240910115823Auto</t>
-  </si>
-  <si>
-    <t>20240910115823@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 10867d52-85f0-4ef2-840c-7ff9ded83916","Using soldTo : 10867d52-85f0-4ef2-840c-7ff9ded83916","Using billTo: 10867d52-85f0-4ef2-840c-7ff9ded83916","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214435 for AS order 20240910115823","version":"1.3.5-qa2.100","biId":"3214435"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214435</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214435 for AS order 20240910115823</t>
-  </si>
-  <si>
-    <t>8000047071</t>
-  </si>
-  <si>
-    <t>20240830201231</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e455a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115823 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 2900.00 appliedDiscount: 50.00 discountCode: \"ZEPA\" discountType: \"EditorialDiscount\" estimatedTax: 0.00 totalChargedAmount: 2850.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"DE177813251\" countryCode: \"DE\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f48718567\" title: \"Secrets of volcano\" dhId: \"e0c4121c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115823Test\" lastName: \"20240910115823Auto\" email: \"20240910115823@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 2850.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115823Test\" lastName: \"20240910115823Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"1234567890\" email: \"20240910115823@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f48718567</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:23.928</t>
-  </si>
-  <si>
     <t>CreateCC Order with New Customer P4 with Institutional Discounts with GOA</t>
   </si>
   <si>
@@ -467,41 +292,6 @@
     <t>300.00</t>
   </si>
   <si>
-    <t>20240910115829Test</t>
-  </si>
-  <si>
-    <t>20240910115829Auto</t>
-  </si>
-  <si>
-    <t>20240910115829@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 2c48814b-e82d-4ad1-b654-8b3b58197c11","Using soldTo : 2c48814b-e82d-4ad1-b654-8b3b58197c11","Using billTo: 2c48814b-e82d-4ad1-b654-8b3b58197c11","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214436 for AS order 20240910115829","version":"1.3.5-qa2.100","biId":"3214436"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214436</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214436 for AS order 20240910115829</t>
-  </si>
-  <si>
-    <t>8000048250</t>
-  </si>
-  <si>
-    <t>20240830213259</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e510a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115829 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 1500.00 appliedDiscount: 300.00 discountCode: \"ZIP1\" discountType: \"Institutional\" estimatedTax: 216.00 totalChargedAmount: 1416.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"ffc6e5d2-730d-4fe6-9770-7f23c6aeebf9\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f80579784\" title: \"Secrets of volcano\" dhId: \"e0c5211c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115829Test\" lastName: \"20240910115829Auto\" email: \"20240910115829@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 1416.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115829Test\" lastName: \"20240910115829Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"1234567890\" email: \"20240910115829@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f80579784</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:29.111</t>
-  </si>
-  <si>
     <t>CreateCC Order with New Customer P4 with Article Type Discounts with GOA</t>
   </si>
   <si>
@@ -514,38 +304,6 @@
     <t>199.00</t>
   </si>
   <si>
-    <t>20240910115833Test</t>
-  </si>
-  <si>
-    <t>20240910115833Auto</t>
-  </si>
-  <si>
-    <t>20240910115833@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 8ac104b5-715f-4a60-9480-ab0cf05ce225","Using soldTo : 8ac104b5-715f-4a60-9480-ab0cf05ce225","Using billTo: 8ac104b5-715f-4a60-9480-ab0cf05ce225","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214437 for AS order 20240910115833","version":"1.3.5-qa2.100","biId":"3214437"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214437</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214437 for AS order 20240910115833</t>
-  </si>
-  <si>
-    <t>20240903182404</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e590a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115833 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 1990.00 appliedDiscount: 199.00 discountCode: \"ZAPA\" discountType: \"ArticleTypeDiscount\" estimatedTax: 0.00 totalChargedAmount: 1791.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f54870759\" title: \"Secrets of volcano\" dhId: \"e0c1062c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115833Test\" lastName: \"20240910115833Auto\" email: \"20240910115833@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 1791.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115833Test\" lastName: \"20240910115833Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"100\" countryCode: \"CN\" postalCode: \"210008\" phoneNumber: \"1234567890\" email: \"20240910115833@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f54870759</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:33.928</t>
-  </si>
-  <si>
     <t>Create Invoice Order with New Customer P1 with Promo Discounts with GOA</t>
   </si>
   <si>
@@ -561,41 +319,6 @@
     <t>316.00</t>
   </si>
   <si>
-    <t>20240910115838Test</t>
-  </si>
-  <si>
-    <t>20240910115838Auto</t>
-  </si>
-  <si>
-    <t>20240910115838@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 1b5c9e8e-02cc-49eb-bb1b-a840b09d8ed5","Using soldTo : 1b5c9e8e-02cc-49eb-bb1b-a840b09d8ed5","Using billTo: 1b5c9e8e-02cc-49eb-bb1b-a840b09d8ed5","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214438 for AS order 20240910115838","version":"1.3.5-qa2.100","biId":"3214438"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214438</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214438 for AS order 20240910115838</t>
-  </si>
-  <si>
-    <t>8000047057</t>
-  </si>
-  <si>
-    <t>20240830201245</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e130a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115838 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1780.00 appliedDiscount: 200.00 discountType: \"WileyPromoCode\" discountCode: \"ZPP1\" estimatedTax: 316.00 totalChargedAmount: 1896.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f61158062\" title: \"Secrets of nature\" dhId: \"e0c4342c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115838Test\" lastName: \"20240910115838Auto\" email: \"20240910115838@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1780.00, billingAddress: { firstName: \"20240910115838Test\" lastName: \"20240910115838Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"06667778888\" email: \"20240910115838@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e130a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f61158062</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:38.943</t>
-  </si>
-  <si>
     <t>Create Invoice Order with New Customer P2 with Society Discounts with GOA</t>
   </si>
   <si>
@@ -608,41 +331,6 @@
     <t>534.00</t>
   </si>
   <si>
-    <t>20240910115844Test</t>
-  </si>
-  <si>
-    <t>20240910115844Auto</t>
-  </si>
-  <si>
-    <t>20240910115844@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 91878870-7e25-4169-930f-5c827c7596cb","Using soldTo : 91878870-7e25-4169-930f-5c827c7596cb","Using billTo: 91878870-7e25-4169-930f-5c827c7596cb","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214439 for AS order 20240910115844","version":"1.3.5-qa2.100","biId":"3214439"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214439</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214439 for AS order 20240910115844</t>
-  </si>
-  <si>
-    <t>8000047058</t>
-  </si>
-  <si>
-    <t>20240830201247</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e264a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115844 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1780.00 appliedDiscount: 534.00 discountType: \"Society\" discountCode: \"ZSV1\" estimatedTax: 249.00 totalChargedAmount: 1495.00 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f71674410\" title: \"Secrets of nature\" dhId: \"e0c2710c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115844Test\" lastName: \"20240910115844Auto\" email: \"20240910115844@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1780.00, billingAddress: { firstName: \"20240910115844Test\" lastName: \"20240910115844Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"06667778888\" email: \"20240910115844@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e264a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f71674410</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:44.149</t>
-  </si>
-  <si>
     <t>Create Invoice Order with New Customer P3 with Editorial Discounts without VAT and with GOA</t>
   </si>
   <si>
@@ -655,41 +343,6 @@
     <t>296.20</t>
   </si>
   <si>
-    <t>20240910115849Test</t>
-  </si>
-  <si>
-    <t>20240910115849Auto</t>
-  </si>
-  <si>
-    <t>20240910115849@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 24f60f23-cc4f-47f2-968f-f490d553a6ee","Using soldTo : 24f60f23-cc4f-47f2-968f-f490d553a6ee","Using billTo: 24f60f23-cc4f-47f2-968f-f490d553a6ee","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214440 for AS order 20240910115849","version":"1.3.5-qa2.100","biId":"3214440"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214440</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214440 for AS order 20240910115849</t>
-  </si>
-  <si>
-    <t>8000047059</t>
-  </si>
-  <si>
-    <t>20240830201258</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e692a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115849 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 2108.00 appliedDiscount: 200.00 discountType: \"EditorialDiscount\" discountCode: \"ZEPA\" estimatedTax: 296.20 totalChargedAmount: 1776.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f57542598\" title: \"Secrets of nature\" dhId: \"e0c4241c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115849Test\" lastName: \"20240910115849Auto\" email: \"20240910115849@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 2108.00, billingAddress: { firstName: \"20240910115849Test\" lastName: \"20240910115849Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240910115849@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e692a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f57542598</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:49.045</t>
-  </si>
-  <si>
     <t>Create Invoice Order with New Customer P3 with Editorial Discounts with VAT and with GOA</t>
   </si>
   <si>
@@ -699,41 +352,6 @@
     <t>DE129517720</t>
   </si>
   <si>
-    <t>20240910115854Test</t>
-  </si>
-  <si>
-    <t>20240910115854Auto</t>
-  </si>
-  <si>
-    <t>20240910115854@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 35a279e8-383b-4e08-9542-592c249dcdcd","Using soldTo : 35a279e8-383b-4e08-9542-592c249dcdcd","Using billTo: 35a279e8-383b-4e08-9542-592c249dcdcd","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214441 for AS order 20240910115854","version":"1.3.5-qa2.100","biId":"3214441"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214441</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214441 for AS order 20240910115854</t>
-  </si>
-  <si>
-    <t>8000047060</t>
-  </si>
-  <si>
-    <t>20240830201301</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e186a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115854 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1680.00 appliedDiscount: 200.00 discountType: \"EditorialDiscount\" discountCode: \"ZEPA\" estimatedTax: 0.00 totalChargedAmount: 1776.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"DE129517720\" countryCode: \"DE\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f41852039\" title: \"Secrets of nature\" dhId: \"e0c2519c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115854Test\" lastName: \"20240910115854Auto\" email: \"20240910115854@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1680.00, billingAddress: { firstName: \"20240910115854Test\" lastName: \"20240910115854Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240910115854@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e186a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f41852039</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:54.318</t>
-  </si>
-  <si>
     <t>Create Invoice Order with New Customer P4 with Institutonal Discounts with GOA</t>
   </si>
   <si>
@@ -743,123 +361,18 @@
     <t>322.20</t>
   </si>
   <si>
-    <t>20240910115859Test</t>
-  </si>
-  <si>
-    <t>20240910115859Auto</t>
-  </si>
-  <si>
-    <t>20240910115859@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP c981bbba-6b65-47e0-8024-73415e7f050d","Using soldTo : c981bbba-6b65-47e0-8024-73415e7f050d","Using billTo: c981bbba-6b65-47e0-8024-73415e7f050d","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214442 for AS order 20240910115859","version":"1.3.5-qa2.100","biId":"3214442"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214442</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214442 for AS order 20240910115859</t>
-  </si>
-  <si>
-    <t>8000047061</t>
-  </si>
-  <si>
-    <t>20240830201307</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e556a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115859 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1990.00 appliedDiscount: 200 discountType: \"Institutional\" discountCode: \"ZIP1\" estimatedTax: 322.20 totalChargedAmount: 2112 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f98556113\" title: \"Secrets of nature\" dhId: \"e0c5486c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115859Test\" lastName: \"20240910115859Auto\" email: \"20240910115859@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1990.00, billingAddress: { firstName: \"20240910115859Test\" lastName: \"20240910115859Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"06667778888\" email: \"20240910115859@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e556a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f98556113</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:58:59.197</t>
-  </si>
-  <si>
     <t>Create Invoice Order with New Customer P4 with Article Discounts with GOA</t>
   </si>
   <si>
     <t>1790.00</t>
   </si>
   <si>
-    <t>20240910115903Test</t>
-  </si>
-  <si>
-    <t>20240910115903Auto</t>
-  </si>
-  <si>
-    <t>20240910115903@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 456bbd52-5ec5-44c0-89f9-177ee3d38176","Using soldTo : 456bbd52-5ec5-44c0-89f9-177ee3d38176","Using billTo: 456bbd52-5ec5-44c0-89f9-177ee3d38176","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214443 for AS order 20240910115903","version":"1.3.5-qa2.100","biId":"3214443"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214443</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214443 for AS order 20240910115903</t>
-  </si>
-  <si>
-    <t>8000047062</t>
-  </si>
-  <si>
-    <t>20240830201318</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e841a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115903 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1990.00 appliedDiscount: 200.00 discountType: \"ArticleTypeDiscount\" discountCode: \"\" estimatedTax: 0.00 totalChargedAmount: 1790.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f97513411\" title: \"Secrets of nature\" dhId: \"e0c4451c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115903Test\" lastName: \"20240910115903Auto\" email: \"20240910115903@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1990.00, billingAddress: { firstName: \"20240910115903Test\" lastName: \"20240910115903Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"190\" countryCode: \"CN\" postalCode: \"510055\" phoneNumber: \"06667778888\" email: \"20240910115903@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e841a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f97513411</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:03.695</t>
-  </si>
-  <si>
     <t>Create Proforma Order with New Customer P1 with Society Discounts with GOA</t>
   </si>
   <si>
     <t>Proforma</t>
   </si>
   <si>
-    <t>20240830201326Test</t>
-  </si>
-  <si>
-    <t>20240830201326Auto</t>
-  </si>
-  <si>
-    <t>20240830201326@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP d8701e82-e7ab-4844-b226-b6fda27a479d","Using soldTo : d8701e82-e7ab-4844-b226-b6fda27a479d","Using billTo: d8701e82-e7ab-4844-b226-b6fda27a479d","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214305 for AS order 20240830201326","version":"1.3.5-qa2.98","biId":"3214305"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214305</t>
-  </si>
-  <si>
-    <t>Proforma Created</t>
-  </si>
-  <si>
-    <t>8000047063</t>
-  </si>
-  <si>
-    <t>20240830201326</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e539a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240830201326 submittedDate: \"2024-08-30T15:00:14-05\" createdDate: \"2024-08-30T15:00:14-05\" cancelDate: \"2024-08-30T15:00:14-05\" paymentDate: \"2024-08-30T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-08-30T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 2000 appliedDiscount: 200.00 discountType: \"Society\" discountCode: \"ZSV1\" estimatedTax: 0.00 totalChargedAmount: 1800 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"c597beef-e45f-4cc7-b34c-0df812e2ef25\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f47286826\" title: \"Secrets of nature\" dhId: \"e0c7949c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240830201326Test\" lastName: \"20240830201326Auto\" email: \"20240830201326@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 2000, billingAddress: { firstName: \"20240830201326Test\" lastName: \"20240830201326Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"06667778888\" email: \"20240830201326@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e539a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f47286826</t>
-  </si>
-  <si>
-    <t>2024-08-30 20:13:26.567</t>
-  </si>
-  <si>
     <t>Create Proforma Order with New Customer P2 with Promo Discounts with GOA</t>
   </si>
   <si>
@@ -875,120 +388,15 @@
     <t>236.00</t>
   </si>
   <si>
-    <t>20240910115913Test</t>
-  </si>
-  <si>
-    <t>20240910115913Auto</t>
-  </si>
-  <si>
-    <t>20240910115913@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP dd90c5c8-45f5-4a7e-8633-d577523f1603","Using soldTo : dd90c5c8-45f5-4a7e-8633-d577523f1603","Using billTo: dd90c5c8-45f5-4a7e-8633-d577523f1603","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214445 for AS order 20240910115913","version":"1.3.5-qa2.100","biId":"3214445"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214445</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214445 for AS order 20240910115913</t>
-  </si>
-  <si>
-    <t>8000047064</t>
-  </si>
-  <si>
-    <t>20240830201332</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e396a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115913 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1180.00 appliedDiscount: 236.00 discountType: \"WileyPromoCode\" discountCode: \"ZPP1\" estimatedTax: 118.00 totalChargedAmount: 1132.00 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f12243136\" title: \"Secrets of nature\" dhId: \"e0c7228c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115913Test\" lastName: \"20240910115913Auto\" email: \"20240910115913@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1180.00, billingAddress: { firstName: \"20240910115913Test\" lastName: \"20240910115913Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"06667778888\" email: \"20240910115913@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e396a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f12243136</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:13.733</t>
-  </si>
-  <si>
     <t>Create Proforma Order with New Customer P3 with Editorial Discounts with VAT and with GOA</t>
   </si>
   <si>
     <t>944.00</t>
   </si>
   <si>
-    <t>20240910115918Test</t>
-  </si>
-  <si>
-    <t>20240910115918Auto</t>
-  </si>
-  <si>
-    <t>20240910115918@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP e6eef6ce-e4f7-4354-9527-8deafc856cd4","Using soldTo : e6eef6ce-e4f7-4354-9527-8deafc856cd4","Using billTo: e6eef6ce-e4f7-4354-9527-8deafc856cd4","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214446 for AS order 20240910115918","version":"1.3.5-qa2.100","biId":"3214446"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214446</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214446 for AS order 20240910115918</t>
-  </si>
-  <si>
-    <t>8000047067</t>
-  </si>
-  <si>
-    <t>20240830201336</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e984a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115918 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1180.00 appliedDiscount: 236.00 discountType: \"EditorialDiscount\" discountCode: \"ZEPA\" estimatedTax: 0.00 totalChargedAmount: 944.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"DE177813251\" countryCode: \"DE\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f24795408\" title: \"Secrets of nature\" dhId: \"e0c9059c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115918Test\" lastName: \"20240910115918Auto\" email: \"20240910115918@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1180.00, billingAddress: { firstName: \"20240910115918Test\" lastName: \"20240910115918Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240910115918@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e984a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f24795408</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:18.547</t>
-  </si>
-  <si>
     <t>Create Proforma Order with New Customer P3 with Editorial Discounts without VAT and with GOA</t>
   </si>
   <si>
-    <t>20240910115923Test</t>
-  </si>
-  <si>
-    <t>20240910115923Auto</t>
-  </si>
-  <si>
-    <t>20240910115923@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 14e333ae-5240-4a81-a592-d46dadb6f84d","Using soldTo : 14e333ae-5240-4a81-a592-d46dadb6f84d","Using billTo: 14e333ae-5240-4a81-a592-d46dadb6f84d","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214447 for AS order 20240910115923","version":"1.3.5-qa2.100","biId":"3214447"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214447</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214447 for AS order 20240910115923</t>
-  </si>
-  <si>
-    <t>8000047070</t>
-  </si>
-  <si>
-    <t>20240830201344</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e236a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115923 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1180.00 appliedDiscount: 236.00 discountType: \"EditorialDiscount\" discountCode: \"ZEPA\" estimatedTax: 118.00 totalChargedAmount: 1132.00 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f54281415\" title: \"Secrets of nature\" dhId: \"e0c3385c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115923Test\" lastName: \"20240910115923Auto\" email: \"20240910115923@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1180.00, billingAddress: { firstName: \"20240910115923Test\" lastName: \"20240910115923Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240910115923@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e236a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f54281415</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:23.146</t>
-  </si>
-  <si>
     <t>Create Proforma Order with New Customer P4 with Institutonal Discounts with GOA</t>
   </si>
   <si>
@@ -1001,79 +409,9 @@
     <t>160.00</t>
   </si>
   <si>
-    <t>20240910115928Test</t>
-  </si>
-  <si>
-    <t>20240910115928Auto</t>
-  </si>
-  <si>
-    <t>20240910115928@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 61488f36-6ac2-47af-8efa-98d088b79bc8","Using soldTo : 61488f36-6ac2-47af-8efa-98d088b79bc8","Using billTo: 61488f36-6ac2-47af-8efa-98d088b79bc8","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214448 for AS order 20240910115928","version":"1.3.5-qa2.100","biId":"3214448"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214448</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214448 for AS order 20240910115928</t>
-  </si>
-  <si>
-    <t>8000047072</t>
-  </si>
-  <si>
-    <t>20240830201357</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e738a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115928 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 800.00 appliedDiscount: 160.00 discountType: \"Institutional\" discountCode: \"ZIP1\" estimatedTax: 0.00 totalChargedAmount: 640.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"1b28a8b9-067b-4ce9-b981-e8eabe16e0a7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f47679190\" title: \"Secrets of nature\" dhId: \"e0c3614c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115928Test\" lastName: \"20240910115928Auto\" email: \"20240910115928@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 800.00, billingAddress: { firstName: \"20240910115928Test\" lastName: \"20240910115928Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"06667778888\" email: \"20240910115928@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e738a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f47679190</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:28.076</t>
-  </si>
-  <si>
     <t>Create Proforma Order with New Customer P4 with Article Discounts with GOA</t>
   </si>
   <si>
-    <t>20240910115933Test</t>
-  </si>
-  <si>
-    <t>20240910115933Auto</t>
-  </si>
-  <si>
-    <t>20240910115933@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP f79b72e8-d39b-45ef-acbd-df075fd2ef03","Using soldTo : f79b72e8-d39b-45ef-acbd-df075fd2ef03","Using billTo: f79b72e8-d39b-45ef-acbd-df075fd2ef03","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214449 for AS order 20240910115933","version":"1.3.5-qa2.100","biId":"3214449"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214449</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214449 for AS order 20240910115933</t>
-  </si>
-  <si>
-    <t>8000047074</t>
-  </si>
-  <si>
-    <t>20240830201359</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e875a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115933 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"OA\" type: \"AuthorPaid\" paymentMethod: \"Proforma\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1990.00 appliedDiscount: 200.00 discountType: \"ArticleTypeDiscount\" discountCode: \"\" estimatedTax: 0.00 totalChargedAmount: 1790.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"f4c16e81-bdcb-4795-9dce-3b36416eb748\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f94529929\" title: \"Secrets of nature\" dhId: \"e0c6198c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910115933Test\" lastName: \"20240910115933Auto\" email: \"20240910115933@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1990.00, billingAddress: { firstName: \"20240910115933Test\" lastName: \"20240910115933Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"100\" countryCode: \"CN\" postalCode: \"210008\" phoneNumber: \"06667778888\" email: \"20240910115933@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e875a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f94529929</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:33.141</t>
-  </si>
-  <si>
     <t>Create Order with Society Discount (%) P1 with CC HOA Order</t>
   </si>
   <si>
@@ -1092,41 +430,6 @@
     <t>430.00</t>
   </si>
   <si>
-    <t>20240910115937Test</t>
-  </si>
-  <si>
-    <t>20240910115937Auto</t>
-  </si>
-  <si>
-    <t>20240910115937@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 1104239d-0ce3-4f0d-b49b-c672f0c2e0ec","Using soldTo : 1104239d-0ce3-4f0d-b49b-c672f0c2e0ec","Using billTo: 1104239d-0ce3-4f0d-b49b-c672f0c2e0ec","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214450 for AS order 20240910115938","version":"1.3.5-qa2.100","biId":"3214450"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214450</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214450 for AS order 20240910115938</t>
-  </si>
-  <si>
-    <t>8000048246</t>
-  </si>
-  <si>
-    <t>20240830165022</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e220a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115938 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 4300.00 appliedDiscount: 430.00 discountCode: \"ZSV1\" discountType: \"Society\" estimatedTax: 0.00 totalChargedAmount: 3870.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f27420288\" title: \"Secrets of volcano\" dhId: \"e0c1188c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115937Test\" lastName: \"20240910115937Auto\" email: \"20240910115937@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3870.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115937Test\" lastName: \"20240910115937Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"1234567890\" email: \"20240910115937@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f27420288</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:37.969</t>
-  </si>
-  <si>
     <t>Create Order with Promo Discount (%) P2 with CC HOA Order</t>
   </si>
   <si>
@@ -1145,135 +448,24 @@
     <t>307.70</t>
   </si>
   <si>
-    <t>20240910115942Test</t>
-  </si>
-  <si>
-    <t>20240910115942Auto</t>
-  </si>
-  <si>
-    <t>20240910115942@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 565f1c25-bc9a-478a-b650-e17ec5147cd7","Using soldTo : 565f1c25-bc9a-478a-b650-e17ec5147cd7","Using billTo: 565f1c25-bc9a-478a-b650-e17ec5147cd7","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214451 for AS order 20240910115942","version":"1.3.5-qa2.100","biId":"3214451"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214451</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214451 for AS order 20240910115942</t>
-  </si>
-  <si>
-    <t>8000048247</t>
-  </si>
-  <si>
-    <t>20240830165024</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e324a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115942 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 3077.00 appliedDiscount: 307.70 discountCode: \"ZPP1\" discountType: \"WileyPromoCode\" estimatedTax: 533.86 totalChargedAmount: 3323.16 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f69854558\" title: \"Secrets of volcano\" dhId: \"e0c8382c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115942Test\" lastName: \"20240910115942Auto\" email: \"20240910115942@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3323.16 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115942Test\" lastName: \"20240910115942Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"1234567890\" email: \"20240910115942@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f69854558</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:42.963</t>
-  </si>
-  <si>
     <t>Create Order with Society Discount (Value) P3 with CC HOA Order with VAT ID</t>
   </si>
   <si>
     <t>3627.00</t>
   </si>
   <si>
-    <t>3000</t>
-  </si>
-  <si>
     <t>627.00</t>
   </si>
   <si>
-    <t>20240910115948Test</t>
-  </si>
-  <si>
-    <t>20240910115948Auto</t>
-  </si>
-  <si>
-    <t>20240910115948@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP a287cf8f-acf0-4d8e-8a11-adce27c1ca7f","Using soldTo : a287cf8f-acf0-4d8e-8a11-adce27c1ca7f","Using billTo: a287cf8f-acf0-4d8e-8a11-adce27c1ca7f","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214452 for AS order 20240910115948","version":"1.3.5-qa2.100","biId":"3214452"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214452</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214452 for AS order 20240910115948</t>
-  </si>
-  <si>
-    <t>8000048248</t>
-  </si>
-  <si>
-    <t>20240830165027</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e316a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115948 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 3627.00 appliedDiscount: 627.00 discountCode: \"ZSV1\" discountType: \"Society\" estimatedTax: 0.00 totalChargedAmount: 3000 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"DE177813251\" countryCode: \"DE\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f80778610\" title: \"Secrets of volcano\" dhId: \"e0c7265c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115948Test\" lastName: \"20240910115948Auto\" email: \"20240910115948@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3000 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115948Test\" lastName: \"20240910115948Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"1234567890\" email: \"20240910115948@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f80778610</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:48.225</t>
-  </si>
-  <si>
     <t>Create Order with Promo Discount (Value) P3 with CC HOA Order without VAT ID</t>
   </si>
   <si>
-    <t>3600</t>
-  </si>
-  <si>
     <t>ZPV1</t>
   </si>
   <si>
     <t>600.00</t>
   </si>
   <si>
-    <t>20240910115953Test</t>
-  </si>
-  <si>
-    <t>20240910115953Auto</t>
-  </si>
-  <si>
-    <t>20240910115953@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 1d1ed7f7-d307-4f0d-b32c-12b2977c237b","Using soldTo : 1d1ed7f7-d307-4f0d-b32c-12b2977c237b","Using billTo: 1d1ed7f7-d307-4f0d-b32c-12b2977c237b","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214453 for AS order 20240910115953","version":"1.3.5-qa2.100","biId":"3214453"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214453</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214453 for AS order 20240910115953</t>
-  </si>
-  <si>
-    <t>8000048249</t>
-  </si>
-  <si>
-    <t>20240830165030</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e189a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115953 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 3627.00 appliedDiscount: 627.00 discountCode: \"ZPV1\" discountType: \"WileyPromoCode\" estimatedTax: 600.00 totalChargedAmount: 3600 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f80536408\" title: \"Secrets of volcano\" dhId: \"e0c1914c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115953Test\" lastName: \"20240910115953Auto\" email: \"20240910115953@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 3600 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115953Test\" lastName: \"20240910115953Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"1234567890\" email: \"20240910115953@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f80536408</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:53.175</t>
-  </si>
-  <si>
     <t>Create Order with Institutional Discount P4 with CC HOA Order</t>
   </si>
   <si>
@@ -1289,41 +481,6 @@
     <t>696.60</t>
   </si>
   <si>
-    <t>20240910115958Test</t>
-  </si>
-  <si>
-    <t>20240910115958Auto</t>
-  </si>
-  <si>
-    <t>20240910115958@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 2602f2cc-01b0-4f8b-a0d0-28a9063a3851","Using soldTo : 2602f2cc-01b0-4f8b-a0d0-28a9063a3851","Using billTo: 2602f2cc-01b0-4f8b-a0d0-28a9063a3851","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214454 for AS order 20240910115958","version":"1.3.5-qa2.100","biId":"3214454"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214454</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214454 for AS order 20240910115958</t>
-  </si>
-  <si>
-    <t>8000051208</t>
-  </si>
-  <si>
-    <t>20240830165034</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e257a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910115958 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 4300.00 appliedDiscount: 430.00 discountCode: \"ZIV1\" discountType: \"Institutional\" estimatedTax: 696.60 totalChargedAmount: 4566.60 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f65707886\" title: \"Secrets of volcano\" dhId: \"e0c4902c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910115958Test\" lastName: \"20240910115958Auto\" email: \"20240910115958@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 4566.60 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910115958Test\" lastName: \"20240910115958Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"1234567890\" email: \"20240910115958@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f65707886</t>
-  </si>
-  <si>
-    <t>2024-09-10 11:59:58.076</t>
-  </si>
-  <si>
     <t>Create Order with Custom Discount P4 with CC HOA Order</t>
   </si>
   <si>
@@ -1336,41 +493,6 @@
     <t>ZCDA</t>
   </si>
   <si>
-    <t>20240910120003Test</t>
-  </si>
-  <si>
-    <t>20240910120003Auto</t>
-  </si>
-  <si>
-    <t>20240910120003@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 6611e6a6-9440-45ae-b0ff-6d5e6129c9a7","Using soldTo : 6611e6a6-9440-45ae-b0ff-6d5e6129c9a7","Using billTo: 6611e6a6-9440-45ae-b0ff-6d5e6129c9a7","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214455 for AS order 20240910120003","version":"1.3.5-qa2.100","biId":"3214455"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214455</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214455 for AS order 20240910120003</t>
-  </si>
-  <si>
-    <t>8000051209</t>
-  </si>
-  <si>
-    <t>20240830165039</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e466a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2024-09-10T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120003 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"CreditCard\" upfrontPaymentDate: \"2023-01-26T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" poNumber: \"CCform\" specialNotes: \"customer CC Order\" apc: 4300.00 appliedDiscount: 300.00 discountCode: \"ZCDA\" discountType: \"Custom\" estimatedTax: 0.00 totalChargedAmount: 4000.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2025-01-26\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f39308294\" title: \"Secrets of volcano\" dhId: \"e0c5074c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"ATR99999\" jpcmsArticleIdentifier: \"ATR.99999.ART\" articleDOI: \"10.1111/ATR.99999\" } soldToDetails: { firstName: \"20240910120003Test\" lastName: \"20240910120003Auto\" email: \"20240910120003@Wiley.com\" userId: \"ALM-eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" participantId: \"eb1b9579-2b3c-4c4c-8a45-cca0bbb747e7\" } billToDetails: [ { chargedAmount: 4000.00 creditCard: { creditCardToken: \"S5555555718124449\" creditCardTypeID: \"M\" creditCardType: \"masTercarD\" partialCardNumber: \"555555xxxxxx4449\" expirationDate: \"1234\" bankId: \"U\" bankName: \"UNKNOWN\" authCode: \"bxERe4\" creditCardAuthDate: \"2023-07-03T15:04:06.000+00:00\" } billingAddress: { firstName: \"20240910120003Test\" lastName: \"20240910120003Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"2462 Watermarke Pl\"] addressLocality: \"999 rever str3\" addressRegion: \"190\" countryCode: \"CN\" postalCode: \"510055\" phoneNumber: \"1234567890\" email: \"20240910120003@Wiley.com\" } organization: { id: \"63cec34e-2e56-43da-b21c-64c4083243d7\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f39308294</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:03.027</t>
-  </si>
-  <si>
     <t>Create Order with Society Discount (Value) P1 with Invoice HOA Order</t>
   </si>
   <si>
@@ -1380,41 +502,6 @@
     <t>1300.00</t>
   </si>
   <si>
-    <t>20240910120008Test</t>
-  </si>
-  <si>
-    <t>20240910120008Auto</t>
-  </si>
-  <si>
-    <t>20240910120008@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP b3596d22-d137-444c-9c4f-ee4190bb37b7","Using soldTo : b3596d22-d137-444c-9c4f-ee4190bb37b7","Using billTo: b3596d22-d137-444c-9c4f-ee4190bb37b7","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214456 for AS order 20240910120008","version":"1.3.5-qa2.100","biId":"3214456"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214456</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214456 for AS order 20240910120008</t>
-  </si>
-  <si>
-    <t>8000051210</t>
-  </si>
-  <si>
-    <t>20240830165046</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e815a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120008 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1500.00 appliedDiscount: 200.00 discountType: \"Society\" discountCode: \"ZSV1\" estimatedTax: 0.00 totalChargedAmount: 1300.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"US\" journalId: \"aafb2cdc-20fd-4fc1-8ea9-d4ade07af2dd\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f50696875\" title: \"Secrets of nature\" dhId: \"e0c3911c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910120008Test\" lastName: \"20240910120008Auto\" email: \"20240910120008@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1500.00, billingAddress: { firstName: \"20240910120008Test\" lastName: \"20240910120008Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"NJ\" countryCode: \"US\" postalCode: \"08817\" phoneNumber: \"06667778888\" email: \"20240910120008@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e815a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f50696875</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:08.153</t>
-  </si>
-  <si>
     <t>Create Order with Promo Discount (Value) P2 with Invoice HOA Order</t>
   </si>
   <si>
@@ -1424,41 +511,6 @@
     <t>1216.00</t>
   </si>
   <si>
-    <t>20240910120013Test</t>
-  </si>
-  <si>
-    <t>20240910120013Auto</t>
-  </si>
-  <si>
-    <t>20240910120013@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP a6ae5fe3-83fa-441f-a62d-677b661c0db6","Using soldTo : a6ae5fe3-83fa-441f-a62d-677b661c0db6","Using billTo: a6ae5fe3-83fa-441f-a62d-677b661c0db6","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214457 for AS order 20240910120013","version":"1.3.5-qa2.100","biId":"3214457"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214457</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214457 for AS order 20240910120013</t>
-  </si>
-  <si>
-    <t>8000051211</t>
-  </si>
-  <si>
-    <t>20240830165050</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e267a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120013 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1180.00 appliedDiscount: 200.00 discountType: \"WileyPromoCode\" discountCode: \"ZPV1\" estimatedTax: 236.00 totalChargedAmount: 1216.00 currency: \"GBP\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"GB\" journalId: \"9b920bd9-28f3-413c-ba21-e101b04ab13e\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f30814860\" title: \"Secrets of nature\" dhId: \"e0c4931c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910120013Test\" lastName: \"20240910120013Auto\" email: \"20240910120013@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1180.00, billingAddress: { firstName: \"20240910120013Test\" lastName: \"20240910120013Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"HCK\" countryCode: \"GB\" postalCode: \"E8 4DS\" phoneNumber: \"06667778888\" email: \"20240910120013@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e267a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f30814860</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:13.066</t>
-  </si>
-  <si>
     <t>Create Order with Society Discount (%) P3 with Invoice HOA Order with VAT ID</t>
   </si>
   <si>
@@ -1471,41 +523,6 @@
     <t>362.70</t>
   </si>
   <si>
-    <t>20240910120017Test</t>
-  </si>
-  <si>
-    <t>20240910120017Auto</t>
-  </si>
-  <si>
-    <t>20240910120017@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP d698a386-cc71-4470-ae78-fc4e46c711bd","Using soldTo : d698a386-cc71-4470-ae78-fc4e46c711bd","Using billTo: d698a386-cc71-4470-ae78-fc4e46c711bd","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214458 for AS order 20240910120017","version":"1.3.5-qa2.100","biId":"3214458"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214458</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214458 for AS order 20240910120017</t>
-  </si>
-  <si>
-    <t>8000051212</t>
-  </si>
-  <si>
-    <t>20240830165053</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e548a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120017 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 3627.00 appliedDiscount: 362.70 discountType: \"Society\" discountCode: \"ZSP1\" estimatedTax: 0.00 totalChargedAmount: 3264.30 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"DE177813251\" countryCode: \"DE\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f63288123\" title: \"Secrets of nature\" dhId: \"e0c5779c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910120017Test\" lastName: \"20240910120017Auto\" email: \"20240910120017@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 3627.00, billingAddress: { firstName: \"20240910120017Test\" lastName: \"20240910120017Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240910120017@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e548a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f63288123</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:17.812</t>
-  </si>
-  <si>
     <t>Create Order with Promo Discount (%) P3 with Invoice HOA Order without VAT ID</t>
   </si>
   <si>
@@ -1515,41 +532,6 @@
     <t>652.86</t>
   </si>
   <si>
-    <t>20240910120022Test</t>
-  </si>
-  <si>
-    <t>20240910120022Auto</t>
-  </si>
-  <si>
-    <t>20240910120022@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 859c5c37-6e62-4959-bfb9-7b7e903d1e73","Using soldTo : 859c5c37-6e62-4959-bfb9-7b7e903d1e73","Using billTo: 859c5c37-6e62-4959-bfb9-7b7e903d1e73","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214459 for AS order 20240910120022","version":"1.3.5-qa2.100","biId":"3214459"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214459</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214459 for AS order 20240910120022</t>
-  </si>
-  <si>
-    <t>8000051213</t>
-  </si>
-  <si>
-    <t>20240830165100</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e578a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120022 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 3627.00 appliedDiscount: 362.70 discountType: \"WileyPromoCode\" discountCode: \"ZPP1\" estimatedTax: 652.86 totalChargedAmount: 3917.16 currency: \"EUR\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"DE\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f33765351\" title: \"Secrets of nature\" dhId: \"e0c2725c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910120022Test\" lastName: \"20240910120022Auto\" email: \"20240910120022@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 3627.00, billingAddress: { firstName: \"20240910120022Test\" lastName: \"20240910120022Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"12\" countryCode: \"DE\" postalCode: \"14469\" phoneNumber: \"06667778888\" email: \"20240910120022@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e578a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f33765351</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:22.794</t>
-  </si>
-  <si>
     <t>Create Order with Custom Discount P4 with Invoice HOA Order</t>
   </si>
   <si>
@@ -1565,41 +547,6 @@
     <t>150.00</t>
   </si>
   <si>
-    <t>20240910120028Test</t>
-  </si>
-  <si>
-    <t>20240910120028Auto</t>
-  </si>
-  <si>
-    <t>20240910120028@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 401a8c8a-ea34-42dd-9098-195e456359d7","Using soldTo : 401a8c8a-ea34-42dd-9098-195e456359d7","Using billTo: 401a8c8a-ea34-42dd-9098-195e456359d7","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214460 for AS order 20240910120028","version":"1.3.5-qa2.100","biId":"3214460"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214460</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214460 for AS order 20240910120028</t>
-  </si>
-  <si>
-    <t>8000051214</t>
-  </si>
-  <si>
-    <t>20240830165105</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e284a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120028 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1500.00 appliedDiscount: 150.00 discountType: \"Institutional\" discountCode: \"ZIP1\" estimatedTax: 252.00 totalChargedAmount: 1602.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"IN\" journalId: \"2f1b8d19-e501-4606-9149-b3dfbd97b9b7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f78866080\" title: \"Secrets of nature\" dhId: \"e0c6507c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910120028Test\" lastName: \"20240910120028Auto\" email: \"20240910120028@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1500.00, billingAddress: { firstName: \"20240910120028Test\" lastName: \"20240910120028Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"22\" countryCode: \"IN\" postalCode: \"627001\" phoneNumber: \"06667778888\" email: \"20240910120028@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e284a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f78866080</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:28.008</t>
-  </si>
-  <si>
     <t>Create Order with Institutional Discount P4 with Invoice HOA Order</t>
   </si>
   <si>
@@ -1609,77 +556,7 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>20240910120033Test</t>
-  </si>
-  <si>
-    <t>20240910120033Auto</t>
-  </si>
-  <si>
-    <t>20240910120033@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP 7c9a0d9f-39a0-49fe-90fc-ba10117080e9","Using soldTo : 7c9a0d9f-39a0-49fe-90fc-ba10117080e9","Using billTo: 7c9a0d9f-39a0-49fe-90fc-ba10117080e9","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214461 for AS order 20240910120033","version":"1.3.5-qa2.100","biId":"3214461"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214461</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214461 for AS order 20240910120033</t>
-  </si>
-  <si>
-    <t>8000051215</t>
-  </si>
-  <si>
-    <t>20240830165111</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e485a\" eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2023-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120033 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2024-09-10T15:00:14-05\" paymentDate: \"2024-09-10T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Invoice\" upfrontPaymentDate: \"2024-09-10T15:00:14-05\" upfrontPaymentStatus: \"Unpaid\" onesourceTaxCode: \"sAPC\" apc: 1500.00 appliedDiscount: 100.00 discountType: \"Custom\" discountCode: \"ZCDA\" estimatedTax: 0.00 totalChargedAmount: 1400.00 currency: \"USD\" taxExceptionNumber: \"\" taxExceptionExpirationDate: \"2023-12-31\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"2f1b8d19-e501-4606-9149-b3dfbd97b9b7\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f33061346\" title: \"Secrets of nature\" dhId: \"e0c4847c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"RRO39999\" jpcmsArticleIdentifier: \"RRO.39999.ART\" articleDOI: \"10.1111/RRO.39999\" } soldToDetails: { firstName: \"20240910120033Test\" lastName: \"20240910120033Auto\" email: \"20240910120033@Wiley.com\" userId: \"ALM-6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" participantId: \"6b045551-a5fc-4fdb-9a43-ae56ece8f82a\" } billToDetails: [ { chargedAmount: 1500.00, billingAddress: { firstName: \"20240910120033Test\" lastName: \"20240910120033Auto\" streetAddress: [\"389 Nepean Hwy\"] addressLocality:\"Edison\" addressRegion: \"100\" countryCode: \"CN\" postalCode: \"210008\" phoneNumber: \"06667778888\" email: \"20240910120033@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e485a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f33061346</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:33.532</t>
-  </si>
-  <si>
     <t>Create Order with Society Discount Value P4 with Alipay HOA Order</t>
-  </si>
-  <si>
-    <t>20240910120039Test</t>
-  </si>
-  <si>
-    <t>20240910120039Auto</t>
-  </si>
-  <si>
-    <t>20240910120039@Wiley.com</t>
-  </si>
-  <si>
-    <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":["Creating BillTo","Sending BillTo to SAP d29b3d35-048c-4c70-a7f4-0afd330aeb41","Using soldTo : d29b3d35-048c-4c70-a7f4-0afd330aeb41","Using billTo: d29b3d35-048c-4c70-a7f4-0afd330aeb41","Creating the viax order"],"result":{"status":"SUCCESS","message":"Created Viax order 3214462 for AS order 20240910120039","version":"1.3.5-qa2.100","biId":"3214462"}}'}}}</t>
-  </si>
-  <si>
-    <t>3214462</t>
-  </si>
-  <si>
-    <t>Created Viax order 3214462 for AS order 20240910120039</t>
-  </si>
-  <si>
-    <t>8000051216</t>
-  </si>
-  <si>
-    <t>20240830165117</t>
-  </si>
-  <si>
-    <t>{
-  "query": "mutation placeOrder {\ttestFunction( input: { name: \"receive-event-from-kafka\" data: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e530a\"eventType: \"order.submitted\" source: \"as-order-service\" specVersion: \"1.0\" eventDate: \"2022-09-12T12:08:56.235-0700\" dataContentType: \"application/json\" orderUniqueId: 20240910120039 submittedDate: \"2024-09-10T15:00:14-05\" createdDate: \"2024-09-10T15:00:14-05\" cancelDate: \"2023-09-12T15:00:14-05\" paymentDate: \"2023-09-12T15:00:14-05\" revenueModel: \"Hybrid Model\" type: \"AuthorPaid\" paymentMethod: \"Alipay\" upfrontPaymentDate: \"2023-09-12T15:00:14-05\" upfrontPaymentStatus: \"Paid\" onesourceTaxCode: \"sAPC\" apc: 4300.00 appliedDiscount: 0.00 discountType: \"Society\" estimatedTax: 0.00 totalChargedAmount: 4300.00 currency: \"USD\" taxExceptionNumber: \"40180089023\" taxExceptionExpirationDate: \"2024-10-26\" vatIdNumber: \"\" countryCode: \"CN\" journalId: \"4324595c-158c-489c-ad3e-2911a27631f1\" article: { submissionId: \"11ca99f1-8a00-4cb3-123e-222f79755564\" title: \"Secrets of nature\" dhId: \"e0c7649c-ba2c-401d-b2a6-3fb3a59b3c00\" jpcmsAID: \"CAM448363\" jpcmsArticleIdentifier: \"CAM4.48363.ART\" articleDOI: \"10.1111/CAM4.48363\" } soldToDetails: { firstName: \"20240910120039Test\" lastName: \"20240910120039Auto\" email: \"20240910120039@Wiley.com\" userId: \"ALM-77d825fc-4df8-47b4-b941-029ff74bfc2b\" participantId: \"77d825fc-4df8-47b4-b941-029ff74bfc2b\" } billToDetails: [ { chargedAmount: 4300.00 AlipayDetails: { alipayOrderNumber: \"23154811\", alipayPaymentNumber: \"87540622\", alipayPaymentDate:\"2024-09-10 08:00:00\" } billingAddress: { firstName: \"20240910120039Test\" lastName: \"20240910120039Auto\" organization: \"University of Edinburgh\" department: \"School of GeoSciences\" institution: \"Grant Institute\" streetAddress: [\"No. 1 Xikang Road\"] addressLocality: \"Nanjing\" addressRegion: \"100\" countryCode: \"CN\" postalCode: \"210008\" phoneNumber: \"0703503263\" email: \"20240910120039@Wiley.com\" } organization: { id: \"df1e950b-a1d7-45bf-acab-42f7ed3e530a\" } } ] } }\t) { status data\t}}"
-}</t>
-  </si>
-  <si>
-    <t>11ca99f1-8a00-4cb3-123e-222f79755564</t>
-  </si>
-  <si>
-    <t>2024-09-10 12:00:39.234</t>
   </si>
   <si>
     <t>Scenario</t>
@@ -2342,6 +1219,24 @@
   </si>
   <si>
     <t>2024-08-20 18:39:12.100</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>2471.00</t>
+  </si>
+  <si>
+    <t>2112.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
   </si>
 </sst>
 </file>
@@ -2378,7 +1273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2413,18 +1308,6 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2510,7 +1393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2618,33 +1501,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2936,10 +1814,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3108,79 +1986,45 @@
       <c r="R2" s="43">
         <v>190</v>
       </c>
-      <c r="S2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>52</v>
-      </c>
+      <c r="X2"/>
+      <c r="Z2"/>
     </row>
     <row r="3" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>59</v>
+        <v>386</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -3189,185 +2033,117 @@
         <v>40</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="44" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="R3" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V3" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>75</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="X3"/>
+      <c r="Z3"/>
     </row>
     <row r="4" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="M4">
         <v>20</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="43" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="R4" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="S4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T4" t="s">
-        <v>89</v>
-      </c>
-      <c r="U4" t="s">
-        <v>90</v>
-      </c>
-      <c r="V4" t="s">
-        <v>91</v>
-      </c>
-      <c r="W4" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>98</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="X4"/>
+      <c r="Z4"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="M5">
         <v>20</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="43">
         <v>14469</v>
@@ -3375,79 +2151,45 @@
       <c r="R5" s="43">
         <v>12</v>
       </c>
-      <c r="S5" t="s">
-        <v>109</v>
-      </c>
-      <c r="T5" t="s">
-        <v>110</v>
-      </c>
-      <c r="U5" t="s">
-        <v>111</v>
-      </c>
-      <c r="V5" t="s">
-        <v>112</v>
-      </c>
-      <c r="W5" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>119</v>
-      </c>
+      <c r="X5"/>
+      <c r="Z5"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -3456,10 +2198,10 @@
         <v>40</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="43">
         <v>14469</v>
@@ -3467,88 +2209,54 @@
       <c r="R6" s="43">
         <v>12</v>
       </c>
-      <c r="S6" t="s">
-        <v>123</v>
-      </c>
-      <c r="T6" t="s">
-        <v>124</v>
-      </c>
-      <c r="U6" t="s">
-        <v>125</v>
-      </c>
-      <c r="V6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W6" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X6" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>133</v>
-      </c>
+      <c r="X6"/>
+      <c r="Z6"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
-        <v>134</v>
+      <c r="A7" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="M7">
         <v>18</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="43">
         <v>627001</v>
@@ -3556,46 +2264,12 @@
       <c r="R7" s="43">
         <v>22</v>
       </c>
-      <c r="S7" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" t="s">
-        <v>144</v>
-      </c>
-      <c r="U7" t="s">
-        <v>145</v>
-      </c>
-      <c r="V7" t="s">
-        <v>146</v>
-      </c>
-      <c r="W7" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>153</v>
-      </c>
+      <c r="X7"/>
+      <c r="Z7"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
-        <v>154</v>
+      <c r="A8" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="B8" s="46" t="s">
         <v>31</v>
@@ -3613,7 +2287,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
         <v>37</v>
@@ -3622,13 +2296,13 @@
         <v>38</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
         <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -3637,7 +2311,7 @@
         <v>40</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="43">
         <v>210008</v>
@@ -3645,263 +2319,164 @@
       <c r="R8" s="43">
         <v>100</v>
       </c>
-      <c r="S8" t="s">
-        <v>158</v>
-      </c>
-      <c r="T8" t="s">
-        <v>159</v>
-      </c>
-      <c r="U8" t="s">
-        <v>160</v>
-      </c>
-      <c r="V8" t="s">
-        <v>161</v>
-      </c>
-      <c r="W8" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>167</v>
-      </c>
+      <c r="X8"/>
+      <c r="Z8"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="R9" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="S9" t="s">
-        <v>173</v>
-      </c>
-      <c r="T9" t="s">
-        <v>174</v>
-      </c>
-      <c r="U9" t="s">
-        <v>175</v>
-      </c>
-      <c r="V9" t="s">
-        <v>176</v>
-      </c>
-      <c r="W9" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X9" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>183</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="X9"/>
+      <c r="Z9"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M10">
         <v>20</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="43" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="R10" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="S10" t="s">
-        <v>188</v>
-      </c>
-      <c r="T10" t="s">
-        <v>189</v>
-      </c>
-      <c r="U10" t="s">
-        <v>190</v>
-      </c>
-      <c r="V10" t="s">
-        <v>191</v>
-      </c>
-      <c r="W10" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X10" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>198</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="X10"/>
+      <c r="Z10"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="M11">
         <v>20</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="43">
         <v>14469</v>
@@ -3909,79 +2484,45 @@
       <c r="R11" s="43">
         <v>12</v>
       </c>
-      <c r="S11" t="s">
-        <v>203</v>
-      </c>
-      <c r="T11" t="s">
-        <v>204</v>
-      </c>
-      <c r="U11" t="s">
-        <v>205</v>
-      </c>
-      <c r="V11" t="s">
-        <v>206</v>
-      </c>
-      <c r="W11" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X11" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>213</v>
-      </c>
+      <c r="X11"/>
+      <c r="Z11"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3990,10 +2531,10 @@
         <v>40</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="Q12" s="43">
         <v>14469</v>
@@ -4001,64 +2542,30 @@
       <c r="R12" s="43">
         <v>12</v>
       </c>
-      <c r="S12" t="s">
-        <v>217</v>
-      </c>
-      <c r="T12" t="s">
-        <v>218</v>
-      </c>
-      <c r="U12" t="s">
-        <v>219</v>
-      </c>
-      <c r="V12" t="s">
-        <v>220</v>
-      </c>
-      <c r="W12" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X12" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>227</v>
-      </c>
+      <c r="X12"/>
+      <c r="Z12"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
         <v>37</v>
@@ -4067,22 +2574,22 @@
         <v>38</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>388</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="M13">
         <v>18</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="43">
         <v>627001</v>
@@ -4090,52 +2597,18 @@
       <c r="R13" s="43">
         <v>22</v>
       </c>
-      <c r="S13" t="s">
-        <v>231</v>
-      </c>
-      <c r="T13" t="s">
-        <v>232</v>
-      </c>
-      <c r="U13" t="s">
-        <v>233</v>
-      </c>
-      <c r="V13" t="s">
-        <v>234</v>
-      </c>
-      <c r="W13" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X13" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>241</v>
-      </c>
+      <c r="X13"/>
+      <c r="Z13"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>33</v>
@@ -4147,7 +2620,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
@@ -4156,7 +2629,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s">
         <v>39</v>
@@ -4168,7 +2641,7 @@
         <v>40</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="43">
         <v>510055</v>
@@ -4176,79 +2649,45 @@
       <c r="R14" s="43">
         <v>190</v>
       </c>
-      <c r="S14" t="s">
-        <v>244</v>
-      </c>
-      <c r="T14" t="s">
-        <v>245</v>
-      </c>
-      <c r="U14" t="s">
-        <v>246</v>
-      </c>
-      <c r="V14" t="s">
-        <v>247</v>
-      </c>
-      <c r="W14" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X14" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>254</v>
-      </c>
+      <c r="X14"/>
+      <c r="Z14"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>386</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -4257,176 +2696,108 @@
         <v>40</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="44" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="R15" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="S15" t="s">
-        <v>257</v>
-      </c>
-      <c r="T15" t="s">
-        <v>258</v>
-      </c>
-      <c r="U15" t="s">
-        <v>259</v>
-      </c>
-      <c r="V15" t="s">
-        <v>260</v>
-      </c>
-      <c r="W15" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="X15" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>267</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="X15"/>
+      <c r="Z15"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>117</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="M16">
         <v>20</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="43" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="R16" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="S16" t="s">
-        <v>273</v>
-      </c>
-      <c r="T16" t="s">
-        <v>274</v>
-      </c>
-      <c r="U16" t="s">
-        <v>275</v>
-      </c>
-      <c r="V16" t="s">
-        <v>276</v>
-      </c>
-      <c r="W16" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X16" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="X16"/>
+      <c r="Z16"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="B17" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="L17" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -4435,10 +2806,10 @@
         <v>40</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="43">
         <v>14469</v>
@@ -4446,88 +2817,54 @@
       <c r="R17" s="43">
         <v>12</v>
       </c>
-      <c r="S17" t="s">
-        <v>286</v>
-      </c>
-      <c r="T17" t="s">
-        <v>287</v>
-      </c>
-      <c r="U17" t="s">
-        <v>288</v>
-      </c>
-      <c r="V17" t="s">
-        <v>289</v>
-      </c>
-      <c r="W17" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X17" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="X17"/>
+      <c r="Z17"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>270</v>
+        <v>117</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="M18">
         <v>20</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="43">
         <v>14469</v>
@@ -4535,79 +2872,45 @@
       <c r="R18" s="43">
         <v>12</v>
       </c>
-      <c r="S18" t="s">
-        <v>298</v>
-      </c>
-      <c r="T18" t="s">
-        <v>299</v>
-      </c>
-      <c r="U18" t="s">
-        <v>300</v>
-      </c>
-      <c r="V18" t="s">
-        <v>301</v>
-      </c>
-      <c r="W18" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X18" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="X18"/>
+      <c r="Z18"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>125</v>
       </c>
       <c r="K19" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="M19">
         <v>18</v>
@@ -4616,7 +2919,7 @@
         <v>40</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="43">
         <v>627001</v>
@@ -4624,52 +2927,18 @@
       <c r="R19" s="43">
         <v>22</v>
       </c>
-      <c r="S19" t="s">
-        <v>313</v>
-      </c>
-      <c r="T19" t="s">
-        <v>314</v>
-      </c>
-      <c r="U19" t="s">
-        <v>315</v>
-      </c>
-      <c r="V19" t="s">
-        <v>316</v>
-      </c>
-      <c r="W19" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X19" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="X19"/>
+      <c r="Z19"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>324</v>
+        <v>127</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>33</v>
@@ -4681,7 +2950,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -4690,7 +2959,7 @@
         <v>38</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="K20" t="s">
         <v>39</v>
@@ -4702,7 +2971,7 @@
         <v>40</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="43">
         <v>210008</v>
@@ -4710,79 +2979,45 @@
       <c r="R20" s="43">
         <v>100</v>
       </c>
-      <c r="S20" t="s">
-        <v>325</v>
-      </c>
-      <c r="T20" t="s">
-        <v>326</v>
-      </c>
-      <c r="U20" t="s">
-        <v>327</v>
-      </c>
-      <c r="V20" t="s">
-        <v>328</v>
-      </c>
-      <c r="W20" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X20" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>332</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="X20"/>
+      <c r="Z20"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>339</v>
+        <v>131</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>340</v>
+        <v>132</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>40</v>
@@ -4791,176 +3026,108 @@
         <v>40</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>341</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="44" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="R21" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="S21" t="s">
-        <v>342</v>
-      </c>
-      <c r="T21" t="s">
-        <v>343</v>
-      </c>
-      <c r="U21" t="s">
-        <v>344</v>
-      </c>
-      <c r="V21" t="s">
-        <v>345</v>
-      </c>
-      <c r="W21" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X21" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="X21"/>
+      <c r="Z21"/>
+    </row>
+    <row r="22" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>353</v>
+        <v>134</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>354</v>
+        <v>135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>356</v>
+        <v>137</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>358</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="43" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="R22" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="S22" t="s">
-        <v>359</v>
-      </c>
-      <c r="T22" t="s">
-        <v>360</v>
-      </c>
-      <c r="U22" t="s">
-        <v>361</v>
-      </c>
-      <c r="V22" t="s">
-        <v>362</v>
-      </c>
-      <c r="W22" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X22" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="X22"/>
+      <c r="Z22"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>370</v>
+        <v>140</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>371</v>
+        <v>141</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L23" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>40</v>
@@ -4969,10 +3136,10 @@
         <v>40</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>373</v>
+        <v>142</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="43">
         <v>14469</v>
@@ -4980,88 +3147,54 @@
       <c r="R23" s="43">
         <v>12</v>
       </c>
-      <c r="S23" t="s">
-        <v>374</v>
-      </c>
-      <c r="T23" t="s">
-        <v>375</v>
-      </c>
-      <c r="U23" t="s">
-        <v>376</v>
-      </c>
-      <c r="V23" t="s">
-        <v>377</v>
-      </c>
-      <c r="W23" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X23" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>383</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="X23"/>
+      <c r="Z23"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>385</v>
+        <v>143</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>371</v>
+        <v>141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K24" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>387</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>356</v>
+        <v>137</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>388</v>
+        <v>145</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>373</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="43">
         <v>14469</v>
@@ -5069,88 +3202,54 @@
       <c r="R24" s="43">
         <v>12</v>
       </c>
-      <c r="S24" t="s">
-        <v>389</v>
-      </c>
-      <c r="T24" t="s">
-        <v>390</v>
-      </c>
-      <c r="U24" t="s">
-        <v>391</v>
-      </c>
-      <c r="V24" t="s">
-        <v>392</v>
-      </c>
-      <c r="W24" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X24" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>396</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>397</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>398</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X24"/>
+      <c r="Z24"/>
+    </row>
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>400</v>
+        <v>146</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>339</v>
+        <v>131</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>401</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="L25" t="s">
-        <v>402</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>403</v>
+        <v>149</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>404</v>
+        <v>150</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="43">
         <v>627001</v>
@@ -5158,52 +3257,18 @@
       <c r="R25" s="43">
         <v>22</v>
       </c>
-      <c r="S25" t="s">
-        <v>405</v>
-      </c>
-      <c r="T25" t="s">
-        <v>406</v>
-      </c>
-      <c r="U25" t="s">
-        <v>407</v>
-      </c>
-      <c r="V25" t="s">
-        <v>408</v>
-      </c>
-      <c r="W25" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X25" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>410</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>411</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>412</v>
-      </c>
-      <c r="AB25" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="X25"/>
+      <c r="Z25"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>416</v>
+        <v>151</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>33</v>
@@ -5215,22 +3280,22 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>339</v>
+        <v>131</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>417</v>
+        <v>152</v>
       </c>
       <c r="K26" t="s">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="L26" t="s">
-        <v>419</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>40</v>
@@ -5239,7 +3304,7 @@
         <v>40</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="Q26" s="43">
         <v>510055</v>
@@ -5247,79 +3312,45 @@
       <c r="R26" s="43">
         <v>190</v>
       </c>
-      <c r="S26" t="s">
-        <v>420</v>
-      </c>
-      <c r="T26" t="s">
-        <v>421</v>
-      </c>
-      <c r="U26" t="s">
-        <v>422</v>
-      </c>
-      <c r="V26" t="s">
-        <v>423</v>
-      </c>
-      <c r="W26" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X26" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>425</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>427</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>428</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>429</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="X26"/>
+      <c r="Z26"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>431</v>
+        <v>155</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>432</v>
+        <v>156</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>433</v>
+        <v>157</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>40</v>
@@ -5328,176 +3359,108 @@
         <v>40</v>
       </c>
       <c r="O27" s="44" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="44" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="R27" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="S27" t="s">
-        <v>434</v>
-      </c>
-      <c r="T27" t="s">
-        <v>435</v>
-      </c>
-      <c r="U27" t="s">
-        <v>436</v>
-      </c>
-      <c r="V27" t="s">
-        <v>437</v>
-      </c>
-      <c r="W27" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X27" t="s">
-        <v>438</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>440</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>441</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>443</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="X27"/>
+      <c r="Z27"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>445</v>
+        <v>158</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>446</v>
+        <v>159</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>447</v>
+        <v>160</v>
       </c>
       <c r="K28" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L28" t="s">
-        <v>387</v>
+        <v>144</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>356</v>
+        <v>137</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="43" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="R28" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="S28" t="s">
-        <v>448</v>
-      </c>
-      <c r="T28" t="s">
-        <v>449</v>
-      </c>
-      <c r="U28" t="s">
-        <v>450</v>
-      </c>
-      <c r="V28" t="s">
-        <v>451</v>
-      </c>
-      <c r="W28" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X28" t="s">
-        <v>452</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>454</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>455</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>456</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>457</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="X28"/>
+      <c r="Z28"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>459</v>
+        <v>161</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>371</v>
+        <v>141</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>460</v>
+        <v>162</v>
       </c>
       <c r="K29" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L29" t="s">
-        <v>461</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>40</v>
@@ -5506,10 +3469,10 @@
         <v>40</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>462</v>
+        <v>164</v>
       </c>
       <c r="P29" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="43">
         <v>14469</v>
@@ -5517,88 +3480,54 @@
       <c r="R29" s="43">
         <v>12</v>
       </c>
-      <c r="S29" t="s">
-        <v>463</v>
-      </c>
-      <c r="T29" t="s">
-        <v>464</v>
-      </c>
-      <c r="U29" t="s">
-        <v>465</v>
-      </c>
-      <c r="V29" t="s">
-        <v>466</v>
-      </c>
-      <c r="W29" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X29" t="s">
-        <v>467</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>468</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>470</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>471</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>472</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="X29"/>
+      <c r="Z29"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>474</v>
+        <v>165</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>371</v>
+        <v>141</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>475</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L30" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>356</v>
+        <v>137</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>476</v>
+        <v>167</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>462</v>
+        <v>164</v>
       </c>
       <c r="Q30" s="43">
         <v>14469</v>
@@ -5606,88 +3535,54 @@
       <c r="R30" s="43">
         <v>12</v>
       </c>
-      <c r="S30" t="s">
-        <v>477</v>
-      </c>
-      <c r="T30" t="s">
-        <v>478</v>
-      </c>
-      <c r="U30" t="s">
-        <v>479</v>
-      </c>
-      <c r="V30" t="s">
-        <v>480</v>
-      </c>
-      <c r="W30" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X30" t="s">
-        <v>481</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>484</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>485</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>486</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X30"/>
+      <c r="Z30"/>
+    </row>
+    <row r="31" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>488</v>
+        <v>168</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
         <v>35</v>
       </c>
       <c r="G31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" t="s">
         <v>169</v>
       </c>
-      <c r="H31" t="s">
-        <v>489</v>
-      </c>
       <c r="I31" s="7" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>490</v>
+        <v>170</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="L31" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>403</v>
+        <v>149</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>491</v>
+        <v>171</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>492</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="43">
         <v>627001</v>
@@ -5695,52 +3590,18 @@
       <c r="R31" s="43">
         <v>22</v>
       </c>
-      <c r="S31" t="s">
-        <v>493</v>
-      </c>
-      <c r="T31" t="s">
-        <v>494</v>
-      </c>
-      <c r="U31" t="s">
-        <v>495</v>
-      </c>
-      <c r="V31" t="s">
-        <v>496</v>
-      </c>
-      <c r="W31" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X31" t="s">
-        <v>497</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>498</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>500</v>
-      </c>
-      <c r="AB31" s="47" t="s">
-        <v>501</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>502</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="X31"/>
+      <c r="Z31"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>504</v>
+        <v>173</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>33</v>
@@ -5752,22 +3613,22 @@
         <v>35</v>
       </c>
       <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" t="s">
         <v>169</v>
       </c>
-      <c r="H32" t="s">
-        <v>489</v>
-      </c>
       <c r="I32" s="7" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>505</v>
+        <v>174</v>
       </c>
       <c r="K32" t="s">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="L32" t="s">
-        <v>419</v>
+        <v>154</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>40</v>
@@ -5776,7 +3637,7 @@
         <v>40</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>506</v>
+        <v>175</v>
       </c>
       <c r="Q32" s="43">
         <v>210008</v>
@@ -5784,52 +3645,18 @@
       <c r="R32" s="43">
         <v>100</v>
       </c>
-      <c r="S32" t="s">
-        <v>507</v>
-      </c>
-      <c r="T32" t="s">
-        <v>508</v>
-      </c>
-      <c r="U32" t="s">
-        <v>509</v>
-      </c>
-      <c r="V32" t="s">
-        <v>510</v>
-      </c>
-      <c r="W32" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X32" t="s">
-        <v>511</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>512</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>514</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>515</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>516</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="X32"/>
+      <c r="Z32"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>518</v>
+        <v>176</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>33</v>
@@ -5844,16 +3671,16 @@
         <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>339</v>
+        <v>131</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>339</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>40</v>
@@ -5870,42 +3697,136 @@
       <c r="R33" s="43">
         <v>100</v>
       </c>
-      <c r="S33" t="s">
-        <v>519</v>
-      </c>
-      <c r="T33" t="s">
-        <v>520</v>
-      </c>
-      <c r="U33" t="s">
-        <v>521</v>
-      </c>
-      <c r="V33" t="s">
-        <v>522</v>
-      </c>
-      <c r="W33" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="X33" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>524</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>525</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>526</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>527</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>528</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>529</v>
-      </c>
+      <c r="X33"/>
+      <c r="Z33"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X34"/>
+      <c r="Z34"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X35"/>
+      <c r="Z35"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X36"/>
+      <c r="Z36"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X37"/>
+      <c r="Z37"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X38"/>
+      <c r="Z38"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X39"/>
+      <c r="Z39"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X40"/>
+      <c r="Z40"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X41"/>
+      <c r="Z41"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X42"/>
+      <c r="Z42"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X43"/>
+      <c r="Z43"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X44"/>
+      <c r="Z44"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X45"/>
+      <c r="Z45"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X46"/>
+      <c r="Z46"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X47"/>
+      <c r="Z47"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="X48"/>
+      <c r="Z48"/>
+    </row>
+    <row r="49" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X49"/>
+      <c r="Z49"/>
+    </row>
+    <row r="50" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X50"/>
+      <c r="Z50"/>
+    </row>
+    <row r="51" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X51"/>
+      <c r="Z51"/>
+    </row>
+    <row r="52" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X52"/>
+      <c r="Z52"/>
+    </row>
+    <row r="53" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X53"/>
+      <c r="Z53"/>
+    </row>
+    <row r="54" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X54"/>
+      <c r="Z54"/>
+    </row>
+    <row r="55" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X55"/>
+      <c r="Z55"/>
+    </row>
+    <row r="56" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X56"/>
+      <c r="Z56"/>
+    </row>
+    <row r="57" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X57"/>
+      <c r="Z57"/>
+    </row>
+    <row r="58" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X58"/>
+      <c r="Z58"/>
+    </row>
+    <row r="59" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X59"/>
+      <c r="Z59"/>
+    </row>
+    <row r="60" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X60"/>
+      <c r="Z60"/>
+    </row>
+    <row r="61" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X61"/>
+      <c r="Z61"/>
+    </row>
+    <row r="62" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X62"/>
+      <c r="Z62"/>
+    </row>
+    <row r="63" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X63"/>
+      <c r="Z63"/>
+    </row>
+    <row r="64" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X64"/>
+      <c r="Z64"/>
+    </row>
+    <row r="65" spans="24:26" x14ac:dyDescent="0.35">
+      <c r="X65"/>
+      <c r="Z65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5938,19 +3859,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>530</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>531</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>532</v>
+        <v>179</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>533</v>
+        <v>180</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>10</v>
@@ -5962,545 +3883,540 @@
         <v>15</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>534</v>
+        <v>181</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>535</v>
+        <v>182</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>536</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>539</v>
+      <c r="A2" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>540</v>
+        <v>187</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>541</v>
+        <v>188</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>542</v>
+        <v>189</v>
       </c>
       <c r="H2" s="22"/>
-      <c r="I2" s="57">
+      <c r="I2" s="54">
         <v>0</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58" t="s">
-        <v>543</v>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="23"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
+        <v>191</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="56" t="s">
-        <v>545</v>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="55" t="s">
+        <v>192</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>546</v>
+        <v>193</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I7" s="27">
         <v>0</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="25" t="s">
-        <v>547</v>
+        <v>194</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>548</v>
+        <v>195</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>549</v>
+        <v>196</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I8" s="27">
         <v>20</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="56" t="s">
-        <v>550</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>551</v>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>198</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>552</v>
+        <v>199</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>553</v>
+        <v>200</v>
       </c>
       <c r="I9" s="27">
         <v>0</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="26" t="s">
-        <v>554</v>
+        <v>201</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I10" s="27">
         <v>20</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="56" t="s">
-        <v>540</v>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="55" t="s">
+        <v>187</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>555</v>
+        <v>202</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I11" s="27">
         <v>18</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="26" t="s">
-        <v>556</v>
+        <v>203</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>542</v>
+        <v>189</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I12" s="27">
         <v>0</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="51" t="s">
-        <v>169</v>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>546</v>
+        <v>193</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>548</v>
+        <v>195</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I13" s="30">
         <v>0</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="28" t="s">
-        <v>547</v>
+        <v>194</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>549</v>
+        <v>196</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I14" s="30">
         <v>20</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="51" t="s">
-        <v>550</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>551</v>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>198</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>552</v>
+        <v>199</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>553</v>
+        <v>200</v>
       </c>
       <c r="I15" s="30">
         <v>0</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="29" t="s">
-        <v>554</v>
+        <v>201</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I16" s="30">
         <v>20</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="51" t="s">
-        <v>540</v>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="56" t="s">
+        <v>187</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>555</v>
+        <v>202</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I17" s="30">
         <v>18</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="29" t="s">
-        <v>556</v>
+        <v>203</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>542</v>
+        <v>189</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I18" s="30">
         <v>0</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55" t="s">
-        <v>256</v>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51" t="s">
+        <v>114</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>546</v>
+        <v>193</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I19" s="31">
         <v>0</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>557</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="20" t="s">
-        <v>547</v>
+        <v>194</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>548</v>
+        <v>195</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>549</v>
+        <v>196</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I20" s="31">
         <v>20</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>558</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55" t="s">
-        <v>550</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>551</v>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>198</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>552</v>
+        <v>199</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>553</v>
+        <v>200</v>
       </c>
       <c r="I21" s="31">
         <v>0</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="19" t="s">
-        <v>554</v>
+        <v>201</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I22" s="31">
         <v>20</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>297</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55" t="s">
-        <v>540</v>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="51" t="s">
+        <v>187</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>555</v>
+        <v>202</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I23" s="31">
         <v>18</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="19" t="s">
-        <v>556</v>
+        <v>203</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>542</v>
+        <v>189</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I24" s="31">
         <v>0</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
-        <v>324</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="B2:B24"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="C2:C24"/>
     <mergeCell ref="G2:G6"/>
@@ -6517,6 +4433,11 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E15:E16"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="B2:B24"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="E11:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6547,19 +4468,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>530</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>531</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>532</v>
+        <v>179</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>533</v>
+        <v>180</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>10</v>
@@ -6571,342 +4492,342 @@
         <v>15</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>534</v>
+        <v>181</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>536</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>559</v>
+      <c r="A2" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>206</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="61" t="s">
-        <v>540</v>
+      <c r="E2" s="58" t="s">
+        <v>187</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>560</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>542</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>544</v>
-      </c>
-      <c r="I2" s="60">
+        <v>207</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="57">
         <v>0</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>518</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="35" t="s">
-        <v>561</v>
-      </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="54"/>
+        <v>208</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="18" t="s">
-        <v>562</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="56" t="s">
-        <v>545</v>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="55" t="s">
+        <v>192</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>546</v>
+        <v>193</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>563</v>
+        <v>210</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I4" s="27">
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="25" t="s">
-        <v>547</v>
+        <v>194</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>564</v>
+        <v>211</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>549</v>
+        <v>196</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I5" s="27">
         <v>20</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>353</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
-        <v>550</v>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="55" t="s">
+        <v>197</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>560</v>
+        <v>207</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>552</v>
+        <v>199</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>553</v>
+        <v>200</v>
       </c>
       <c r="I6" s="27">
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>370</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="37" t="s">
-        <v>565</v>
+        <v>212</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>554</v>
+        <v>201</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I7" s="27">
         <v>20</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>385</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="56" t="s">
-        <v>540</v>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="55" t="s">
+        <v>187</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>566</v>
+        <v>213</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>555</v>
+        <v>202</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I8" s="27">
         <v>18</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>400</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="36" t="s">
-        <v>567</v>
+        <v>214</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>542</v>
+        <v>189</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I9" s="27">
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>416</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="51" t="s">
-        <v>169</v>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>546</v>
+        <v>193</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>568</v>
+        <v>215</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I10" s="30">
         <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>431</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="28" t="s">
-        <v>547</v>
+        <v>194</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>569</v>
+        <v>216</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>549</v>
+        <v>196</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I11" s="30">
         <v>20</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>445</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="51" t="s">
-        <v>550</v>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="56" t="s">
+        <v>197</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>570</v>
+        <v>217</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>552</v>
+        <v>199</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>553</v>
+        <v>200</v>
       </c>
       <c r="I12" s="30">
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>459</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="52"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="38" t="s">
-        <v>561</v>
+        <v>208</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>554</v>
+        <v>201</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I13" s="30">
         <v>20</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>474</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="51" t="s">
-        <v>540</v>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="56" t="s">
+        <v>187</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>555</v>
+        <v>202</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I14" s="30">
         <v>18</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>488</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="38" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>542</v>
+        <v>189</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="I15" s="30">
         <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>504</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -7048,10 +4969,10 @@
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>543</v>
+        <v>190</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>33</v>
@@ -7066,13 +4987,13 @@
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>571</v>
+        <v>218</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>572</v>
+        <v>219</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
@@ -7084,25 +5005,25 @@
         <v>40</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>573</v>
+        <v>220</v>
       </c>
       <c r="P2" s="43">
         <v>3208</v>
       </c>
       <c r="Q2" t="s">
-        <v>574</v>
+        <v>221</v>
       </c>
       <c r="R2" t="s">
-        <v>575</v>
+        <v>222</v>
       </c>
       <c r="S2" t="s">
-        <v>576</v>
+        <v>223</v>
       </c>
       <c r="T2" t="s">
-        <v>577</v>
+        <v>224</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V2">
         <v>3213962</v>
@@ -7111,13 +5032,13 @@
         <v>8000042385</v>
       </c>
       <c r="X2" t="s">
-        <v>578</v>
+        <v>225</v>
       </c>
       <c r="Y2" t="s">
-        <v>579</v>
+        <v>226</v>
       </c>
       <c r="Z2" t="s">
-        <v>580</v>
+        <v>227</v>
       </c>
       <c r="AA2" s="41">
         <v>45524.776910949076</v>
@@ -7125,37 +5046,37 @@
     </row>
     <row r="3" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -7164,25 +5085,25 @@
         <v>40</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="P3" s="44" t="s">
-        <v>581</v>
+        <v>228</v>
       </c>
       <c r="Q3" t="s">
-        <v>582</v>
+        <v>229</v>
       </c>
       <c r="R3" t="s">
-        <v>583</v>
+        <v>230</v>
       </c>
       <c r="S3" t="s">
-        <v>584</v>
+        <v>231</v>
       </c>
       <c r="T3" t="s">
-        <v>585</v>
+        <v>232</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V3">
         <v>3213963</v>
@@ -7191,155 +5112,155 @@
         <v>8000042386</v>
       </c>
       <c r="X3" t="s">
-        <v>586</v>
+        <v>233</v>
       </c>
       <c r="Y3" t="s">
-        <v>587</v>
+        <v>234</v>
       </c>
       <c r="Z3" t="s">
-        <v>588</v>
+        <v>235</v>
       </c>
       <c r="AA3" t="s">
-        <v>589</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L4">
         <v>20</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="P4" s="43" t="s">
-        <v>590</v>
+        <v>237</v>
       </c>
       <c r="Q4" t="s">
-        <v>591</v>
+        <v>238</v>
       </c>
       <c r="R4" t="s">
-        <v>592</v>
+        <v>239</v>
       </c>
       <c r="S4" t="s">
-        <v>593</v>
+        <v>240</v>
       </c>
       <c r="T4" t="s">
-        <v>594</v>
+        <v>241</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V4">
         <v>3213964</v>
       </c>
       <c r="X4" t="s">
-        <v>595</v>
+        <v>242</v>
       </c>
       <c r="Y4" t="s">
-        <v>596</v>
+        <v>243</v>
       </c>
       <c r="Z4" t="s">
-        <v>597</v>
+        <v>244</v>
       </c>
       <c r="AA4" t="s">
-        <v>598</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="L5">
         <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="P5" s="43">
         <v>65189</v>
       </c>
       <c r="Q5" t="s">
-        <v>599</v>
+        <v>246</v>
       </c>
       <c r="R5" t="s">
-        <v>600</v>
+        <v>247</v>
       </c>
       <c r="S5" t="s">
-        <v>601</v>
+        <v>248</v>
       </c>
       <c r="T5" t="s">
-        <v>602</v>
+        <v>249</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V5">
         <v>3213965</v>
@@ -7348,51 +5269,51 @@
         <v>8000042387</v>
       </c>
       <c r="X5" t="s">
-        <v>603</v>
+        <v>250</v>
       </c>
       <c r="Y5" t="s">
-        <v>604</v>
+        <v>251</v>
       </c>
       <c r="Z5" t="s">
-        <v>605</v>
+        <v>252</v>
       </c>
       <c r="AA5" t="s">
-        <v>606</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -7401,134 +5322,134 @@
         <v>40</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="P6" s="43">
         <v>65189</v>
       </c>
       <c r="Q6" t="s">
-        <v>607</v>
+        <v>254</v>
       </c>
       <c r="R6" t="s">
-        <v>608</v>
+        <v>255</v>
       </c>
       <c r="S6" t="s">
-        <v>609</v>
+        <v>256</v>
       </c>
       <c r="T6" t="s">
-        <v>610</v>
+        <v>257</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s">
-        <v>611</v>
+        <v>258</v>
       </c>
       <c r="W6">
         <v>8000042388</v>
       </c>
       <c r="X6" t="s">
-        <v>612</v>
+        <v>259</v>
       </c>
       <c r="Y6" t="s">
-        <v>613</v>
+        <v>260</v>
       </c>
       <c r="Z6" t="s">
-        <v>614</v>
+        <v>261</v>
       </c>
       <c r="AA6" t="s">
-        <v>615</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>616</v>
+        <v>263</v>
       </c>
       <c r="J7" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="L7">
         <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>617</v>
+        <v>264</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="P7" s="43">
         <v>517501</v>
       </c>
       <c r="Q7" t="s">
-        <v>618</v>
+        <v>265</v>
       </c>
       <c r="R7" t="s">
-        <v>619</v>
+        <v>266</v>
       </c>
       <c r="S7" t="s">
-        <v>620</v>
+        <v>267</v>
       </c>
       <c r="T7" t="s">
-        <v>621</v>
+        <v>268</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s">
-        <v>622</v>
+        <v>269</v>
       </c>
       <c r="W7" s="40">
         <v>8000042389</v>
       </c>
       <c r="X7" t="s">
-        <v>623</v>
+        <v>270</v>
       </c>
       <c r="Y7" t="s">
-        <v>624</v>
+        <v>271</v>
       </c>
       <c r="Z7" t="s">
-        <v>625</v>
+        <v>272</v>
       </c>
       <c r="AA7" t="s">
-        <v>626</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>33</v>
@@ -7540,16 +5461,16 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>571</v>
+        <v>218</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>572</v>
+        <v>219</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
@@ -7561,48 +5482,48 @@
         <v>40</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>573</v>
+        <v>220</v>
       </c>
       <c r="P8" s="43">
         <v>3208</v>
       </c>
       <c r="Q8" t="s">
-        <v>627</v>
+        <v>274</v>
       </c>
       <c r="R8" t="s">
-        <v>628</v>
+        <v>275</v>
       </c>
       <c r="S8" t="s">
-        <v>629</v>
+        <v>276</v>
       </c>
       <c r="T8" t="s">
-        <v>630</v>
+        <v>277</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s">
-        <v>631</v>
+        <v>278</v>
       </c>
       <c r="W8" s="40">
         <v>8000042390</v>
       </c>
       <c r="X8" t="s">
-        <v>632</v>
+        <v>279</v>
       </c>
       <c r="Y8" t="s">
-        <v>633</v>
+        <v>280</v>
       </c>
       <c r="Z8" t="s">
-        <v>634</v>
+        <v>281</v>
       </c>
       <c r="AA8" t="s">
-        <v>635</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>32</v>
@@ -7611,55 +5532,55 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="P9" s="44" t="s">
-        <v>581</v>
+        <v>228</v>
       </c>
       <c r="Q9" t="s">
-        <v>636</v>
+        <v>283</v>
       </c>
       <c r="R9" t="s">
-        <v>637</v>
+        <v>284</v>
       </c>
       <c r="S9" t="s">
-        <v>638</v>
+        <v>285</v>
       </c>
       <c r="T9" t="s">
-        <v>639</v>
+        <v>286</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V9">
         <v>3213983</v>
@@ -7668,155 +5589,155 @@
         <v>8000048137</v>
       </c>
       <c r="X9" t="s">
-        <v>640</v>
+        <v>287</v>
       </c>
       <c r="Y9" t="s">
-        <v>641</v>
+        <v>288</v>
       </c>
       <c r="Z9" t="s">
-        <v>642</v>
+        <v>289</v>
       </c>
       <c r="AA9" t="s">
-        <v>643</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L10">
         <v>20</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="P10" s="43" t="s">
-        <v>590</v>
+        <v>237</v>
       </c>
       <c r="Q10" t="s">
-        <v>644</v>
+        <v>291</v>
       </c>
       <c r="R10" t="s">
-        <v>645</v>
+        <v>292</v>
       </c>
       <c r="S10" t="s">
-        <v>646</v>
+        <v>293</v>
       </c>
       <c r="T10" t="s">
-        <v>647</v>
+        <v>294</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V10">
         <v>3213979</v>
       </c>
       <c r="X10" t="s">
-        <v>648</v>
+        <v>295</v>
       </c>
       <c r="Y10" t="s">
-        <v>649</v>
+        <v>296</v>
       </c>
       <c r="Z10" t="s">
-        <v>650</v>
+        <v>297</v>
       </c>
       <c r="AA10" t="s">
-        <v>651</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="L11">
         <v>20</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="P11" s="43">
         <v>65189</v>
       </c>
       <c r="Q11" t="s">
-        <v>652</v>
+        <v>299</v>
       </c>
       <c r="R11" t="s">
-        <v>653</v>
+        <v>300</v>
       </c>
       <c r="S11" t="s">
-        <v>654</v>
+        <v>301</v>
       </c>
       <c r="T11" t="s">
-        <v>655</v>
+        <v>302</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V11">
         <v>3213969</v>
@@ -7825,81 +5746,81 @@
         <v>8000042376</v>
       </c>
       <c r="X11" t="s">
-        <v>656</v>
+        <v>303</v>
       </c>
       <c r="Y11" t="s">
-        <v>657</v>
+        <v>304</v>
       </c>
       <c r="Z11" t="s">
-        <v>658</v>
+        <v>305</v>
       </c>
       <c r="AA11" t="s">
-        <v>659</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="O12" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="P12" s="43">
         <v>65189</v>
       </c>
       <c r="Q12" t="s">
-        <v>660</v>
+        <v>307</v>
       </c>
       <c r="R12" t="s">
-        <v>661</v>
+        <v>308</v>
       </c>
       <c r="S12" t="s">
-        <v>662</v>
+        <v>309</v>
       </c>
       <c r="T12" t="s">
-        <v>663</v>
+        <v>310</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V12">
         <v>3213970</v>
@@ -7908,36 +5829,36 @@
         <v>8000042377</v>
       </c>
       <c r="X12" t="s">
-        <v>664</v>
+        <v>311</v>
       </c>
       <c r="Y12" t="s">
-        <v>665</v>
+        <v>312</v>
       </c>
       <c r="Z12" t="s">
-        <v>666</v>
+        <v>313</v>
       </c>
       <c r="AA12" t="s">
-        <v>667</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -7946,40 +5867,40 @@
         <v>38</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="L13">
         <v>18</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P13" s="43">
         <v>517501</v>
       </c>
       <c r="Q13" t="s">
-        <v>668</v>
+        <v>315</v>
       </c>
       <c r="R13" t="s">
-        <v>669</v>
+        <v>316</v>
       </c>
       <c r="S13" t="s">
-        <v>670</v>
+        <v>317</v>
       </c>
       <c r="T13" t="s">
-        <v>671</v>
+        <v>318</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V13">
         <v>3213971</v>
@@ -7988,24 +5909,24 @@
         <v>8000042378</v>
       </c>
       <c r="X13" t="s">
-        <v>672</v>
+        <v>319</v>
       </c>
       <c r="Y13" t="s">
-        <v>673</v>
+        <v>320</v>
       </c>
       <c r="Z13" t="s">
-        <v>674</v>
+        <v>321</v>
       </c>
       <c r="AA13" t="s">
-        <v>675</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>33</v>
@@ -8017,7 +5938,7 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -8026,7 +5947,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="J14" t="s">
         <v>39</v>
@@ -8038,78 +5959,78 @@
         <v>40</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="P14" s="43">
         <v>3208</v>
       </c>
       <c r="Q14" t="s">
-        <v>676</v>
+        <v>323</v>
       </c>
       <c r="R14" t="s">
-        <v>677</v>
+        <v>324</v>
       </c>
       <c r="S14" t="s">
-        <v>678</v>
+        <v>325</v>
       </c>
       <c r="T14" t="s">
-        <v>679</v>
+        <v>326</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s">
-        <v>680</v>
+        <v>327</v>
       </c>
       <c r="W14">
         <v>8000042379</v>
       </c>
       <c r="X14" t="s">
-        <v>681</v>
+        <v>328</v>
       </c>
       <c r="Y14" t="s">
-        <v>682</v>
+        <v>329</v>
       </c>
       <c r="Z14" t="s">
-        <v>683</v>
+        <v>330</v>
       </c>
       <c r="AA14" t="s">
-        <v>684</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -8118,155 +6039,155 @@
         <v>40</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="P15" s="44" t="s">
-        <v>581</v>
+        <v>228</v>
       </c>
       <c r="Q15" t="s">
-        <v>685</v>
+        <v>332</v>
       </c>
       <c r="R15" t="s">
-        <v>686</v>
+        <v>333</v>
       </c>
       <c r="S15" t="s">
-        <v>687</v>
+        <v>334</v>
       </c>
       <c r="T15" t="s">
-        <v>688</v>
+        <v>335</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s">
-        <v>689</v>
+        <v>336</v>
       </c>
       <c r="W15" s="40">
         <v>8000042380</v>
       </c>
       <c r="X15" t="s">
-        <v>690</v>
+        <v>337</v>
       </c>
       <c r="Y15" t="s">
-        <v>691</v>
+        <v>338</v>
       </c>
       <c r="Z15" t="s">
-        <v>692</v>
+        <v>339</v>
       </c>
       <c r="AA15" t="s">
-        <v>693</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>270</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L16">
         <v>20</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="P16" s="43" t="s">
-        <v>590</v>
+        <v>237</v>
       </c>
       <c r="Q16" t="s">
-        <v>694</v>
+        <v>341</v>
       </c>
       <c r="R16" t="s">
-        <v>695</v>
+        <v>342</v>
       </c>
       <c r="S16" t="s">
-        <v>696</v>
+        <v>343</v>
       </c>
       <c r="T16" t="s">
-        <v>697</v>
+        <v>344</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V16" t="s">
-        <v>698</v>
+        <v>345</v>
       </c>
       <c r="X16" t="s">
-        <v>699</v>
+        <v>346</v>
       </c>
       <c r="Y16" t="s">
-        <v>700</v>
+        <v>347</v>
       </c>
       <c r="Z16" t="s">
-        <v>701</v>
+        <v>348</v>
       </c>
       <c r="AA16" t="s">
-        <v>702</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -8275,28 +6196,28 @@
         <v>40</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="P17" s="43">
         <v>65189</v>
       </c>
       <c r="Q17" t="s">
-        <v>703</v>
+        <v>350</v>
       </c>
       <c r="R17" t="s">
-        <v>704</v>
+        <v>351</v>
       </c>
       <c r="S17" t="s">
-        <v>705</v>
+        <v>352</v>
       </c>
       <c r="T17" t="s">
-        <v>706</v>
+        <v>353</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V17">
         <v>3213975</v>
@@ -8305,131 +6226,131 @@
         <v>8000042381</v>
       </c>
       <c r="X17" t="s">
-        <v>707</v>
+        <v>354</v>
       </c>
       <c r="Y17" t="s">
-        <v>708</v>
+        <v>355</v>
       </c>
       <c r="Z17" t="s">
-        <v>709</v>
+        <v>356</v>
       </c>
       <c r="AA17" t="s">
-        <v>710</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>270</v>
+        <v>117</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="L18">
         <v>20</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="P18" s="43">
         <v>65189</v>
       </c>
       <c r="Q18" t="s">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="R18" t="s">
-        <v>712</v>
+        <v>359</v>
       </c>
       <c r="S18" t="s">
-        <v>713</v>
+        <v>360</v>
       </c>
       <c r="T18" t="s">
-        <v>714</v>
+        <v>361</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s">
-        <v>715</v>
+        <v>362</v>
       </c>
       <c r="W18" s="40">
         <v>8000042382</v>
       </c>
       <c r="X18" t="s">
-        <v>716</v>
+        <v>363</v>
       </c>
       <c r="Y18" t="s">
-        <v>717</v>
+        <v>364</v>
       </c>
       <c r="Z18" t="s">
-        <v>718</v>
+        <v>365</v>
       </c>
       <c r="AA18" t="s">
-        <v>719</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>311</v>
+        <v>125</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="L19">
         <v>18</v>
@@ -8438,51 +6359,51 @@
         <v>40</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c r="P19" s="43">
         <v>517501</v>
       </c>
       <c r="Q19" t="s">
-        <v>720</v>
+        <v>367</v>
       </c>
       <c r="R19" t="s">
-        <v>721</v>
+        <v>368</v>
       </c>
       <c r="S19" t="s">
-        <v>722</v>
+        <v>369</v>
       </c>
       <c r="T19" t="s">
-        <v>723</v>
+        <v>370</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V19" t="s">
-        <v>724</v>
+        <v>371</v>
       </c>
       <c r="W19" s="40">
         <v>8000042383</v>
       </c>
       <c r="X19" t="s">
-        <v>725</v>
+        <v>372</v>
       </c>
       <c r="Y19" t="s">
-        <v>726</v>
+        <v>373</v>
       </c>
       <c r="Z19" t="s">
-        <v>727</v>
+        <v>374</v>
       </c>
       <c r="AA19" t="s">
-        <v>728</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>324</v>
+        <v>127</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>33</v>
@@ -8494,16 +6415,16 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>571</v>
+        <v>218</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>572</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
@@ -8515,113 +6436,113 @@
         <v>40</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>573</v>
+        <v>220</v>
       </c>
       <c r="P20" s="43">
         <v>3208</v>
       </c>
       <c r="Q20" t="s">
-        <v>729</v>
+        <v>376</v>
       </c>
       <c r="R20" t="s">
-        <v>730</v>
+        <v>377</v>
       </c>
       <c r="S20" t="s">
-        <v>731</v>
+        <v>378</v>
       </c>
       <c r="T20" t="s">
-        <v>732</v>
+        <v>379</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V20" t="s">
-        <v>733</v>
+        <v>380</v>
       </c>
       <c r="W20" s="40">
         <v>8000042384</v>
       </c>
       <c r="X20" t="s">
-        <v>734</v>
+        <v>381</v>
       </c>
       <c r="Y20" t="s">
-        <v>735</v>
+        <v>382</v>
       </c>
       <c r="Z20" t="s">
-        <v>736</v>
+        <v>383</v>
       </c>
       <c r="AA20" t="s">
-        <v>737</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>518</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>562</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>353</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>370</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>385</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>400</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>416</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>431</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>445</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>459</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>474</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>488</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>504</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/UploadExcel/TD_RegOrderCreation.xlsx
+++ b/UploadExcel/TD_RegOrderCreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\UploadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B0028C-7CB9-4D6E-A5D9-D322C1F08FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA130FC1-DBFE-4B87-B14F-57C31E8B4EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="NOT TO USE" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$S$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NOT TO USE'!$A$1:$AA$20</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="405">
   <si>
     <t>TesctCaseName</t>
   </si>
@@ -82,6 +83,15 @@
     <t>AddressRegion</t>
   </si>
   <si>
+    <t>SAPPrice</t>
+  </si>
+  <si>
+    <t>SubmissionID</t>
+  </si>
+  <si>
+    <t>InvoiceNumber</t>
+  </si>
+  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -112,9 +122,6 @@
     <t>JSONText</t>
   </si>
   <si>
-    <t>SubmissionID</t>
-  </si>
-  <si>
     <t>ExecutionDate</t>
   </si>
   <si>
@@ -169,10 +176,10 @@
     <t>c597beef-e45f-4cc7-b34c-0df812e2ef25</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1800</t>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
   </si>
   <si>
     <t>Society</t>
@@ -202,7 +209,7 @@
     <t>d94e6868-e4c6-458d-9f9d-2aa21986e441</t>
   </si>
   <si>
-    <t>2471</t>
+    <t>2471.00</t>
   </si>
   <si>
     <t>2520.42</t>
@@ -322,10 +329,10 @@
     <t>Create Invoice Order with New Customer P2 with Society Discounts with GOA</t>
   </si>
   <si>
-    <t>1495.00</t>
-  </si>
-  <si>
-    <t>249.00</t>
+    <t>1495.20</t>
+  </si>
+  <si>
+    <t>249.20</t>
   </si>
   <si>
     <t>534.00</t>
@@ -355,7 +362,7 @@
     <t>Create Invoice Order with New Customer P4 with Institutonal Discounts with GOA</t>
   </si>
   <si>
-    <t>2112</t>
+    <t>2112.20</t>
   </si>
   <si>
     <t>322.20</t>
@@ -454,12 +461,18 @@
     <t>3627.00</t>
   </si>
   <si>
+    <t>3000.00</t>
+  </si>
+  <si>
     <t>627.00</t>
   </si>
   <si>
     <t>Create Order with Promo Discount (Value) P3 with CC HOA Order without VAT ID</t>
   </si>
   <si>
+    <t>3600.00</t>
+  </si>
+  <si>
     <t>ZPV1</t>
   </si>
   <si>
@@ -508,9 +521,6 @@
     <t>9b920bd9-28f3-413c-ba21-e101b04ab13e</t>
   </si>
   <si>
-    <t>1216.00</t>
-  </si>
-  <si>
     <t>Create Order with Society Discount (%) P3 with Invoice HOA Order with VAT ID</t>
   </si>
   <si>
@@ -536,12 +546,6 @@
   </si>
   <si>
     <t>2f1b8d19-e501-4606-9149-b3dfbd97b9b7</t>
-  </si>
-  <si>
-    <t>1602.00</t>
-  </si>
-  <si>
-    <t>252.00</t>
   </si>
   <si>
     <t>150.00</t>
@@ -714,6 +718,12 @@
     <t>11ca99f1-8a00-4cb3-123e-222f55804869</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
     <t>07030</t>
   </si>
   <si>
@@ -743,6 +753,9 @@
     <t>2024-08-20 18:38:46.695</t>
   </si>
   <si>
+    <t>2471</t>
+  </si>
+  <si>
     <t>SW18 1JS</t>
   </si>
   <si>
@@ -917,6 +930,12 @@
     <t>2024-08-20 19:38:16.235</t>
   </si>
   <si>
+    <t>1495.00</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
     <t>20240820184447Test</t>
   </si>
   <si>
@@ -995,6 +1014,9 @@
     <t>2024-08-20 18:38:57.795</t>
   </si>
   <si>
+    <t>2112</t>
+  </si>
+  <si>
     <t>20240820183858Test</t>
   </si>
   <si>
@@ -1221,22 +1243,43 @@
     <t>2024-08-20 18:39:12.100</t>
   </si>
   <si>
-    <t>2000.00</t>
-  </si>
-  <si>
-    <t>1800.00</t>
-  </si>
-  <si>
-    <t>2471.00</t>
-  </si>
-  <si>
-    <t>2112.00</t>
-  </si>
-  <si>
-    <t>3000.00</t>
-  </si>
-  <si>
-    <t>3600.00</t>
+    <t>1580.00</t>
+  </si>
+  <si>
+    <t>200.10</t>
+  </si>
+  <si>
+    <t>381.60</t>
+  </si>
+  <si>
+    <t>2289.59</t>
+  </si>
+  <si>
+    <t>1480.00</t>
+  </si>
+  <si>
+    <t>188.80</t>
+  </si>
+  <si>
+    <t>1132.80</t>
+  </si>
+  <si>
+    <t>115.20</t>
+  </si>
+  <si>
+    <t>752.20</t>
+  </si>
+  <si>
+    <t>196.00</t>
+  </si>
+  <si>
+    <t>1176.00</t>
+  </si>
+  <si>
+    <t>243.00</t>
+  </si>
+  <si>
+    <t>1593.00</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1503,6 +1546,32 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1516,10 +1585,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1814,10 +1883,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AD65"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1830,22 +1899,21 @@
     <col min="8" max="8" width="35.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.90625" style="54" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12.08984375" style="43" customWidth="1"/>
-    <col min="19" max="19" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.6328125" style="43" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.6328125" customWidth="1"/>
-    <col min="29" max="29" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" style="43" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.81640625" style="43" customWidth="1"/>
+    <col min="21" max="23" width="12.08984375" style="43" customWidth="1"/>
+    <col min="24" max="24" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.453125" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1950,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="53" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -1900,85 +1968,91 @@
       <c r="R1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="45" t="s">
+      <c r="AB1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="45" t="s">
+      <c r="AD1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2">
+        <v>41</v>
+      </c>
+      <c r="M2" s="57">
         <v>0</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="43">
         <v>510055</v>
@@ -1986,164 +2060,173 @@
       <c r="R2" s="43">
         <v>190</v>
       </c>
-      <c r="X2"/>
-      <c r="Z2"/>
-    </row>
-    <row r="3" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+    </row>
+    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="57">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="O3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:32" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="57">
+        <v>20</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3"/>
-      <c r="Z3"/>
-    </row>
-    <row r="4" spans="1:30" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4">
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="57">
         <v>20</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="X4"/>
-      <c r="Z4"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5">
-        <v>20</v>
-      </c>
       <c r="N5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="43">
         <v>14469</v>
@@ -2151,57 +2234,60 @@
       <c r="R5" s="43">
         <v>12</v>
       </c>
-      <c r="X5"/>
-      <c r="Z5"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="57">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="43">
         <v>14469</v>
@@ -2209,54 +2295,57 @@
       <c r="R6" s="43">
         <v>12</v>
       </c>
-      <c r="X6"/>
-      <c r="Z6"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7">
+        <v>87</v>
+      </c>
+      <c r="M7" s="57">
         <v>18</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="43">
         <v>627001</v>
@@ -2264,54 +2353,57 @@
       <c r="R7" s="43">
         <v>22</v>
       </c>
-      <c r="X7"/>
-      <c r="Z7"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8">
+        <v>92</v>
+      </c>
+      <c r="M8" s="57">
         <v>0</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="43">
         <v>210008</v>
@@ -2319,164 +2411,173 @@
       <c r="R8" s="43">
         <v>100</v>
       </c>
-      <c r="X8"/>
-      <c r="Z8"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="57">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
         <v>95</v>
       </c>
-      <c r="K9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="s">
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="44" t="s">
+      <c r="L10" t="s">
         <v>52</v>
       </c>
-      <c r="R9" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="X9"/>
-      <c r="Z9"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="M10" s="57">
+        <v>20</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10">
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="57">
         <v>20</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="X10"/>
-      <c r="Z10"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11">
-        <v>20</v>
-      </c>
       <c r="N11" s="7" t="s">
-        <v>104</v>
+        <v>394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="43">
         <v>14469</v>
@@ -2484,57 +2585,60 @@
       <c r="R11" s="43">
         <v>12</v>
       </c>
-      <c r="X11"/>
-      <c r="Z11"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>103</v>
+        <v>396</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12">
+        <v>75</v>
+      </c>
+      <c r="M12" s="57">
         <v>0</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q12" s="43">
         <v>14469</v>
@@ -2542,54 +2646,57 @@
       <c r="R12" s="43">
         <v>12</v>
       </c>
-      <c r="X12"/>
-      <c r="Z12"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13">
+        <v>87</v>
+      </c>
+      <c r="M13" s="57">
         <v>18</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="43">
         <v>627001</v>
@@ -2597,51 +2704,54 @@
       <c r="R13" s="43">
         <v>22</v>
       </c>
-      <c r="X13"/>
-      <c r="Z13"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14">
+        <v>41</v>
+      </c>
+      <c r="M14" s="57">
         <v>0</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="43">
         <v>510055</v>
@@ -2649,167 +2759,176 @@
       <c r="R14" s="43">
         <v>190</v>
       </c>
-      <c r="X14"/>
-      <c r="Z14"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="57">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15">
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="57">
+        <v>20</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="57">
         <v>0</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q15" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="R15" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="X15"/>
-      <c r="Z15"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16">
-        <v>20</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q16" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="R16" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="X16"/>
-      <c r="Z16"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="N17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K17" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="P17" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="43">
         <v>14469</v>
@@ -2817,54 +2936,57 @@
       <c r="R17" s="43">
         <v>12</v>
       </c>
-      <c r="X17"/>
-      <c r="Z17"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18">
+        <v>75</v>
+      </c>
+      <c r="M18" s="57">
         <v>20</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>118</v>
+        <v>397</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="43">
         <v>14469</v>
@@ -2872,54 +2994,57 @@
       <c r="R18" s="43">
         <v>12</v>
       </c>
-      <c r="X18"/>
-      <c r="Z18"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="K19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s">
-        <v>85</v>
-      </c>
-      <c r="M19">
+        <v>87</v>
+      </c>
+      <c r="M19" s="57">
         <v>18</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>40</v>
+        <v>399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="43">
         <v>627001</v>
@@ -2927,51 +3052,54 @@
       <c r="R19" s="43">
         <v>22</v>
       </c>
-      <c r="X19"/>
-      <c r="Z19"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>127</v>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="50" t="s">
+        <v>129</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20">
+        <v>41</v>
+      </c>
+      <c r="M20" s="57">
         <v>0</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="43">
         <v>210008</v>
@@ -2979,500 +3107,497 @@
       <c r="R20" s="43">
         <v>100</v>
       </c>
-      <c r="X20"/>
-      <c r="Z20"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>128</v>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+    </row>
+    <row r="21" spans="1:23" s="49" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G21" t="s">
+      <c r="E21" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q21" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" s="56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="49" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="D22" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="N22" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="O22" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" s="56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="49" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="C23" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="K21" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="I23" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="56">
+        <v>14469</v>
+      </c>
+      <c r="R23" s="56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="49" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="N24" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="O24" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24" s="56">
+        <v>14469</v>
+      </c>
+      <c r="R24" s="56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="Q21" s="44" t="s">
+      <c r="J25" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="N25" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" s="56">
+        <v>627001</v>
+      </c>
+      <c r="R25" s="56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="49" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q26" s="56">
+        <v>510055</v>
+      </c>
+      <c r="R26" s="56">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" t="s">
         <v>52</v>
       </c>
-      <c r="R21" s="44" t="s">
+      <c r="M27" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="X21"/>
-      <c r="Z21"/>
-    </row>
-    <row r="22" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="Q27" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K22" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M28" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="Q22" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="R22" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="X22"/>
-      <c r="Z22"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="N28" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="R28" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H23" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="K23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P23" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q23" s="43">
-        <v>14469</v>
-      </c>
-      <c r="R23" s="43">
-        <v>12</v>
-      </c>
-      <c r="X23"/>
-      <c r="Z23"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="D29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="K24" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" t="s">
-        <v>144</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q24" s="43">
-        <v>14469</v>
-      </c>
-      <c r="R24" s="43">
-        <v>12</v>
-      </c>
-      <c r="X24"/>
-      <c r="Z24"/>
-    </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="J29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P29" t="s">
         <v>80</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>130</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K25" t="s">
-        <v>84</v>
-      </c>
-      <c r="L25" t="s">
-        <v>148</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q25" s="43">
-        <v>627001</v>
-      </c>
-      <c r="R25" s="43">
-        <v>22</v>
-      </c>
-      <c r="X25"/>
-      <c r="Z25"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K26" t="s">
-        <v>153</v>
-      </c>
-      <c r="L26" t="s">
-        <v>154</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q26" s="43">
-        <v>510055</v>
-      </c>
-      <c r="R26" s="43">
-        <v>190</v>
-      </c>
-      <c r="X26"/>
-      <c r="Z26"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" t="s">
-        <v>156</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K27" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O27" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="R27" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="X27"/>
-      <c r="Z27"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K28" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q28" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="R28" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="X28"/>
-      <c r="Z28"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K29" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" t="s">
-        <v>163</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P29" t="s">
-        <v>78</v>
       </c>
       <c r="Q29" s="43">
         <v>14469</v>
@@ -3480,54 +3605,57 @@
       <c r="R29" s="43">
         <v>12</v>
       </c>
-      <c r="X29"/>
-      <c r="Z29"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
-        <v>165</v>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s">
-        <v>61</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>137</v>
+        <v>63</v>
+      </c>
+      <c r="M30" s="55" t="s">
+        <v>139</v>
       </c>
       <c r="N30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Q30" s="43">
         <v>14469</v>
@@ -3535,54 +3663,57 @@
       <c r="R30" s="43">
         <v>12</v>
       </c>
-      <c r="X30"/>
-      <c r="Z30"/>
-    </row>
-    <row r="31" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>168</v>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+    </row>
+    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>170</v>
+        <v>404</v>
       </c>
       <c r="K31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L31" t="s">
-        <v>85</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>149</v>
+        <v>87</v>
+      </c>
+      <c r="M31" s="55" t="s">
+        <v>153</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>171</v>
+        <v>403</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q31" s="43">
         <v>627001</v>
@@ -3590,54 +3721,57 @@
       <c r="R31" s="43">
         <v>22</v>
       </c>
-      <c r="X31"/>
-      <c r="Z31"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>173</v>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H32" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K32" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L32" t="s">
-        <v>154</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>40</v>
+        <v>158</v>
+      </c>
+      <c r="M32" s="55" t="s">
+        <v>42</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q32" s="43">
         <v>210008</v>
@@ -3645,51 +3779,54 @@
       <c r="R32" s="43">
         <v>100</v>
       </c>
-      <c r="X32"/>
-      <c r="Z32"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
-        <v>176</v>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33" s="48" t="s">
+        <v>177</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="M33" s="55" t="s">
+        <v>42</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="43">
         <v>210008</v>
@@ -3697,136 +3834,326 @@
       <c r="R33" s="43">
         <v>100</v>
       </c>
-      <c r="X33"/>
-      <c r="Z33"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X34"/>
-      <c r="Z34"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X35"/>
-      <c r="Z35"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X36"/>
-      <c r="Z36"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X37"/>
-      <c r="Z37"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X38"/>
-      <c r="Z38"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X39"/>
-      <c r="Z39"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X40"/>
-      <c r="Z40"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X41"/>
-      <c r="Z41"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X42"/>
-      <c r="Z42"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X43"/>
-      <c r="Z43"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X44"/>
-      <c r="Z44"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X45"/>
-      <c r="Z45"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X46"/>
-      <c r="Z46"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X47"/>
-      <c r="Z47"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="X48"/>
-      <c r="Z48"/>
-    </row>
-    <row r="49" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X49"/>
-      <c r="Z49"/>
-    </row>
-    <row r="50" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X50"/>
-      <c r="Z50"/>
-    </row>
-    <row r="51" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X51"/>
-      <c r="Z51"/>
-    </row>
-    <row r="52" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X52"/>
-      <c r="Z52"/>
-    </row>
-    <row r="53" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X53"/>
-      <c r="Z53"/>
-    </row>
-    <row r="54" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X54"/>
-      <c r="Z54"/>
-    </row>
-    <row r="55" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X55"/>
-      <c r="Z55"/>
-    </row>
-    <row r="56" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X56"/>
-      <c r="Z56"/>
-    </row>
-    <row r="57" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X57"/>
-      <c r="Z57"/>
-    </row>
-    <row r="58" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X58"/>
-      <c r="Z58"/>
-    </row>
-    <row r="59" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X59"/>
-      <c r="Z59"/>
-    </row>
-    <row r="60" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X60"/>
-      <c r="Z60"/>
-    </row>
-    <row r="61" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X61"/>
-      <c r="Z61"/>
-    </row>
-    <row r="62" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X62"/>
-      <c r="Z62"/>
-    </row>
-    <row r="63" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X63"/>
-      <c r="Z63"/>
-    </row>
-    <row r="64" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X64"/>
-      <c r="Z64"/>
-    </row>
-    <row r="65" spans="24:26" x14ac:dyDescent="0.35">
-      <c r="X65"/>
-      <c r="Z65"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+    </row>
+    <row r="49" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+    </row>
+    <row r="50" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+    </row>
+    <row r="51" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+    </row>
+    <row r="52" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+    </row>
+    <row r="53" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+    </row>
+    <row r="54" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+    </row>
+    <row r="55" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+    </row>
+    <row r="56" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+    </row>
+    <row r="57" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+    </row>
+    <row r="58" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+    </row>
+    <row r="59" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+    </row>
+    <row r="60" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+    </row>
+    <row r="61" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+    </row>
+    <row r="62" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+    </row>
+    <row r="63" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+    </row>
+    <row r="64" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+    </row>
+    <row r="65" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+    </row>
+    <row r="66" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+    </row>
+    <row r="67" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+    </row>
+    <row r="68" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+    </row>
+    <row r="69" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+    </row>
+    <row r="70" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+    </row>
+    <row r="71" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+    </row>
+    <row r="72" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+    </row>
+    <row r="73" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+    </row>
+    <row r="74" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+    </row>
+    <row r="75" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+    </row>
+    <row r="76" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+    </row>
+    <row r="77" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+    </row>
+    <row r="78" spans="19:23" x14ac:dyDescent="0.35">
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3859,19 +4186,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>10</v>
@@ -3883,536 +4210,536 @@
         <v>15</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="53" t="s">
+      <c r="C2" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="F2" s="63" t="s">
         <v>189</v>
       </c>
+      <c r="G2" s="63" t="s">
+        <v>190</v>
+      </c>
       <c r="H2" s="22"/>
-      <c r="I2" s="54">
+      <c r="I2" s="65">
         <v>0</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48" t="s">
-        <v>190</v>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="23"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+        <v>192</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="55" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>192</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="I7" s="27">
         <v>0</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I8" s="27">
         <v>20</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="55" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="64" t="s">
         <v>198</v>
       </c>
+      <c r="F9" s="64" t="s">
+        <v>199</v>
+      </c>
       <c r="G9" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I9" s="27">
         <v>0</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I10" s="27">
         <v>20</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="55" t="s">
-        <v>187</v>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="64" t="s">
+        <v>188</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I11" s="27">
         <v>18</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I12" s="27">
         <v>0</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="56" t="s">
-        <v>93</v>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="66" t="s">
+        <v>95</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I13" s="30">
         <v>0</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I14" s="30">
         <v>20</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="56" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="66" t="s">
         <v>198</v>
       </c>
+      <c r="F15" s="66" t="s">
+        <v>199</v>
+      </c>
       <c r="G15" s="29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I15" s="30">
         <v>0</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I16" s="30">
         <v>20</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="56" t="s">
-        <v>187</v>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="66" t="s">
+        <v>188</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I17" s="30">
         <v>18</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I18" s="30">
         <v>0</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="51" t="s">
-        <v>114</v>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61" t="s">
+        <v>116</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I19" s="31">
         <v>0</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I20" s="31">
         <v>20</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="51" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="61" t="s">
         <v>198</v>
       </c>
+      <c r="F21" s="61" t="s">
+        <v>199</v>
+      </c>
       <c r="G21" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I21" s="31">
         <v>0</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I22" s="31">
         <v>20</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="51" t="s">
-        <v>187</v>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I23" s="31">
         <v>18</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I24" s="31">
         <v>0</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4468,19 +4795,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>10</v>
@@ -4492,342 +4819,342 @@
         <v>15</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>187</v>
+      <c r="B2" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>188</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" s="57">
+        <v>208</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="67">
         <v>0</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="49"/>
+        <v>209</v>
+      </c>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="55" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>192</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="I4" s="27">
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I5" s="27">
         <v>20</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="55" t="s">
-        <v>197</v>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="64" t="s">
+        <v>198</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I6" s="27">
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I7" s="27">
         <v>20</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="55" t="s">
-        <v>187</v>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="64" t="s">
+        <v>188</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I8" s="27">
         <v>18</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I9" s="27">
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="56" t="s">
-        <v>93</v>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="66" t="s">
+        <v>95</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I10" s="30">
         <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I11" s="30">
         <v>20</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="56" t="s">
-        <v>197</v>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I12" s="30">
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I13" s="30">
         <v>20</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="56" t="s">
-        <v>187</v>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="66" t="s">
+        <v>188</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I14" s="30">
         <v>18</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I15" s="30">
         <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4934,96 +5261,96 @@
         <v>16</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="AA1" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P2" s="43">
         <v>3208</v>
       </c>
       <c r="Q2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2">
         <v>3213962</v>
@@ -5032,13 +5359,13 @@
         <v>8000042385</v>
       </c>
       <c r="X2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA2" s="41">
         <v>45524.776910949076</v>
@@ -5046,64 +5373,64 @@
     </row>
     <row r="3" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P3" s="44" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="R3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="S3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V3">
         <v>3213963</v>
@@ -5112,155 +5439,155 @@
         <v>8000042386</v>
       </c>
       <c r="X3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Y3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Z3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AA3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L4">
         <v>20</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" s="43" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="R4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="S4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="T4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V4">
         <v>3213964</v>
       </c>
       <c r="X4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Y4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Z4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AA4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L5">
         <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P5" s="43">
         <v>65189</v>
       </c>
       <c r="Q5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="R5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="S5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="T5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V5">
         <v>3213965</v>
@@ -5269,318 +5596,318 @@
         <v>8000042387</v>
       </c>
       <c r="X5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Y5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Z5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AA5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P6" s="43">
         <v>65189</v>
       </c>
       <c r="Q6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="R6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="S6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="T6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="W6">
         <v>8000042388</v>
       </c>
       <c r="X6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Y6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Z6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AA6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L7">
         <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P7" s="43">
         <v>517501</v>
       </c>
       <c r="Q7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="R7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="S7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="T7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="W7" s="40">
         <v>8000042389</v>
       </c>
       <c r="X7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Y7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Z7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AA7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P8" s="43">
         <v>3208</v>
       </c>
       <c r="Q8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="R8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="S8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="T8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="W8" s="40">
         <v>8000042390</v>
       </c>
       <c r="X8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Y8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Z8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AA8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P9" s="44" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="R9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="S9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="T9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V9">
         <v>3213983</v>
@@ -5589,155 +5916,155 @@
         <v>8000048137</v>
       </c>
       <c r="X9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Y9" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Z9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AA9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L10">
         <v>20</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>99</v>
+        <v>296</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P10" s="43" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q10" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="R10" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="S10" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="T10" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V10">
         <v>3213979</v>
       </c>
       <c r="X10" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Y10" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Z10" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AA10" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11">
         <v>20</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P11" s="43">
         <v>65189</v>
       </c>
       <c r="Q11" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="R11" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="S11" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="T11" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V11">
         <v>3213969</v>
@@ -5746,81 +6073,81 @@
         <v>8000042376</v>
       </c>
       <c r="X11" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Y11" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Z11" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AA11" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P12" s="43">
         <v>65189</v>
       </c>
       <c r="Q12" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="R12" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="S12" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="T12" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V12">
         <v>3213970</v>
@@ -5829,78 +6156,78 @@
         <v>8000042377</v>
       </c>
       <c r="X12" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Y12" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Z12" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AA12" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L13">
         <v>18</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P13" s="43">
         <v>517501</v>
       </c>
       <c r="Q13" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="R13" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="S13" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="T13" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V13">
         <v>3213971</v>
@@ -5909,315 +6236,315 @@
         <v>8000042378</v>
       </c>
       <c r="X13" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Y13" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Z13" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AA13" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P14" s="43">
         <v>3208</v>
       </c>
       <c r="Q14" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="R14" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="S14" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="T14" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V14" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="W14">
         <v>8000042379</v>
       </c>
       <c r="X14" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Y14" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Z14" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AA14" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P15" s="44" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q15" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="R15" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="S15" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="T15" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V15" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="W15" s="40">
         <v>8000042380</v>
       </c>
       <c r="X15" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Y15" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Z15" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AA15" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L16">
         <v>20</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P16" s="43" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q16" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="R16" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="S16" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="T16" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V16" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="X16" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Y16" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Z16" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AA16" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P17" s="43">
         <v>65189</v>
       </c>
       <c r="Q17" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="R17" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="S17" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="T17" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V17">
         <v>3213975</v>
@@ -6226,323 +6553,323 @@
         <v>8000042381</v>
       </c>
       <c r="X17" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Y17" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Z17" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AA17" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L18">
         <v>20</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="43">
         <v>65189</v>
       </c>
       <c r="Q18" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="R18" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="S18" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="T18" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V18" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="W18" s="40">
         <v>8000042382</v>
       </c>
       <c r="X18" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Y18" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Z18" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AA18" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L19">
         <v>18</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P19" s="43">
         <v>517501</v>
       </c>
       <c r="Q19" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="R19" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="S19" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="T19" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V19" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="W19" s="40">
         <v>8000042383</v>
       </c>
       <c r="X19" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Y19" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Z19" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="AA19" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P20" s="43">
         <v>3208</v>
       </c>
       <c r="Q20" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="R20" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="S20" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="T20" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V20" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="W20" s="40">
         <v>8000042384</v>
       </c>
       <c r="X20" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Y20" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Z20" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AA20" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/UploadExcel/TD_RegOrderCreation.xlsx
+++ b/UploadExcel/TD_RegOrderCreation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\UploadExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\TestSuites\UploadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA130FC1-DBFE-4B87-B14F-57C31E8B4EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57F0E7E-B61C-4FB1-9C5B-0DE792A6FDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="NOT TO USE" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$S$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NOT TO USE'!$A$1:$AA$20</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="405">
   <si>
     <t>TesctCaseName</t>
   </si>
@@ -92,6 +91,18 @@
     <t>InvoiceNumber</t>
   </si>
   <si>
+    <t>OrderId</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>SAPOrderID</t>
+  </si>
+  <si>
+    <t>WileyOrderId</t>
+  </si>
+  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -107,18 +118,6 @@
     <t>ResponseStatusCode</t>
   </si>
   <si>
-    <t>OrderId</t>
-  </si>
-  <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
-    <t>SAPOrderID</t>
-  </si>
-  <si>
-    <t>WileyOrderId</t>
-  </si>
-  <si>
     <t>JSONText</t>
   </si>
   <si>
@@ -320,10 +319,7 @@
     <t>1780.00</t>
   </si>
   <si>
-    <t>1896.00</t>
-  </si>
-  <si>
-    <t>316.00</t>
+    <t>1580.00</t>
   </si>
   <si>
     <t>Create Invoice Order with New Customer P2 with Society Discounts with GOA</t>
@@ -344,10 +340,10 @@
     <t>2108.00</t>
   </si>
   <si>
-    <t>1776.00</t>
-  </si>
-  <si>
-    <t>296.20</t>
+    <t>381.60</t>
+  </si>
+  <si>
+    <t>200.10</t>
   </si>
   <si>
     <t>Create Invoice Order with New Customer P3 with Editorial Discounts with VAT and with GOA</t>
@@ -356,6 +352,9 @@
     <t>1680.00</t>
   </si>
   <si>
+    <t>1480.00</t>
+  </si>
+  <si>
     <t>DE129517720</t>
   </si>
   <si>
@@ -386,10 +385,10 @@
     <t>1180.00</t>
   </si>
   <si>
-    <t>1132.00</t>
-  </si>
-  <si>
-    <t>118.00</t>
+    <t>1132.80</t>
+  </si>
+  <si>
+    <t>188.80</t>
   </si>
   <si>
     <t>236.00</t>
@@ -410,7 +409,7 @@
     <t>800.00</t>
   </si>
   <si>
-    <t>640.00</t>
+    <t>115.20</t>
   </si>
   <si>
     <t>160.00</t>
@@ -521,6 +520,12 @@
     <t>9b920bd9-28f3-413c-ba21-e101b04ab13e</t>
   </si>
   <si>
+    <t>1176.00</t>
+  </si>
+  <si>
+    <t>196.00</t>
+  </si>
+  <si>
     <t>Create Order with Society Discount (%) P3 with Invoice HOA Order with VAT ID</t>
   </si>
   <si>
@@ -546,6 +551,12 @@
   </si>
   <si>
     <t>2f1b8d19-e501-4606-9149-b3dfbd97b9b7</t>
+  </si>
+  <si>
+    <t>1593.00</t>
+  </si>
+  <si>
+    <t>243.00</t>
   </si>
   <si>
     <t>150.00</t>
@@ -904,6 +915,12 @@
     <t>2024-08-20 18:38:54.519</t>
   </si>
   <si>
+    <t>1896.00</t>
+  </si>
+  <si>
+    <t>316.00</t>
+  </si>
+  <si>
     <t>20240820193816Test</t>
   </si>
   <si>
@@ -962,6 +979,12 @@
     <t>2024-08-20 18:44:47.966</t>
   </si>
   <si>
+    <t>1776.00</t>
+  </si>
+  <si>
+    <t>296.20</t>
+  </si>
+  <si>
     <t>20240820183856Test</t>
   </si>
   <si>
@@ -1101,6 +1124,12 @@
     <t>2024-08-20 18:39:02.807</t>
   </si>
   <si>
+    <t>1132.00</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
     <t>20240820183905Test</t>
   </si>
   <si>
@@ -1185,6 +1214,9 @@
     <t>2024-08-20 18:39:09.024</t>
   </si>
   <si>
+    <t>640.00</t>
+  </si>
+  <si>
     <t>20240820183910Test</t>
   </si>
   <si>
@@ -1243,43 +1275,10 @@
     <t>2024-08-20 18:39:12.100</t>
   </si>
   <si>
-    <t>1580.00</t>
-  </si>
-  <si>
-    <t>200.10</t>
-  </si>
-  <si>
-    <t>381.60</t>
-  </si>
-  <si>
-    <t>2289.59</t>
-  </si>
-  <si>
-    <t>1480.00</t>
-  </si>
-  <si>
-    <t>188.80</t>
-  </si>
-  <si>
-    <t>1132.80</t>
-  </si>
-  <si>
-    <t>115.20</t>
-  </si>
-  <si>
-    <t>752.20</t>
-  </si>
-  <si>
-    <t>196.00</t>
-  </si>
-  <si>
-    <t>1176.00</t>
-  </si>
-  <si>
-    <t>243.00</t>
-  </si>
-  <si>
-    <t>1593.00</t>
+    <t>2289.49</t>
+  </si>
+  <si>
+    <t>755.20</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1562,27 +1561,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1591,7 +1578,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1599,6 +1589,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1883,37 +1895,37 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="83.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.90625" style="54" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.08984375" style="43" customWidth="1"/>
-    <col min="19" max="19" width="15.7265625" style="43" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.81640625" style="43" customWidth="1"/>
-    <col min="21" max="23" width="12.08984375" style="43" customWidth="1"/>
-    <col min="24" max="24" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.453125" customWidth="1"/>
-    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.08984375" style="43" customWidth="1"/>
+    <col min="18" max="18" width="15.7265625" style="43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.81640625" style="43" customWidth="1"/>
+    <col min="20" max="22" width="12.08984375" style="43" customWidth="1"/>
+    <col min="23" max="23" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="18.453125" customWidth="1"/>
+    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1921,97 +1933,94 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="L1" s="53" t="s">
         <v>12</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="P1" s="42" t="s">
+        <v>16</v>
+      </c>
       <c r="Q1" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="42" t="s">
         <v>17</v>
       </c>
+      <c r="R1" s="52" t="s">
+        <v>18</v>
+      </c>
       <c r="S1" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="U1" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="45" t="s">
+      <c r="AB1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="45" t="s">
+      <c r="AC1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="AD1" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>32</v>
       </c>
@@ -2019,54 +2028,53 @@
         <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="57">
+      <c r="K2" s="67"/>
+      <c r="L2" s="68">
         <v>0</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="M2" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="43">
+      <c r="O2" s="67"/>
+      <c r="P2" s="69">
         <v>510055</v>
       </c>
-      <c r="R2" s="43">
+      <c r="Q2" s="69">
         <v>190</v>
       </c>
+      <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
-      <c r="W2"/>
-    </row>
-    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>44</v>
       </c>
@@ -2074,57 +2082,55 @@
         <v>33</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="57">
+      <c r="L3" s="68">
         <v>0</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="M3" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="N3" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="O3" s="67"/>
+      <c r="P3" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="Q3" s="70" t="s">
         <v>55</v>
       </c>
+      <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:32" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>56</v>
       </c>
@@ -2132,57 +2138,55 @@
         <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="57">
+      <c r="L4" s="68">
         <v>20</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="N4" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="O4" s="67"/>
+      <c r="P4" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="Q4" s="69" t="s">
         <v>67</v>
       </c>
+      <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
-      <c r="W4"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>68</v>
       </c>
@@ -2190,57 +2194,55 @@
         <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
         <v>69</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="57">
+      <c r="L5" s="68">
         <v>20</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="M5" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="N5" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="O5" s="67"/>
+      <c r="P5" s="69">
         <v>14469</v>
       </c>
-      <c r="R5" s="43">
+      <c r="Q5" s="69">
         <v>12</v>
       </c>
+      <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>78</v>
       </c>
@@ -2248,60 +2250,57 @@
         <v>33</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>69</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J6" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="57">
+      <c r="L6" s="68">
         <v>0</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="M6" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="N6" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O6" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="P6" s="69">
         <v>14469</v>
       </c>
-      <c r="R6" s="43">
+      <c r="Q6" s="69">
         <v>12</v>
       </c>
+      <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
-      <c r="W6"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
         <v>81</v>
       </c>
@@ -2309,57 +2308,55 @@
         <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J7" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="57">
+      <c r="L7" s="68">
         <v>18</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="M7" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="N7" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="O7" s="67"/>
+      <c r="P7" s="69">
         <v>627001</v>
       </c>
-      <c r="R7" s="43">
+      <c r="Q7" s="69">
         <v>22</v>
       </c>
+      <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
-      <c r="W7"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
         <v>90</v>
       </c>
@@ -2367,57 +2364,55 @@
         <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="57">
+      <c r="L8" s="68">
         <v>0</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="M8" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="N8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="O8" s="67"/>
+      <c r="P8" s="69">
         <v>210008</v>
       </c>
-      <c r="R8" s="43">
+      <c r="Q8" s="69">
         <v>100</v>
       </c>
+      <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
-      <c r="W8"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>94</v>
       </c>
@@ -2425,234 +2420,225 @@
         <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="I9" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K9" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="57">
+      <c r="L9" s="68">
         <v>0</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="M9" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="N9" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="Q9" s="44" t="s">
+      <c r="O9" s="67"/>
+      <c r="P9" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="44" t="s">
+      <c r="Q9" s="70" t="s">
         <v>55</v>
       </c>
+      <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
-      <c r="W9"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="I10" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="68">
+        <v>20</v>
+      </c>
+      <c r="M10" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="K10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="57">
-        <v>20</v>
-      </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q10" s="43" t="s">
+      <c r="O10" s="67"/>
+      <c r="P10" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="R10" s="43" t="s">
+      <c r="Q10" s="69" t="s">
         <v>67</v>
       </c>
+      <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
-      <c r="W10"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="68">
+        <v>20</v>
+      </c>
+      <c r="M11" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="57">
-        <v>20</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q11" s="43">
+      <c r="N11" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="67"/>
+      <c r="P11" s="69">
         <v>14469</v>
       </c>
-      <c r="R11" s="43">
+      <c r="Q11" s="69">
         <v>12</v>
       </c>
+      <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
-      <c r="W11"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="H12" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="57">
+      <c r="L12" s="68">
         <v>0</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="M12" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="N12" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="P12" t="s">
+      <c r="O12" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="P12" s="69">
         <v>14469</v>
       </c>
-      <c r="R12" s="43">
+      <c r="Q12" s="69">
         <v>12</v>
       </c>
+      <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
-      <c r="W12"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>110</v>
       </c>
@@ -2660,57 +2646,55 @@
         <v>33</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="H13" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="I13" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K13" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="57">
+      <c r="L13" s="68">
         <v>18</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="M13" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="N13" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="Q13" s="43">
+      <c r="O13" s="67"/>
+      <c r="P13" s="69">
         <v>627001</v>
       </c>
-      <c r="R13" s="43">
+      <c r="Q13" s="69">
         <v>22</v>
       </c>
+      <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
-      <c r="W13"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>113</v>
       </c>
@@ -2718,54 +2702,53 @@
         <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="H14" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="I14" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="57">
+      <c r="K14" s="67"/>
+      <c r="L14" s="68">
         <v>0</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="M14" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="N14" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="O14" s="67"/>
+      <c r="P14" s="69">
         <v>510055</v>
       </c>
-      <c r="R14" s="43">
+      <c r="Q14" s="69">
         <v>190</v>
       </c>
+      <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
-      <c r="W14"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>115</v>
       </c>
@@ -2773,57 +2756,55 @@
         <v>33</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="H15" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="I15" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="K15" t="s">
+      <c r="J15" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="L15" t="s">
+      <c r="K15" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="57">
+      <c r="L15" s="68">
         <v>0</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="M15" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="N15" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="44" t="s">
+      <c r="O15" s="67"/>
+      <c r="P15" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="44" t="s">
+      <c r="Q15" s="70" t="s">
         <v>55</v>
       </c>
+      <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
-      <c r="W15"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>117</v>
       </c>
@@ -2831,57 +2812,55 @@
         <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="H16" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="I16" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="L16" t="s">
+      <c r="K16" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="57">
+      <c r="L16" s="68">
         <v>20</v>
       </c>
-      <c r="N16" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="M16" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="Q16" s="43" t="s">
+      <c r="O16" s="67"/>
+      <c r="P16" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="R16" s="43" t="s">
+      <c r="Q16" s="69" t="s">
         <v>67</v>
       </c>
+      <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
-      <c r="W16"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>122</v>
       </c>
@@ -2889,60 +2868,57 @@
         <v>33</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
         <v>69</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="H17" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="I17" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J17" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="L17" t="s">
+      <c r="K17" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="M17" s="57">
+      <c r="L17" s="68">
         <v>0</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="M17" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="N17" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="O17" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="P17" s="69">
         <v>14469</v>
       </c>
-      <c r="R17" s="43">
+      <c r="Q17" s="69">
         <v>12</v>
       </c>
+      <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
-      <c r="W17"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>124</v>
       </c>
@@ -2950,57 +2926,55 @@
         <v>33</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="H18" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="I18" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="L18" t="s">
+      <c r="K18" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="M18" s="57">
+      <c r="L18" s="68">
         <v>20</v>
       </c>
-      <c r="N18" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="M18" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="N18" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="O18" s="67"/>
+      <c r="P18" s="69">
         <v>14469</v>
       </c>
-      <c r="R18" s="43">
+      <c r="Q18" s="69">
         <v>12</v>
       </c>
+      <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
-      <c r="W18"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>125</v>
       </c>
@@ -3008,57 +2982,55 @@
         <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
         <v>82</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="H19" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="I19" s="66" t="s">
+        <v>404</v>
+      </c>
+      <c r="J19" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="L19" t="s">
+      <c r="K19" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="M19" s="57">
+      <c r="L19" s="68">
         <v>18</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="M19" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="O19" s="67"/>
+      <c r="P19" s="69">
         <v>627001</v>
       </c>
-      <c r="R19" s="43">
+      <c r="Q19" s="69">
         <v>22</v>
       </c>
+      <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
-      <c r="W19"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="50" t="s">
         <v>129</v>
       </c>
@@ -3066,54 +3038,53 @@
         <v>33</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="H20" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="I20" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="K20" t="s">
+      <c r="J20" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="57">
+      <c r="K20" s="67"/>
+      <c r="L20" s="68">
         <v>0</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="M20" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="N20" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="O20" s="67"/>
+      <c r="P20" s="69">
         <v>210008</v>
       </c>
-      <c r="R20" s="43">
+      <c r="Q20" s="69">
         <v>100</v>
       </c>
+      <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
-      <c r="W20"/>
-    </row>
-    <row r="21" spans="1:23" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>130</v>
       </c>
@@ -3121,52 +3092,50 @@
         <v>131</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="E21" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="F21" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="G21" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="H21" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="I21" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="49" t="s">
+      <c r="J21" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="49" t="s">
+      <c r="K21" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="57" t="s">
+      <c r="L21" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="49" t="s">
+      <c r="M21" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="O21" s="49" t="s">
+      <c r="N21" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="Q21" s="56" t="s">
+      <c r="O21" s="72"/>
+      <c r="P21" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="R21" s="56" t="s">
+      <c r="Q21" s="73" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="49" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" s="49" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>136</v>
       </c>
@@ -3174,52 +3143,50 @@
         <v>131</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="E22" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="F22" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="G22" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="49" t="s">
+      <c r="H22" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="J22" s="49" t="s">
+      <c r="I22" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="J22" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="L22" s="49" t="s">
+      <c r="K22" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="57" t="s">
+      <c r="L22" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="N22" s="49" t="s">
+      <c r="M22" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="O22" s="49" t="s">
+      <c r="N22" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="Q22" s="56" t="s">
+      <c r="O22" s="72"/>
+      <c r="P22" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="R22" s="56" t="s">
+      <c r="Q22" s="73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>142</v>
       </c>
@@ -3227,55 +3194,52 @@
         <v>131</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="E23" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="F23" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="G23" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="H23" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="J23" s="49" t="s">
+      <c r="I23" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="49" t="s">
+      <c r="J23" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="49" t="s">
+      <c r="K23" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="57" t="s">
+      <c r="L23" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="49" t="s">
+      <c r="M23" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="49" t="s">
+      <c r="N23" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="P23" s="49" t="s">
+      <c r="O23" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="Q23" s="56">
+      <c r="P23" s="73">
         <v>14469</v>
       </c>
-      <c r="R23" s="56">
+      <c r="Q23" s="73">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>146</v>
       </c>
@@ -3283,52 +3247,50 @@
         <v>131</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="E24" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="F24" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="G24" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="H24" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="I24" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="K24" s="49" t="s">
+      <c r="J24" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="49" t="s">
+      <c r="K24" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="M24" s="57" t="s">
+      <c r="L24" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="N24" s="49" t="s">
+      <c r="M24" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="O24" s="49" t="s">
+      <c r="N24" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="Q24" s="56">
+      <c r="O24" s="72"/>
+      <c r="P24" s="73">
         <v>14469</v>
       </c>
-      <c r="R24" s="56">
+      <c r="Q24" s="73">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>150</v>
       </c>
@@ -3336,52 +3298,50 @@
         <v>131</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="E25" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="F25" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="G25" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="I25" s="49" t="s">
+      <c r="H25" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="49" t="s">
+      <c r="I25" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="K25" s="49" t="s">
+      <c r="J25" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="L25" s="49" t="s">
+      <c r="K25" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="M25" s="57" t="s">
+      <c r="L25" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="N25" s="49" t="s">
+      <c r="M25" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="O25" s="49" t="s">
+      <c r="N25" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="Q25" s="56">
+      <c r="O25" s="72"/>
+      <c r="P25" s="73">
         <v>627001</v>
       </c>
-      <c r="R25" s="56">
+      <c r="Q25" s="73">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>155</v>
       </c>
@@ -3389,52 +3349,50 @@
         <v>131</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="E26" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="F26" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="G26" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="H26" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="J26" s="49" t="s">
+      <c r="I26" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="49" t="s">
+      <c r="J26" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="L26" s="49" t="s">
+      <c r="K26" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="M26" s="57" t="s">
+      <c r="L26" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="49" t="s">
+      <c r="M26" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="O26" s="49" t="s">
+      <c r="N26" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="Q26" s="56">
+      <c r="O26" s="72"/>
+      <c r="P26" s="73">
         <v>510055</v>
       </c>
-      <c r="R26" s="56">
+      <c r="Q26" s="73">
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>159</v>
       </c>
@@ -3442,57 +3400,55 @@
         <v>131</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" t="s">
         <v>46</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="H27" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="I27" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="K27" t="s">
+      <c r="J27" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="L27" t="s">
+      <c r="K27" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="55" t="s">
+      <c r="L27" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="M27" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O27" s="44" t="s">
+      <c r="N27" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="Q27" s="44" t="s">
+      <c r="O27" s="67"/>
+      <c r="P27" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="R27" s="44" t="s">
+      <c r="Q27" s="70" t="s">
         <v>55</v>
       </c>
+      <c r="R27"/>
       <c r="S27"/>
       <c r="T27"/>
       <c r="U27"/>
       <c r="V27"/>
-      <c r="W27"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
         <v>162</v>
       </c>
@@ -3500,660 +3456,567 @@
         <v>131</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s">
         <v>57</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="H28" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="I28" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="L28" t="s">
+      <c r="K28" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="M28" s="55" t="s">
+      <c r="L28" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="N28" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="M28" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="N28" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="Q28" s="43" t="s">
+      <c r="O28" s="67"/>
+      <c r="P28" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="R28" s="43" t="s">
+      <c r="Q28" s="69" t="s">
         <v>67</v>
       </c>
+      <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
       <c r="U28"/>
       <c r="V28"/>
-      <c r="W28"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" t="s">
         <v>69</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F29" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="H29" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="I29" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="J29" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="L29" t="s">
-        <v>166</v>
-      </c>
-      <c r="M29" s="55" t="s">
+      <c r="K29" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="M29" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="N29" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="O29" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="Q29" s="43">
+      <c r="P29" s="69">
         <v>14469</v>
       </c>
-      <c r="R29" s="43">
+      <c r="Q29" s="69">
         <v>12</v>
       </c>
+      <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
-      <c r="W29"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B30" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D30" t="s">
         <v>69</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F30" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="H30" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="I30" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="M30" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="N30" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="K30" t="s">
-        <v>62</v>
-      </c>
-      <c r="L30" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q30" s="43">
+      <c r="O30" s="67"/>
+      <c r="P30" s="69">
         <v>14469</v>
       </c>
-      <c r="R30" s="43">
+      <c r="Q30" s="69">
         <v>12</v>
       </c>
+      <c r="R30"/>
       <c r="S30"/>
       <c r="T30"/>
       <c r="U30"/>
       <c r="V30"/>
-      <c r="W30"/>
-    </row>
-    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B31" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" t="s">
         <v>82</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F31" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H31" t="s">
-        <v>172</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="G31" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="I31" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="J31" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="L31" t="s">
+      <c r="K31" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="M31" s="55" t="s">
+      <c r="L31" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="N31" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q31" s="43">
+      <c r="M31" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="N31" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="O31" s="67"/>
+      <c r="P31" s="69">
         <v>627001</v>
       </c>
-      <c r="R31" s="43">
+      <c r="Q31" s="69">
         <v>22</v>
       </c>
+      <c r="R31"/>
       <c r="S31"/>
       <c r="T31"/>
       <c r="U31"/>
       <c r="V31"/>
-      <c r="W31"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B32" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32" t="s">
         <v>36</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F32" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H32" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="G32" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="I32" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="J32" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="L32" t="s">
+      <c r="K32" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="M32" s="55" t="s">
+      <c r="L32" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="M32" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q32" s="43">
+      <c r="N32" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="O32" s="67"/>
+      <c r="P32" s="69">
         <v>210008</v>
       </c>
-      <c r="R32" s="43">
+      <c r="Q32" s="69">
         <v>100</v>
       </c>
+      <c r="R32"/>
       <c r="S32"/>
       <c r="T32"/>
       <c r="U32"/>
       <c r="V32"/>
-      <c r="W32"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" s="48" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B33" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" t="s">
         <v>36</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F33" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="H33" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="I33" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="K33" t="s">
+      <c r="J33" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="M33" s="55" t="s">
+      <c r="K33" s="67"/>
+      <c r="L33" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="M33" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="N33" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Q33" s="43">
+      <c r="O33" s="67"/>
+      <c r="P33" s="69">
         <v>210008</v>
       </c>
-      <c r="R33" s="43">
+      <c r="Q33" s="69">
         <v>100</v>
       </c>
+      <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
       <c r="V33"/>
-      <c r="W33"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
       <c r="U34"/>
       <c r="V34"/>
-      <c r="W34"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
       <c r="U35"/>
       <c r="V35"/>
-      <c r="W35"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36"/>
       <c r="V36"/>
-      <c r="W36"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48"/>
-    </row>
-    <row r="49" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
-    </row>
-    <row r="50" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-      <c r="W50"/>
-    </row>
-    <row r="51" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51"/>
-    </row>
-    <row r="52" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-    </row>
-    <row r="53" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53"/>
-    </row>
-    <row r="54" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-    </row>
-    <row r="55" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55"/>
-    </row>
-    <row r="56" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-    </row>
-    <row r="57" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57"/>
-    </row>
-    <row r="58" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-    </row>
-    <row r="59" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-    </row>
-    <row r="60" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-    </row>
-    <row r="61" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-    </row>
-    <row r="62" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-    </row>
-    <row r="63" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-    </row>
-    <row r="64" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
-      <c r="W64"/>
-    </row>
-    <row r="65" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-    </row>
-    <row r="66" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-    </row>
-    <row r="67" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="U67"/>
-      <c r="V67"/>
-      <c r="W67"/>
-    </row>
-    <row r="68" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-      <c r="W68"/>
-    </row>
-    <row r="69" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-    </row>
-    <row r="70" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-      <c r="W70"/>
-    </row>
-    <row r="71" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="U71"/>
-      <c r="V71"/>
-      <c r="W71"/>
-    </row>
-    <row r="72" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-      <c r="W72"/>
-    </row>
-    <row r="73" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-      <c r="W73"/>
-    </row>
-    <row r="74" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-      <c r="W74"/>
-    </row>
-    <row r="75" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S75"/>
-      <c r="T75"/>
-      <c r="U75"/>
-      <c r="V75"/>
-      <c r="W75"/>
-    </row>
-    <row r="76" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-    </row>
-    <row r="77" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-    </row>
-    <row r="78" spans="19:23" x14ac:dyDescent="0.35">
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="U78"/>
-      <c r="V78"/>
-      <c r="W78"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="67"/>
+      <c r="AD37" s="67"/>
+      <c r="AE37" s="67"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="67"/>
+      <c r="AE38" s="67"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="67"/>
+      <c r="AE39" s="67"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="69"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="67"/>
+      <c r="AE40" s="67"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="67"/>
+      <c r="AE41" s="67"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="69"/>
+      <c r="W42" s="67"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="67"/>
+      <c r="AC42" s="67"/>
+      <c r="AD42" s="67"/>
+      <c r="AE42" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4186,19 +4049,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>10</v>
@@ -4210,109 +4073,109 @@
         <v>15</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="63" t="s">
+      <c r="A2" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>190</v>
+      <c r="E2" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>194</v>
       </c>
       <c r="H2" s="22"/>
-      <c r="I2" s="65">
+      <c r="I2" s="61">
         <v>0</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58" t="s">
-        <v>191</v>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="23"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+        <v>196</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="64" t="s">
-        <v>193</v>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="60" t="s">
+        <v>197</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>51</v>
@@ -4321,7 +4184,7 @@
         <v>46</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I7" s="27">
         <v>0</v>
@@ -4332,21 +4195,21 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="25" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>192</v>
       </c>
       <c r="I8" s="27">
         <v>20</v>
@@ -4357,21 +4220,21 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>199</v>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>203</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I9" s="27">
         <v>0</v>
@@ -4382,17 +4245,17 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="26" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I10" s="27">
         <v>20</v>
@@ -4403,21 +4266,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="64" t="s">
-        <v>188</v>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="60" t="s">
+        <v>192</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>86</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I11" s="27">
         <v>18</v>
@@ -4428,19 +4291,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I12" s="27">
         <v>0</v>
@@ -4451,23 +4314,23 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="66" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="55" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I13" s="30">
         <v>0</v>
@@ -4478,92 +4341,92 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="28" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>51</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I14" s="30">
         <v>20</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>199</v>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>203</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I15" s="30">
         <v>0</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="29" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I16" s="30">
         <v>20</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="66" t="s">
-        <v>188</v>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="55" t="s">
+        <v>192</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>86</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I17" s="30">
         <v>18</v>
@@ -4574,19 +4437,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="29" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I18" s="30">
         <v>0</v>
@@ -4597,14 +4460,14 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="61" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59" t="s">
         <v>116</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>51</v>
@@ -4613,57 +4476,57 @@
         <v>46</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I19" s="31">
         <v>0</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F20" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H20" s="31" t="s">
         <v>196</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>192</v>
       </c>
       <c r="I20" s="31">
         <v>20</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>199</v>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>203</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I21" s="31">
         <v>0</v>
@@ -4674,17 +4537,17 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="19" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I22" s="31">
         <v>20</v>
@@ -4695,21 +4558,21 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="61" t="s">
-        <v>188</v>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59" t="s">
+        <v>192</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>86</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I23" s="31">
         <v>18</v>
@@ -4720,19 +4583,19 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="19" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I24" s="31">
         <v>0</v>
@@ -4744,6 +4607,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="B2:B24"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="C2:C24"/>
     <mergeCell ref="G2:G6"/>
@@ -4760,11 +4628,6 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="B2:B24"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="E11:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4795,19 +4658,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>10</v>
@@ -4819,78 +4682,78 @@
         <v>15</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="63" t="s">
+      <c r="A2" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="68" t="s">
-        <v>188</v>
+      <c r="E2" s="65" t="s">
+        <v>192</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="I2" s="67">
+        <v>212</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="64">
         <v>0</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="59"/>
+        <v>213</v>
+      </c>
+      <c r="G3" s="58"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="18" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="64" t="s">
-        <v>193</v>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="60" t="s">
+        <v>197</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>46</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I4" s="27">
         <v>0</v>
@@ -4900,21 +4763,21 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="25" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I5" s="27">
         <v>20</v>
@@ -4924,21 +4787,21 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="64" t="s">
-        <v>198</v>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="60" t="s">
+        <v>202</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I6" s="27">
         <v>0</v>
@@ -4948,19 +4811,19 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="37" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I7" s="27">
         <v>20</v>
@@ -4970,21 +4833,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="64" t="s">
-        <v>188</v>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="60" t="s">
+        <v>192</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I8" s="27">
         <v>18</v>
@@ -4994,19 +4857,19 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="36" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I9" s="27">
         <v>0</v>
@@ -5016,23 +4879,23 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="66" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="55" t="s">
         <v>95</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I10" s="30">
         <v>0</v>
@@ -5042,21 +4905,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="28" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I11" s="30">
         <v>20</v>
@@ -5066,95 +4929,95 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="66" t="s">
-        <v>198</v>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="55" t="s">
+        <v>202</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I12" s="30">
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="38" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I13" s="30">
         <v>20</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="66" t="s">
-        <v>188</v>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="55" t="s">
+        <v>192</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>157</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I14" s="30">
         <v>18</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="38" t="s">
         <v>86</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I15" s="30">
         <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5261,28 +5124,28 @@
         <v>16</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>30</v>
@@ -5296,7 +5159,7 @@
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>45</v>
@@ -5317,10 +5180,10 @@
         <v>48</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -5332,22 +5195,22 @@
         <v>42</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P2" s="43">
         <v>3208</v>
       </c>
       <c r="Q2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="R2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="S2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="T2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>43</v>
@@ -5359,13 +5222,13 @@
         <v>8000042385</v>
       </c>
       <c r="X2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Y2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Z2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AA2" s="41">
         <v>45524.776910949076</v>
@@ -5394,10 +5257,10 @@
         <v>48</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J3" t="s">
         <v>51</v>
@@ -5415,19 +5278,19 @@
         <v>53</v>
       </c>
       <c r="P3" s="44" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="R3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="S3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="T3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>43</v>
@@ -5439,16 +5302,16 @@
         <v>8000042386</v>
       </c>
       <c r="X3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Y3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Z3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AA3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5474,7 +5337,7 @@
         <v>59</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>61</v>
@@ -5495,19 +5358,19 @@
         <v>65</v>
       </c>
       <c r="P4" s="43" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="R4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="S4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="T4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>43</v>
@@ -5516,16 +5379,16 @@
         <v>3213964</v>
       </c>
       <c r="X4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Y4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Z4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
@@ -5575,16 +5438,16 @@
         <v>65189</v>
       </c>
       <c r="Q5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="R5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="S5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="T5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>43</v>
@@ -5596,16 +5459,16 @@
         <v>8000042387</v>
       </c>
       <c r="X5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Z5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AA5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
@@ -5658,37 +5521,37 @@
         <v>65189</v>
       </c>
       <c r="Q6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="R6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="S6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="T6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="W6">
         <v>8000042388</v>
       </c>
       <c r="X6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Y6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Z6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AA6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
@@ -5717,7 +5580,7 @@
         <v>84</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J7" t="s">
         <v>86</v>
@@ -5729,7 +5592,7 @@
         <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>89</v>
@@ -5738,37 +5601,37 @@
         <v>517501</v>
       </c>
       <c r="Q7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="R7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="S7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="T7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="W7" s="40">
         <v>8000042389</v>
       </c>
       <c r="X7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Y7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Z7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AA7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -5794,10 +5657,10 @@
         <v>71</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
@@ -5809,43 +5672,43 @@
         <v>42</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P8" s="43">
         <v>3208</v>
       </c>
       <c r="Q8" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="R8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="S8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="T8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="U8" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="W8" s="40">
         <v>8000042390</v>
       </c>
       <c r="X8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Y8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Z8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AA8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
@@ -5874,7 +5737,7 @@
         <v>96</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="J9" t="s">
         <v>62</v>
@@ -5886,25 +5749,25 @@
         <v>0</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="P9" s="44" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q9" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="R9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="S9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="T9" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="U9" s="17" t="s">
         <v>43</v>
@@ -5916,21 +5779,21 @@
         <v>8000048137</v>
       </c>
       <c r="X9" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Y9" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Z9" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AA9" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>45</v>
@@ -5954,7 +5817,7 @@
         <v>96</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="J10" t="s">
         <v>51</v>
@@ -5966,25 +5829,25 @@
         <v>20</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P10" s="43" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q10" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="R10" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="S10" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="T10" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="U10" s="16" t="s">
         <v>43</v>
@@ -5993,21 +5856,21 @@
         <v>3213979</v>
       </c>
       <c r="X10" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Y10" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Z10" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AA10" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>45</v>
@@ -6028,10 +5891,10 @@
         <v>39</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>105</v>
+        <v>311</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -6043,7 +5906,7 @@
         <v>20</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>106</v>
+        <v>312</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>53</v>
@@ -6052,16 +5915,16 @@
         <v>65189</v>
       </c>
       <c r="Q11" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="R11" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="S11" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="T11" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="U11" s="15" t="s">
         <v>43</v>
@@ -6073,21 +5936,21 @@
         <v>8000042376</v>
       </c>
       <c r="X11" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Y11" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Z11" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AA11" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>45</v>
@@ -6108,10 +5971,10 @@
         <v>39</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>105</v>
+        <v>311</v>
       </c>
       <c r="J12" t="s">
         <v>74</v>
@@ -6123,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>106</v>
+        <v>312</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>53</v>
@@ -6135,16 +5998,16 @@
         <v>65189</v>
       </c>
       <c r="Q12" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="R12" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="S12" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="T12" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="U12" s="15" t="s">
         <v>43</v>
@@ -6156,16 +6019,16 @@
         <v>8000042377</v>
       </c>
       <c r="X12" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Y12" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Z12" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="AA12" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
@@ -6194,7 +6057,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="J13" t="s">
         <v>86</v>
@@ -6215,16 +6078,16 @@
         <v>517501</v>
       </c>
       <c r="Q13" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="R13" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="S13" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="T13" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="U13" s="15" t="s">
         <v>43</v>
@@ -6236,16 +6099,16 @@
         <v>8000042378</v>
       </c>
       <c r="X13" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Y13" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Z13" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AA13" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
@@ -6292,37 +6155,37 @@
         <v>3208</v>
       </c>
       <c r="Q14" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="R14" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="S14" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="T14" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="U14" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V14" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="W14">
         <v>8000042379</v>
       </c>
       <c r="X14" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Y14" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Z14" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AA14" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
@@ -6348,10 +6211,10 @@
         <v>48</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J15" t="s">
         <v>51</v>
@@ -6369,40 +6232,40 @@
         <v>53</v>
       </c>
       <c r="P15" s="44" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q15" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="R15" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="S15" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="T15" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="U15" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V15" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="W15" s="40">
         <v>8000042380</v>
       </c>
       <c r="X15" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Y15" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Z15" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AA15" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
@@ -6431,7 +6294,7 @@
         <v>118</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>119</v>
+        <v>356</v>
       </c>
       <c r="J16" t="s">
         <v>62</v>
@@ -6443,43 +6306,43 @@
         <v>20</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>120</v>
+        <v>357</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P16" s="43" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q16" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="R16" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="S16" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="T16" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="U16" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V16" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="X16" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="Y16" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="Z16" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="AA16" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -6532,16 +6395,16 @@
         <v>65189</v>
       </c>
       <c r="Q17" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="R17" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="S17" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="T17" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>43</v>
@@ -6553,16 +6416,16 @@
         <v>8000042381</v>
       </c>
       <c r="X17" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="Y17" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="Z17" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AA17" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
@@ -6591,7 +6454,7 @@
         <v>118</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>119</v>
+        <v>356</v>
       </c>
       <c r="J18" t="s">
         <v>74</v>
@@ -6603,7 +6466,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>120</v>
+        <v>357</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>121</v>
@@ -6612,37 +6475,37 @@
         <v>65189</v>
       </c>
       <c r="Q18" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="R18" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="S18" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="T18" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="U18" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V18" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="W18" s="40">
         <v>8000042382</v>
       </c>
       <c r="X18" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="Y18" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="Z18" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="AA18" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -6671,7 +6534,7 @@
         <v>126</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>127</v>
+        <v>384</v>
       </c>
       <c r="J19" t="s">
         <v>86</v>
@@ -6692,37 +6555,37 @@
         <v>517501</v>
       </c>
       <c r="Q19" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="R19" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="S19" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="T19" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="U19" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V19" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="W19" s="40">
         <v>8000042383</v>
       </c>
       <c r="X19" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="Y19" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="Z19" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="AA19" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
@@ -6748,10 +6611,10 @@
         <v>71</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
         <v>41</v>
@@ -6763,53 +6626,53 @@
         <v>42</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P20" s="43">
         <v>3208</v>
       </c>
       <c r="Q20" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="R20" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="S20" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="T20" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="U20" s="15" t="s">
         <v>43</v>
       </c>
       <c r="V20" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="W20" s="40">
         <v>8000042384</v>
       </c>
       <c r="X20" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="Y20" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Z20" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="AA20" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
@@ -6854,22 +6717,22 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/UploadExcel/TD_RegOrderCreation.xlsx
+++ b/UploadExcel/TD_RegOrderCreation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\TestSuites\UploadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57F0E7E-B61C-4FB1-9C5B-0DE792A6FDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACFF6ED-3F53-487C-A9F0-08F1675DF4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="410">
   <si>
     <t>TesctCaseName</t>
   </si>
@@ -34,667 +34,667 @@
     <t>OrderType</t>
   </si>
   <si>
+    <t>ExecutionEnvironment</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>JSONFileName</t>
+  </si>
+  <si>
+    <t>JournalID</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>DiscountType</t>
+  </si>
+  <si>
+    <t>DiscountCode</t>
+  </si>
+  <si>
+    <t>TaxPercentage%</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>VATID</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>AddressRegion</t>
+  </si>
+  <si>
+    <t>SAPPrice</t>
+  </si>
+  <si>
+    <t>SubmissionID</t>
+  </si>
+  <si>
+    <t>InvoiceNumber</t>
+  </si>
+  <si>
+    <t>OrderId</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>SAPOrderID</t>
+  </si>
+  <si>
+    <t>WileyOrderId</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>MailId</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>ResponseStatusCode</t>
+  </si>
+  <si>
+    <t>JSONText</t>
+  </si>
+  <si>
+    <t>ExecutionDate</t>
+  </si>
+  <si>
+    <t>Create Alipay Order for New Customer with Article discount GOA Order Type</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>QA2</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Alipay</t>
+  </si>
+  <si>
+    <t>f4c16e81-bdcb-4795-9dce-3b36416eb748</t>
+  </si>
+  <si>
+    <t>3850.00</t>
+  </si>
+  <si>
+    <t>ArticleTypeDiscount</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>CreateCC Order with New Customer P1 with Society Discounts with GOA</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>CreditCard</t>
+  </si>
+  <si>
+    <t>c597beef-e45f-4cc7-b34c-0df812e2ef25</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>Society</t>
+  </si>
+  <si>
+    <t>ZSV1</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>08817</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>CreateCC Order with New Customer P2 with Promo Discounts with GOA</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>d94e6868-e4c6-458d-9f9d-2aa21986e441</t>
+  </si>
+  <si>
+    <t>2471.00</t>
+  </si>
+  <si>
+    <t>2520.42</t>
+  </si>
+  <si>
+    <t>WileyPromoCode</t>
+  </si>
+  <si>
+    <t>ZPP1</t>
+  </si>
+  <si>
+    <t>420.07</t>
+  </si>
+  <si>
+    <t>370.65</t>
+  </si>
+  <si>
+    <t>E8 4DS</t>
+  </si>
+  <si>
+    <t>HCK</t>
+  </si>
+  <si>
+    <t>CreateCC Order with New Customer P3 with Editorial Discounts without VAT ID with GOA</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>1b28a8b9-067b-4ce9-b981-e8eabe16e0a7</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>3420.00</t>
+  </si>
+  <si>
+    <t>EditorialDiscount</t>
+  </si>
+  <si>
+    <t>ZEPA</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>CreateCC Order with New Customer P3 with Editorial Discounts with VAT ID with GOA</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>DE177813251</t>
+  </si>
+  <si>
+    <t>CreateCC Order with New Customer P4 with Institutional Discounts with GOA</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>ffc6e5d2-730d-4fe6-9770-7f23c6aeebf9</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1416.00</t>
+  </si>
+  <si>
+    <t>Institutional</t>
+  </si>
+  <si>
+    <t>ZIP1</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>CreateCC Order with New Customer P4 with Article Type Discounts with GOA</t>
+  </si>
+  <si>
+    <t>3465.00</t>
+  </si>
+  <si>
+    <t>ZAPA</t>
+  </si>
+  <si>
+    <t>385.00</t>
+  </si>
+  <si>
+    <t>Create Invoice Order with New Customer P1 with Promo Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>3649.92</t>
+  </si>
+  <si>
+    <t>200.10</t>
+  </si>
+  <si>
+    <t>Create Invoice Order with New Customer P2 with Society Discounts with GOA</t>
+  </si>
+  <si>
+    <t>2420.00</t>
+  </si>
+  <si>
+    <t>2032.80</t>
+  </si>
+  <si>
+    <t>338.80</t>
+  </si>
+  <si>
+    <t>726.00</t>
+  </si>
+  <si>
+    <t>Create Invoice Order with New Customer P3 with Editorial Discounts without VAT and with GOA</t>
+  </si>
+  <si>
+    <t>2805.00</t>
+  </si>
+  <si>
+    <t>3029.40</t>
+  </si>
+  <si>
+    <t>504.90</t>
+  </si>
+  <si>
+    <t>280.50</t>
+  </si>
+  <si>
+    <t>Create Invoice Order with New Customer P3 with Editorial Discounts with VAT and with GOA</t>
+  </si>
+  <si>
+    <t>2605.00</t>
+  </si>
+  <si>
+    <t>DE129517720</t>
+  </si>
+  <si>
+    <t>Create Invoice Order with New Customer P4 with Institutonal Discounts with GOA</t>
+  </si>
+  <si>
+    <t>4306.99</t>
+  </si>
+  <si>
+    <t>657.00</t>
+  </si>
+  <si>
+    <t>Create Invoice Order with New Customer P4 with Article Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P1 with Society Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Proforma</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P2 with Promo Discounts with GOA</t>
+  </si>
+  <si>
+    <t>1180.00</t>
+  </si>
+  <si>
+    <t>1132.80</t>
+  </si>
+  <si>
+    <t>188.80</t>
+  </si>
+  <si>
+    <t>236.00</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P3 with Editorial Discounts with VAT and with GOA</t>
+  </si>
+  <si>
+    <t>944.00</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P3 with Editorial Discounts without VAT and with GOA</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P4 with Institutonal Discounts with GOA</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>755.20</t>
+  </si>
+  <si>
+    <t>115.20</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P4 with Article Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Create Order with Society Discount (%) P1 with CC HOA Order</t>
+  </si>
+  <si>
+    <t>Hybrid Model</t>
+  </si>
+  <si>
+    <t>4324595c-158c-489c-ad3e-2911a27631f1</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>3870.00</t>
+  </si>
+  <si>
+    <t>430.00</t>
+  </si>
+  <si>
+    <t>Create Order with Promo Discount (%) P2 with CC HOA Order</t>
+  </si>
+  <si>
+    <t>3077.00</t>
+  </si>
+  <si>
+    <t>3323.16</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>533.86</t>
+  </si>
+  <si>
+    <t>307.70</t>
+  </si>
+  <si>
+    <t>Create Order with Society Discount (Value) P3 with CC HOA Order with VAT ID</t>
+  </si>
+  <si>
+    <t>3627.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>627.00</t>
+  </si>
+  <si>
+    <t>Create Order with Promo Discount (Value) P3 with CC HOA Order without VAT ID</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>ZPV1</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>Create Order with Institutional Discount P4 with CC HOA Order</t>
+  </si>
+  <si>
+    <t>4566.60</t>
+  </si>
+  <si>
+    <t>ZIV1</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>696.60</t>
+  </si>
+  <si>
+    <t>Create Order with Custom Discount P4 with CC HOA Order</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>ZCDA</t>
+  </si>
+  <si>
+    <t>Create Order with Society Discount (Value) P1 with Invoice HOA Order</t>
+  </si>
+  <si>
+    <t>aafb2cdc-20fd-4fc1-8ea9-d4ade07af2dd</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>Create Order with Promo Discount (Value) P2 with Invoice HOA Order</t>
+  </si>
+  <si>
+    <t>9b920bd9-28f3-413c-ba21-e101b04ab13e</t>
+  </si>
+  <si>
+    <t>1176.00</t>
+  </si>
+  <si>
+    <t>196.00</t>
+  </si>
+  <si>
+    <t>Create Order with Society Discount (%) P3 with Invoice HOA Order with VAT ID</t>
+  </si>
+  <si>
+    <t>3264.30</t>
+  </si>
+  <si>
+    <t>ZSP1</t>
+  </si>
+  <si>
+    <t>362.70</t>
+  </si>
+  <si>
+    <t>Create Order with Promo Discount (%) P3 with Invoice HOA Order without VAT ID</t>
+  </si>
+  <si>
+    <t>3917.16</t>
+  </si>
+  <si>
+    <t>652.86</t>
+  </si>
+  <si>
+    <t>Create Order with Custom Discount P4 with Invoice HOA Order</t>
+  </si>
+  <si>
+    <t>2f1b8d19-e501-4606-9149-b3dfbd97b9b7</t>
+  </si>
+  <si>
+    <t>1593.00</t>
+  </si>
+  <si>
+    <t>243.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>Create Order with Institutional Discount P4 with Invoice HOA Order</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>Create Order with Society Discount Value P4 with Alipay HOA Order</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>CustomerType</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>SalesOrg</t>
+  </si>
+  <si>
+    <t>Tax(%)</t>
+  </si>
+  <si>
+    <t>Vaild</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Create Order In VIAX</t>
+  </si>
+  <si>
+    <t>New / Existing</t>
+  </si>
+  <si>
+    <t>Gold OA</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>Society/Promo/Institutional</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Create Alipay Order for New Customer with Society discount GOA Order Type</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Promo</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>With VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany </t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>ArticleType</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P1 with Promo Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P2 with Society Discounts with GOA</t>
+  </si>
+  <si>
+    <t>HYBRID OA</t>
+  </si>
+  <si>
+    <t>Society Value</t>
+  </si>
+  <si>
+    <t>Promo %</t>
+  </si>
+  <si>
+    <t>Create Order with Promo  Discount (%) P4 with Alipay HOA Order</t>
+  </si>
+  <si>
+    <t>Society(%based)</t>
+  </si>
+  <si>
+    <t>Promo(%based)</t>
+  </si>
+  <si>
+    <t>Promo Value</t>
+  </si>
+  <si>
+    <t>Institutional-Z1V1</t>
+  </si>
+  <si>
+    <t>Custom-ZCDA</t>
+  </si>
+  <si>
+    <t>Society(Value Based)</t>
+  </si>
+  <si>
+    <t>Promo(ValueBased)</t>
+  </si>
+  <si>
+    <t>Society %</t>
+  </si>
+  <si>
     <t>Flag</t>
   </si>
   <si>
-    <t>ExecutionEnvironment</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>JSONFileName</t>
-  </si>
-  <si>
-    <t>JournalID</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
-    <t>TotalAmount</t>
-  </si>
-  <si>
-    <t>DiscountType</t>
-  </si>
-  <si>
-    <t>DiscountCode</t>
-  </si>
-  <si>
-    <t>TaxPercentage%</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>VATID</t>
-  </si>
-  <si>
-    <t>PostalCode</t>
-  </si>
-  <si>
-    <t>AddressRegion</t>
-  </si>
-  <si>
-    <t>SAPPrice</t>
-  </si>
-  <si>
-    <t>SubmissionID</t>
-  </si>
-  <si>
-    <t>InvoiceNumber</t>
-  </si>
-  <si>
-    <t>OrderId</t>
-  </si>
-  <si>
-    <t>OrderStatus</t>
-  </si>
-  <si>
-    <t>SAPOrderID</t>
-  </si>
-  <si>
-    <t>WileyOrderId</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>MailId</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>ResponseStatusCode</t>
-  </si>
-  <si>
-    <t>JSONText</t>
-  </si>
-  <si>
-    <t>ExecutionDate</t>
-  </si>
-  <si>
-    <t>Create Alipay Order for New Customer with Article discount GOA Order Type</t>
-  </si>
-  <si>
-    <t>OA</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>QA2</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Alipay</t>
-  </si>
-  <si>
-    <t>f4c16e81-bdcb-4795-9dce-3b36416eb748</t>
-  </si>
-  <si>
-    <t>1990.00</t>
-  </si>
-  <si>
-    <t>ArticleTypeDiscount</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>CreateCC Order with New Customer P1 with Society Discounts with GOA</t>
-  </si>
-  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>CreditCard</t>
-  </si>
-  <si>
-    <t>c597beef-e45f-4cc7-b34c-0df812e2ef25</t>
-  </si>
-  <si>
-    <t>2000.00</t>
-  </si>
-  <si>
-    <t>1800.00</t>
-  </si>
-  <si>
-    <t>Society</t>
-  </si>
-  <si>
-    <t>ZSV1</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>08817</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>CreateCC Order with New Customer P2 with Promo Discounts with GOA</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>d94e6868-e4c6-458d-9f9d-2aa21986e441</t>
-  </si>
-  <si>
-    <t>2471.00</t>
-  </si>
-  <si>
-    <t>2520.42</t>
-  </si>
-  <si>
-    <t>WileyPromoCode</t>
-  </si>
-  <si>
-    <t>ZPP1</t>
-  </si>
-  <si>
-    <t>420.07</t>
-  </si>
-  <si>
-    <t>370.65</t>
-  </si>
-  <si>
-    <t>E8 4DS</t>
-  </si>
-  <si>
-    <t>HCK</t>
-  </si>
-  <si>
-    <t>CreateCC Order with New Customer P3 with Editorial Discounts without VAT ID with GOA</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>1b28a8b9-067b-4ce9-b981-e8eabe16e0a7</t>
-  </si>
-  <si>
-    <t>2900.00</t>
-  </si>
-  <si>
-    <t>3420.00</t>
-  </si>
-  <si>
-    <t>EditorialDiscount</t>
-  </si>
-  <si>
-    <t>ZEPA</t>
-  </si>
-  <si>
-    <t>570.00</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>CreateCC Order with New Customer P3 with Editorial Discounts with VAT ID with GOA</t>
-  </si>
-  <si>
-    <t>2850.00</t>
-  </si>
-  <si>
-    <t>DE177813251</t>
-  </si>
-  <si>
-    <t>CreateCC Order with New Customer P4 with Institutional Discounts with GOA</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>ffc6e5d2-730d-4fe6-9770-7f23c6aeebf9</t>
-  </si>
-  <si>
-    <t>1500.00</t>
-  </si>
-  <si>
-    <t>1416.00</t>
-  </si>
-  <si>
-    <t>Institutional</t>
-  </si>
-  <si>
-    <t>ZIP1</t>
-  </si>
-  <si>
-    <t>216.00</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>CreateCC Order with New Customer P4 with Article Type Discounts with GOA</t>
-  </si>
-  <si>
-    <t>1791.00</t>
-  </si>
-  <si>
-    <t>ZAPA</t>
-  </si>
-  <si>
-    <t>199.00</t>
-  </si>
-  <si>
-    <t>Create Invoice Order with New Customer P1 with Promo Discounts with GOA</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>1780.00</t>
-  </si>
-  <si>
-    <t>1580.00</t>
-  </si>
-  <si>
-    <t>Create Invoice Order with New Customer P2 with Society Discounts with GOA</t>
-  </si>
-  <si>
-    <t>1495.20</t>
-  </si>
-  <si>
-    <t>249.20</t>
-  </si>
-  <si>
-    <t>534.00</t>
-  </si>
-  <si>
-    <t>Create Invoice Order with New Customer P3 with Editorial Discounts without VAT and with GOA</t>
-  </si>
-  <si>
-    <t>2108.00</t>
-  </si>
-  <si>
-    <t>381.60</t>
-  </si>
-  <si>
-    <t>200.10</t>
-  </si>
-  <si>
-    <t>Create Invoice Order with New Customer P3 with Editorial Discounts with VAT and with GOA</t>
-  </si>
-  <si>
-    <t>1680.00</t>
-  </si>
-  <si>
-    <t>1480.00</t>
-  </si>
-  <si>
-    <t>DE129517720</t>
-  </si>
-  <si>
-    <t>Create Invoice Order with New Customer P4 with Institutonal Discounts with GOA</t>
-  </si>
-  <si>
-    <t>2112.20</t>
-  </si>
-  <si>
-    <t>322.20</t>
-  </si>
-  <si>
-    <t>Create Invoice Order with New Customer P4 with Article Discounts with GOA</t>
-  </si>
-  <si>
-    <t>1790.00</t>
-  </si>
-  <si>
-    <t>Create Proforma Order with New Customer P1 with Society Discounts with GOA</t>
-  </si>
-  <si>
-    <t>Proforma</t>
-  </si>
-  <si>
-    <t>Create Proforma Order with New Customer P2 with Promo Discounts with GOA</t>
-  </si>
-  <si>
-    <t>1180.00</t>
-  </si>
-  <si>
-    <t>1132.80</t>
-  </si>
-  <si>
-    <t>188.80</t>
-  </si>
-  <si>
-    <t>236.00</t>
-  </si>
-  <si>
-    <t>Create Proforma Order with New Customer P3 with Editorial Discounts with VAT and with GOA</t>
-  </si>
-  <si>
-    <t>944.00</t>
-  </si>
-  <si>
-    <t>Create Proforma Order with New Customer P3 with Editorial Discounts without VAT and with GOA</t>
-  </si>
-  <si>
-    <t>Create Proforma Order with New Customer P4 with Institutonal Discounts with GOA</t>
-  </si>
-  <si>
-    <t>800.00</t>
-  </si>
-  <si>
-    <t>115.20</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>Create Proforma Order with New Customer P4 with Article Discounts with GOA</t>
-  </si>
-  <si>
-    <t>Create Order with Society Discount (%) P1 with CC HOA Order</t>
-  </si>
-  <si>
-    <t>Hybrid Model</t>
-  </si>
-  <si>
-    <t>4324595c-158c-489c-ad3e-2911a27631f1</t>
-  </si>
-  <si>
-    <t>4300.00</t>
-  </si>
-  <si>
-    <t>3870.00</t>
-  </si>
-  <si>
-    <t>430.00</t>
-  </si>
-  <si>
-    <t>Create Order with Promo Discount (%) P2 with CC HOA Order</t>
-  </si>
-  <si>
-    <t>3077.00</t>
-  </si>
-  <si>
-    <t>3323.16</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>533.86</t>
-  </si>
-  <si>
-    <t>307.70</t>
-  </si>
-  <si>
-    <t>Create Order with Society Discount (Value) P3 with CC HOA Order with VAT ID</t>
-  </si>
-  <si>
-    <t>3627.00</t>
-  </si>
-  <si>
-    <t>3000.00</t>
-  </si>
-  <si>
-    <t>627.00</t>
-  </si>
-  <si>
-    <t>Create Order with Promo Discount (Value) P3 with CC HOA Order without VAT ID</t>
-  </si>
-  <si>
-    <t>3600.00</t>
-  </si>
-  <si>
-    <t>ZPV1</t>
-  </si>
-  <si>
-    <t>600.00</t>
-  </si>
-  <si>
-    <t>Create Order with Institutional Discount P4 with CC HOA Order</t>
-  </si>
-  <si>
-    <t>4566.60</t>
-  </si>
-  <si>
-    <t>ZIV1</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>696.60</t>
-  </si>
-  <si>
-    <t>Create Order with Custom Discount P4 with CC HOA Order</t>
-  </si>
-  <si>
-    <t>4000.00</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>ZCDA</t>
-  </si>
-  <si>
-    <t>Create Order with Society Discount (Value) P1 with Invoice HOA Order</t>
-  </si>
-  <si>
-    <t>aafb2cdc-20fd-4fc1-8ea9-d4ade07af2dd</t>
-  </si>
-  <si>
-    <t>1300.00</t>
-  </si>
-  <si>
-    <t>Create Order with Promo Discount (Value) P2 with Invoice HOA Order</t>
-  </si>
-  <si>
-    <t>9b920bd9-28f3-413c-ba21-e101b04ab13e</t>
-  </si>
-  <si>
-    <t>1176.00</t>
-  </si>
-  <si>
-    <t>196.00</t>
-  </si>
-  <si>
-    <t>Create Order with Society Discount (%) P3 with Invoice HOA Order with VAT ID</t>
-  </si>
-  <si>
-    <t>3264.30</t>
-  </si>
-  <si>
-    <t>ZSP1</t>
-  </si>
-  <si>
-    <t>362.70</t>
-  </si>
-  <si>
-    <t>Create Order with Promo Discount (%) P3 with Invoice HOA Order without VAT ID</t>
-  </si>
-  <si>
-    <t>3917.16</t>
-  </si>
-  <si>
-    <t>652.86</t>
-  </si>
-  <si>
-    <t>Create Order with Custom Discount P4 with Invoice HOA Order</t>
-  </si>
-  <si>
-    <t>2f1b8d19-e501-4606-9149-b3dfbd97b9b7</t>
-  </si>
-  <si>
-    <t>1593.00</t>
-  </si>
-  <si>
-    <t>243.00</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>Create Order with Institutional Discount P4 with Invoice HOA Order</t>
-  </si>
-  <si>
-    <t>1400.00</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>Create Order with Society Discount Value P4 with Alipay HOA Order</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>CustomerType</t>
-  </si>
-  <si>
-    <t>PaymentType</t>
-  </si>
-  <si>
-    <t>SalesOrg</t>
-  </si>
-  <si>
-    <t>Tax(%)</t>
-  </si>
-  <si>
-    <t>Vaild</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Create Order In VIAX</t>
-  </si>
-  <si>
-    <t>New / Existing</t>
-  </si>
-  <si>
-    <t>Gold OA</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>Society/Promo/Institutional</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Create Alipay Order for New Customer with Society discount GOA Order Type</t>
-  </si>
-  <si>
-    <t>N.A</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>Promo</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>Editorial</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>With VAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany </t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>ArticleType</t>
-  </si>
-  <si>
-    <t>Create Proforma Order with New Customer P1 with Promo Discounts with GOA</t>
-  </si>
-  <si>
-    <t>Create Proforma Order with New Customer P2 with Society Discounts with GOA</t>
-  </si>
-  <si>
-    <t>HYBRID OA</t>
-  </si>
-  <si>
-    <t>Society Value</t>
-  </si>
-  <si>
-    <t>Promo %</t>
-  </si>
-  <si>
-    <t>Create Order with Promo  Discount (%) P4 with Alipay HOA Order</t>
-  </si>
-  <si>
-    <t>Society(%based)</t>
-  </si>
-  <si>
-    <t>Promo(%based)</t>
-  </si>
-  <si>
-    <t>Promo Value</t>
-  </si>
-  <si>
-    <t>Institutional-Z1V1</t>
-  </si>
-  <si>
-    <t>Custom-ZCDA</t>
-  </si>
-  <si>
-    <t>Society(Value Based)</t>
-  </si>
-  <si>
-    <t>Promo(ValueBased)</t>
-  </si>
-  <si>
-    <t>Society %</t>
   </si>
   <si>
     <t>900.00</t>
@@ -915,6 +915,12 @@
     <t>2024-08-20 18:38:54.519</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1780.00</t>
+  </si>
+  <si>
     <t>1896.00</t>
   </si>
   <si>
@@ -953,6 +959,9 @@
     <t>249.00</t>
   </si>
   <si>
+    <t>534.00</t>
+  </si>
+  <si>
     <t>20240820184447Test</t>
   </si>
   <si>
@@ -979,6 +988,9 @@
     <t>2024-08-20 18:44:47.966</t>
   </si>
   <si>
+    <t>1680.00</t>
+  </si>
+  <si>
     <t>1776.00</t>
   </si>
   <si>
@@ -1037,7 +1049,13 @@
     <t>2024-08-20 18:38:57.795</t>
   </si>
   <si>
+    <t>1990.00</t>
+  </si>
+  <si>
     <t>2112</t>
+  </si>
+  <si>
+    <t>322.20</t>
   </si>
   <si>
     <t>20240820183858Test</t>
@@ -1066,6 +1084,9 @@
     <t>2024-08-20 18:38:58.982</t>
   </si>
   <si>
+    <t>1790.00</t>
+  </si>
+  <si>
     <t>20240820183901Test</t>
   </si>
   <si>
@@ -1273,12 +1294,6 @@
   </si>
   <si>
     <t>2024-08-20 18:39:12.100</t>
-  </si>
-  <si>
-    <t>2289.49</t>
-  </si>
-  <si>
-    <t>755.20</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1561,6 +1576,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1595,19 +1613,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1895,10 +1907,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AE42"/>
+  <dimension ref="A1:AE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1933,139 +1945,139 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="S1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="T1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="U1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="X1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="45" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="G2" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="H2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="I2" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="K2" s="68"/>
+      <c r="L2" s="69">
+        <v>0</v>
+      </c>
+      <c r="M2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="N2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68">
-        <v>0</v>
-      </c>
-      <c r="M2" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="69">
+      <c r="O2" s="68"/>
+      <c r="P2" s="43">
         <v>510055</v>
       </c>
-      <c r="Q2" s="69">
+      <c r="Q2" s="43">
         <v>190</v>
       </c>
       <c r="R2"/>
@@ -2076,53 +2088,53 @@
     </row>
     <row r="3" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G3" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="67" t="s">
+      <c r="I3" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="J3" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="K3" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="L3" s="69">
+        <v>0</v>
+      </c>
+      <c r="M3" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="O3" s="68"/>
+      <c r="P3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="Q3" s="44" t="s">
         <v>52</v>
-      </c>
-      <c r="L3" s="68">
-        <v>0</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="67"/>
-      <c r="P3" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="70" t="s">
-        <v>55</v>
       </c>
       <c r="R3"/>
       <c r="S3"/>
@@ -2132,53 +2144,53 @@
     </row>
     <row r="4" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H4" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="I4" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="67" t="s">
+      <c r="J4" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="K4" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="L4" s="69">
+        <v>20</v>
+      </c>
+      <c r="M4" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="N4" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="O4" s="68"/>
+      <c r="P4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="68">
-        <v>20</v>
-      </c>
-      <c r="M4" s="66" t="s">
+      <c r="Q4" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="N4" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="69" t="s">
-        <v>67</v>
       </c>
       <c r="R4"/>
       <c r="S4"/>
@@ -2188,52 +2200,52 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="I5" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="67" t="s">
+      <c r="J5" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="K5" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="L5" s="69">
+        <v>20</v>
+      </c>
+      <c r="M5" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="N5" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="68">
-        <v>20</v>
-      </c>
-      <c r="M5" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="67"/>
-      <c r="P5" s="69">
+      <c r="O5" s="68"/>
+      <c r="P5" s="43">
         <v>14469</v>
       </c>
-      <c r="Q5" s="69">
+      <c r="Q5" s="43">
         <v>12</v>
       </c>
       <c r="R5"/>
@@ -2244,54 +2256,54 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="67" t="s">
+      <c r="I6" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="K6" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="67" t="s">
+      <c r="L6" s="69">
+        <v>0</v>
+      </c>
+      <c r="M6" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="68">
-        <v>0</v>
-      </c>
-      <c r="M6" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="66" t="s">
+      <c r="O6" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="69">
+      <c r="P6" s="43">
         <v>14469</v>
       </c>
-      <c r="Q6" s="69">
+      <c r="Q6" s="43">
         <v>12</v>
       </c>
       <c r="R6"/>
@@ -2302,52 +2314,52 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I7" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="67" t="s">
+      <c r="J7" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="K7" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="L7" s="69">
+        <v>18</v>
+      </c>
+      <c r="M7" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="N7" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="68">
-        <v>18</v>
-      </c>
-      <c r="M7" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="67"/>
-      <c r="P7" s="69">
+      <c r="O7" s="68"/>
+      <c r="P7" s="43">
         <v>627001</v>
       </c>
-      <c r="Q7" s="69">
+      <c r="Q7" s="43">
         <v>22</v>
       </c>
       <c r="R7"/>
@@ -2358,52 +2370,52 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="69">
+        <v>0</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="68">
-        <v>0</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" s="67"/>
-      <c r="P8" s="69">
+      <c r="O8" s="68"/>
+      <c r="P8" s="43">
         <v>210008</v>
       </c>
-      <c r="Q8" s="69">
+      <c r="Q8" s="43">
         <v>100</v>
       </c>
       <c r="R8"/>
@@ -2414,53 +2426,53 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="69">
+        <v>0</v>
+      </c>
+      <c r="M9" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="68">
-        <v>0</v>
-      </c>
-      <c r="M9" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="67"/>
-      <c r="P9" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="70" t="s">
-        <v>55</v>
+      <c r="O9" s="68"/>
+      <c r="P9" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="44" t="s">
+        <v>52</v>
       </c>
       <c r="R9"/>
       <c r="S9"/>
@@ -2470,53 +2482,53 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="69">
+        <v>20</v>
+      </c>
+      <c r="M10" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="66" t="s">
+      <c r="N10" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="68">
-        <v>20</v>
-      </c>
-      <c r="M10" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="O10" s="67"/>
-      <c r="P10" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="69" t="s">
-        <v>67</v>
+      <c r="O10" s="68"/>
+      <c r="P10" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="R10"/>
       <c r="S10"/>
@@ -2526,52 +2538,52 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="66" t="s">
+      <c r="J11" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="69">
+        <v>20</v>
+      </c>
+      <c r="M11" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="I11" s="66" t="s">
-        <v>403</v>
-      </c>
-      <c r="J11" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="68">
-        <v>20</v>
-      </c>
-      <c r="M11" s="66" t="s">
+      <c r="N11" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="N11" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11" s="67"/>
-      <c r="P11" s="69">
+      <c r="O11" s="68"/>
+      <c r="P11" s="43">
         <v>14469</v>
       </c>
-      <c r="Q11" s="69">
+      <c r="Q11" s="43">
         <v>12</v>
       </c>
       <c r="R11"/>
@@ -2582,54 +2594,54 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="66" t="s">
+      <c r="J12" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="69">
+        <v>0</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="68">
-        <v>0</v>
-      </c>
-      <c r="M12" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="P12" s="69">
+      <c r="P12" s="43">
         <v>14469</v>
       </c>
-      <c r="Q12" s="69">
+      <c r="Q12" s="43">
         <v>12</v>
       </c>
       <c r="R12"/>
@@ -2640,52 +2652,52 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="69">
+        <v>18</v>
+      </c>
+      <c r="M13" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="68">
-        <v>18</v>
-      </c>
-      <c r="M13" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" s="67"/>
-      <c r="P13" s="69">
+      <c r="N13" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="68"/>
+      <c r="P13" s="43">
         <v>627001</v>
       </c>
-      <c r="Q13" s="69">
+      <c r="Q13" s="43">
         <v>22</v>
       </c>
       <c r="R13"/>
@@ -2696,50 +2708,50 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="67" t="s">
+      <c r="F14" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="67" t="s">
+      <c r="H14" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="K14" s="68"/>
+      <c r="L14" s="69">
+        <v>0</v>
+      </c>
+      <c r="M14" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68">
-        <v>0</v>
-      </c>
-      <c r="M14" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="69">
+      <c r="N14" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="68"/>
+      <c r="P14" s="43">
         <v>510055</v>
       </c>
-      <c r="Q14" s="69">
+      <c r="Q14" s="43">
         <v>190</v>
       </c>
       <c r="R14"/>
@@ -2750,53 +2762,53 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B15" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="67" t="s">
+      <c r="I15" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="K15" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="66" t="s">
+      <c r="L15" s="69">
+        <v>0</v>
+      </c>
+      <c r="M15" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="67" t="s">
+      <c r="O15" s="68"/>
+      <c r="P15" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="67" t="s">
+      <c r="Q15" s="44" t="s">
         <v>52</v>
-      </c>
-      <c r="L15" s="68">
-        <v>0</v>
-      </c>
-      <c r="M15" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" s="67"/>
-      <c r="P15" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q15" s="70" t="s">
-        <v>55</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -2806,53 +2818,53 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="69">
+        <v>20</v>
+      </c>
+      <c r="M16" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="66" t="s">
+      <c r="N16" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="67" t="s">
+      <c r="O16" s="68"/>
+      <c r="P16" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="68">
-        <v>20</v>
-      </c>
-      <c r="M16" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="N16" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="O16" s="67"/>
-      <c r="P16" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="69" t="s">
-        <v>67</v>
+      <c r="Q16" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
@@ -2862,54 +2874,54 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B17" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="K17" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="69">
+        <v>0</v>
+      </c>
+      <c r="M17" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="68">
-        <v>0</v>
-      </c>
-      <c r="M17" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" s="69">
+      <c r="O17" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="43">
         <v>14469</v>
       </c>
-      <c r="Q17" s="69">
+      <c r="Q17" s="43">
         <v>12</v>
       </c>
       <c r="R17"/>
@@ -2920,52 +2932,52 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B18" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="J18" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="66" t="s">
+      <c r="K18" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="69">
+        <v>20</v>
+      </c>
+      <c r="M18" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="J18" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="68">
-        <v>20</v>
-      </c>
-      <c r="M18" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="N18" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" s="67"/>
-      <c r="P18" s="69">
+      <c r="O18" s="68"/>
+      <c r="P18" s="43">
         <v>14469</v>
       </c>
-      <c r="Q18" s="69">
+      <c r="Q18" s="43">
         <v>12</v>
       </c>
       <c r="R18"/>
@@ -2976,52 +2988,52 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="69">
+        <v>18</v>
+      </c>
+      <c r="M19" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="66" t="s">
+      <c r="N19" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="66" t="s">
-        <v>404</v>
-      </c>
-      <c r="J19" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="68">
-        <v>18</v>
-      </c>
-      <c r="M19" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="N19" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="O19" s="67"/>
-      <c r="P19" s="69">
+      <c r="O19" s="68"/>
+      <c r="P19" s="43">
         <v>627001</v>
       </c>
-      <c r="Q19" s="69">
+      <c r="Q19" s="43">
         <v>22</v>
       </c>
       <c r="R19"/>
@@ -3032,50 +3044,50 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="67" t="s">
+      <c r="F20" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="67" t="s">
+      <c r="H20" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="K20" s="68"/>
+      <c r="L20" s="69">
+        <v>0</v>
+      </c>
+      <c r="M20" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="66" t="s">
+      <c r="N20" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="67"/>
-      <c r="L20" s="68">
-        <v>0</v>
-      </c>
-      <c r="M20" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="67"/>
-      <c r="P20" s="69">
+      <c r="O20" s="68"/>
+      <c r="P20" s="43">
         <v>210008</v>
       </c>
-      <c r="Q20" s="69">
+      <c r="Q20" s="43">
         <v>100</v>
       </c>
       <c r="R20"/>
@@ -3086,361 +3098,361 @@
     </row>
     <row r="21" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="H21" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="72" t="s">
+      <c r="I21" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="J21" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="J21" s="72" t="s">
+      <c r="O21" s="71"/>
+      <c r="P21" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="Q21" s="55" t="s">
         <v>52</v>
-      </c>
-      <c r="L21" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="O21" s="72"/>
-      <c r="P21" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q21" s="73" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="49" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="72" t="s">
+      <c r="J22" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="72" t="s">
+      <c r="M22" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="J22" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="72" t="s">
+      <c r="N22" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="O22" s="71"/>
+      <c r="P22" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="M22" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="N22" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="O22" s="72"/>
-      <c r="P22" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" s="73" t="s">
-        <v>67</v>
+      <c r="Q22" s="55" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="72" t="s">
+      <c r="J23" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="I23" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="J23" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="O23" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="P23" s="73">
+      <c r="O23" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="55">
         <v>14469</v>
       </c>
-      <c r="Q23" s="73">
+      <c r="Q23" s="55">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="72" t="s">
+      <c r="L24" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="J24" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="L24" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="N24" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="O24" s="72"/>
-      <c r="P24" s="73">
+      <c r="O24" s="71"/>
+      <c r="P24" s="55">
         <v>14469</v>
       </c>
-      <c r="Q24" s="73">
+      <c r="Q24" s="55">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="72" t="s">
+      <c r="L25" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="M25" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="N25" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="J25" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="K25" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="L25" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="M25" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="N25" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="O25" s="72"/>
-      <c r="P25" s="73">
+      <c r="O25" s="71"/>
+      <c r="P25" s="55">
         <v>627001</v>
       </c>
-      <c r="Q25" s="73">
+      <c r="Q25" s="55">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" s="72" t="s">
+      <c r="K26" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="K26" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="L26" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="72"/>
-      <c r="P26" s="73">
+      <c r="L26" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="O26" s="71"/>
+      <c r="P26" s="55">
         <v>510055</v>
       </c>
-      <c r="Q26" s="73">
+      <c r="Q26" s="55">
         <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="H27" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="J27" s="67" t="s">
+      <c r="J27" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="68"/>
+      <c r="P27" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="67" t="s">
+      <c r="Q27" s="44" t="s">
         <v>52</v>
-      </c>
-      <c r="L27" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="O27" s="67"/>
-      <c r="P27" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q27" s="70" t="s">
-        <v>55</v>
       </c>
       <c r="R27"/>
       <c r="S27"/>
@@ -3450,53 +3462,53 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="67" t="s">
+      <c r="J28" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="M28" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="J28" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="L28" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="M28" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="N28" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" s="67"/>
-      <c r="P28" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q28" s="69" t="s">
-        <v>67</v>
+      <c r="N28" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="68"/>
+      <c r="P28" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="R28"/>
       <c r="S28"/>
@@ -3506,54 +3518,54 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="J29" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="H29" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="I29" s="66" t="s">
+      <c r="L29" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="J29" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="L29" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="O29" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="P29" s="69">
+      <c r="O29" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" s="43">
         <v>14469</v>
       </c>
-      <c r="Q29" s="69">
+      <c r="Q29" s="43">
         <v>12</v>
       </c>
       <c r="R29"/>
@@ -3564,52 +3576,52 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="M30" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="I30" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="J30" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="M30" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="N30" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="O30" s="67"/>
-      <c r="P30" s="69">
+      <c r="N30" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="O30" s="68"/>
+      <c r="P30" s="43">
         <v>14469</v>
       </c>
-      <c r="Q30" s="69">
+      <c r="Q30" s="43">
         <v>12</v>
       </c>
       <c r="R30"/>
@@ -3620,52 +3632,52 @@
     </row>
     <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="67" t="s">
+      <c r="J31" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="L31" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="M31" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="H31" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" s="66" t="s">
+      <c r="N31" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="J31" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="L31" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="M31" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="N31" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="O31" s="67"/>
-      <c r="P31" s="69">
+      <c r="O31" s="68"/>
+      <c r="P31" s="43">
         <v>627001</v>
       </c>
-      <c r="Q31" s="69">
+      <c r="Q31" s="43">
         <v>22</v>
       </c>
       <c r="R31"/>
@@ -3676,52 +3688,52 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="K32" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="L32" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="H32" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="J32" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="K32" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="L32" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N32" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="O32" s="67"/>
-      <c r="P32" s="69">
+      <c r="O32" s="68"/>
+      <c r="P32" s="43">
         <v>210008</v>
       </c>
-      <c r="Q32" s="69">
+      <c r="Q32" s="43">
         <v>100</v>
       </c>
       <c r="R32"/>
@@ -3730,52 +3742,52 @@
       <c r="U32"/>
       <c r="V32"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B33" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="H33" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="I33" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="67"/>
-      <c r="L33" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="N33" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="O33" s="67"/>
-      <c r="P33" s="69">
+      <c r="I33" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="68"/>
+      <c r="L33" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" s="68"/>
+      <c r="P33" s="43">
         <v>210008</v>
       </c>
-      <c r="Q33" s="69">
+      <c r="Q33" s="43">
         <v>100</v>
       </c>
       <c r="R33"/>
@@ -3784,239 +3796,313 @@
       <c r="U33"/>
       <c r="V33"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
       <c r="U34"/>
       <c r="V34"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
       <c r="U35"/>
       <c r="V35"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36"/>
       <c r="V36"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="67"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="67"/>
-      <c r="AD37" s="67"/>
-      <c r="AE37" s="67"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="69"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="67"/>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="67"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="67"/>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="67"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
-      <c r="R39" s="69"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
-      <c r="AD39" s="67"/>
-      <c r="AE39" s="67"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="69"/>
-      <c r="R40" s="69"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="69"/>
-      <c r="U40" s="69"/>
-      <c r="V40" s="69"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
-      <c r="AD40" s="67"/>
-      <c r="AE40" s="67"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="67"/>
-      <c r="X41" s="67"/>
-      <c r="Y41" s="67"/>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="67"/>
-      <c r="AB41" s="67"/>
-      <c r="AC41" s="67"/>
-      <c r="AD41" s="67"/>
-      <c r="AE41" s="67"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="67"/>
-      <c r="X42" s="67"/>
-      <c r="Y42" s="67"/>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="67"/>
-      <c r="AB42" s="67"/>
-      <c r="AC42" s="67"/>
-      <c r="AD42" s="67"/>
-      <c r="AE42" s="67"/>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+    </row>
+    <row r="49" spans="18:22" x14ac:dyDescent="0.35">
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+    </row>
+    <row r="50" spans="18:22" x14ac:dyDescent="0.35">
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+    </row>
+    <row r="51" spans="18:22" x14ac:dyDescent="0.35">
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+    </row>
+    <row r="52" spans="18:22" x14ac:dyDescent="0.35">
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+    </row>
+    <row r="53" spans="18:22" x14ac:dyDescent="0.35">
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+    </row>
+    <row r="54" spans="18:22" x14ac:dyDescent="0.35">
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+    </row>
+    <row r="55" spans="18:22" x14ac:dyDescent="0.35">
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4028,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4049,560 +4135,560 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="J1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" s="64" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="D2" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="F2" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="57" t="s">
+      <c r="G2" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="62">
+        <v>0</v>
+      </c>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="57" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="61">
-        <v>0</v>
-      </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62" t="s">
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="61" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-    </row>
-    <row r="6" spans="1:11" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>198</v>
-      </c>
       <c r="F7" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I7" s="27">
         <v>0</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>201</v>
-      </c>
       <c r="H8" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I8" s="27">
         <v>20</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="60" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="H9" s="27" t="s">
         <v>203</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>205</v>
       </c>
       <c r="I9" s="27">
         <v>0</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I10" s="27">
         <v>20</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="60" t="s">
-        <v>192</v>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="61" t="s">
+        <v>190</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I11" s="27">
         <v>18</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G12" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="27" t="s">
         <v>194</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>196</v>
       </c>
       <c r="I12" s="27">
         <v>0</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="55" t="s">
-        <v>95</v>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="56" t="s">
+        <v>92</v>
       </c>
       <c r="E13" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>200</v>
-      </c>
       <c r="G13" s="29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I13" s="30">
         <v>0</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>201</v>
-      </c>
       <c r="H14" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I14" s="30">
         <v>20</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="55" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="H15" s="30" t="s">
         <v>203</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>205</v>
       </c>
       <c r="I15" s="30">
         <v>0</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I16" s="30">
         <v>20</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="55" t="s">
-        <v>192</v>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="56" t="s">
+        <v>190</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I17" s="30">
         <v>18</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G18" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="30" t="s">
         <v>194</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>196</v>
       </c>
       <c r="I18" s="30">
         <v>0</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59" t="s">
-        <v>116</v>
-      </c>
       <c r="E19" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I19" s="31">
         <v>0</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>201</v>
-      </c>
       <c r="H20" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I20" s="31">
         <v>20</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="H21" s="31" t="s">
         <v>203</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>205</v>
       </c>
       <c r="I21" s="31">
         <v>0</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I22" s="31">
         <v>20</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59" t="s">
-        <v>192</v>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60" t="s">
+        <v>190</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I23" s="31">
         <v>18</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G24" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="31" t="s">
         <v>194</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>196</v>
       </c>
       <c r="I24" s="31">
         <v>0</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4658,366 +4744,366 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="63" t="s">
+      <c r="C2" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="F2" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="65">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="35" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="65" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>194</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="64">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>196</v>
       </c>
       <c r="I4" s="27">
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>201</v>
-      </c>
       <c r="H5" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I5" s="27">
         <v>20</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>204</v>
-      </c>
       <c r="H6" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I6" s="27">
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="56"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I7" s="27">
         <v>20</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="60" t="s">
-        <v>192</v>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="61" t="s">
+        <v>190</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I8" s="27">
         <v>18</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G9" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>194</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>196</v>
       </c>
       <c r="I9" s="27">
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="55" t="s">
-        <v>95</v>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="56" t="s">
+        <v>92</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I10" s="30">
         <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>201</v>
-      </c>
       <c r="H11" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I11" s="30">
         <v>20</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="55" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="F12" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>204</v>
-      </c>
       <c r="H12" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I12" s="30">
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="56"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I13" s="30">
         <v>20</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="55" t="s">
-        <v>192</v>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="56" t="s">
+        <v>190</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I14" s="30">
         <v>18</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G15" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>194</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>196</v>
       </c>
       <c r="I15" s="30">
         <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5048,7 +5134,7 @@
   </sheetPr>
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -5079,105 +5165,105 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="42" t="s">
-        <v>16</v>
-      </c>
       <c r="Q1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>223</v>
@@ -5186,13 +5272,13 @@
         <v>224</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>225</v>
@@ -5213,7 +5299,7 @@
         <v>229</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V2">
         <v>3213962</v>
@@ -5236,25 +5322,25 @@
     </row>
     <row r="3" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="G3" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>233</v>
@@ -5263,19 +5349,19 @@
         <v>234</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P3" s="44" t="s">
         <v>235</v>
@@ -5293,7 +5379,7 @@
         <v>239</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V3">
         <v>3213963</v>
@@ -5316,46 +5402,46 @@
     </row>
     <row r="4" spans="1:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>244</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L4">
         <v>20</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P4" s="43" t="s">
         <v>245</v>
@@ -5373,7 +5459,7 @@
         <v>249</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V4">
         <v>3213964</v>
@@ -5393,46 +5479,46 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="K5" t="s">
         <v>72</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
       </c>
       <c r="L5">
         <v>20</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P5" s="43">
         <v>65189</v>
@@ -5450,7 +5536,7 @@
         <v>257</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V5">
         <v>3213965</v>
@@ -5473,49 +5559,49 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="K6" t="s">
         <v>72</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s">
-        <v>75</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
         <v>77</v>
-      </c>
-      <c r="O6" t="s">
-        <v>80</v>
       </c>
       <c r="P6" s="43">
         <v>65189</v>
@@ -5533,7 +5619,7 @@
         <v>265</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s">
         <v>266</v>
@@ -5556,37 +5642,37 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>271</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L7">
         <v>18</v>
@@ -5595,7 +5681,7 @@
         <v>272</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P7" s="43">
         <v>517501</v>
@@ -5613,7 +5699,7 @@
         <v>276</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s">
         <v>277</v>
@@ -5636,25 +5722,25 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>223</v>
@@ -5663,13 +5749,13 @@
         <v>224</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>225</v>
@@ -5690,7 +5776,7 @@
         <v>285</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s">
         <v>286</v>
@@ -5713,64 +5799,64 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
       <c r="H9" s="7" t="s">
-        <v>96</v>
+        <v>292</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P9" s="44" t="s">
         <v>235</v>
       </c>
       <c r="Q9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="R9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V9">
         <v>3213983</v>
@@ -5779,155 +5865,155 @@
         <v>8000048137</v>
       </c>
       <c r="X9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Y9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Z9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AA9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>96</v>
+        <v>292</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L10">
         <v>20</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="P10" s="43" t="s">
         <v>245</v>
       </c>
       <c r="Q10" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="R10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="S10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="T10" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V10">
         <v>3213979</v>
       </c>
       <c r="X10" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Y10" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Z10" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AA10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L11">
         <v>20</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P11" s="43">
         <v>65189</v>
       </c>
       <c r="Q11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="R11" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="S11" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="T11" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V11">
         <v>3213969</v>
@@ -5936,81 +6022,81 @@
         <v>8000042376</v>
       </c>
       <c r="X11" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Y11" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Z11" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA11" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P12" s="43">
         <v>65189</v>
       </c>
       <c r="Q12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="R12" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="S12" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="T12" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V12">
         <v>3213970</v>
@@ -6019,78 +6105,78 @@
         <v>8000042377</v>
       </c>
       <c r="X12" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Y12" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Z12" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AA12" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L13">
         <v>18</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>112</v>
+        <v>335</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P13" s="43">
         <v>517501</v>
       </c>
       <c r="Q13" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="R13" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="S13" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="T13" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V13">
         <v>3213971</v>
@@ -6099,116 +6185,116 @@
         <v>8000042378</v>
       </c>
       <c r="X13" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Y13" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Z13" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AA13" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="J14" t="s">
         <v>39</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" t="s">
-        <v>41</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P14" s="43">
         <v>3208</v>
       </c>
       <c r="Q14" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="R14" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="S14" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="T14" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="W14">
         <v>8000042379</v>
       </c>
       <c r="X14" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Y14" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Z14" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AA14" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>233</v>
@@ -6217,197 +6303,197 @@
         <v>234</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P15" s="44" t="s">
         <v>235</v>
       </c>
       <c r="Q15" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="R15" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="S15" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="T15" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="W15" s="40">
         <v>8000042380</v>
       </c>
       <c r="X15" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Y15" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Z15" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AA15" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L16">
         <v>20</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P16" s="43" t="s">
         <v>245</v>
       </c>
       <c r="Q16" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="R16" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="S16" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="T16" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V16" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="X16" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Y16" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Z16" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AA16" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" t="s">
-        <v>74</v>
-      </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P17" s="43">
         <v>65189</v>
       </c>
       <c r="Q17" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="R17" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="S17" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="T17" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V17">
         <v>3213975</v>
@@ -6416,199 +6502,199 @@
         <v>8000042381</v>
       </c>
       <c r="X17" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Y17" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Z17" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AA17" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="J18" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="J18" t="s">
-        <v>74</v>
-      </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L18">
         <v>20</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P18" s="43">
         <v>65189</v>
       </c>
       <c r="Q18" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="R18" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="S18" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="T18" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="W18" s="40">
         <v>8000042382</v>
       </c>
       <c r="X18" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Y18" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Z18" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AA18" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L19">
         <v>18</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P19" s="43">
         <v>517501</v>
       </c>
       <c r="Q19" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="R19" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="S19" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="T19" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V19" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="W19" s="40">
         <v>8000042383</v>
       </c>
       <c r="X19" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Y19" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Z19" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AA19" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>223</v>
@@ -6617,13 +6703,13 @@
         <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>225</v>
@@ -6632,107 +6718,107 @@
         <v>3208</v>
       </c>
       <c r="Q20" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="R20" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="S20" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="T20" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V20" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="W20" s="40">
         <v>8000042384</v>
       </c>
       <c r="X20" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Y20" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="Z20" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AA20" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/UploadExcel/TD_RegOrderCreation.xlsx
+++ b/UploadExcel/TD_RegOrderCreation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\TestSuites\UploadExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\UploadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACFF6ED-3F53-487C-A9F0-08F1675DF4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488F8DC5-4AD9-4CDE-B2AC-575AF5D091E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1450,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1579,27 +1579,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1607,22 +1613,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1909,8 +1899,8 @@
   </sheetPr>
   <dimension ref="A1:AE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2045,35 +2035,33 @@
       <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69">
+      <c r="L2" s="56">
         <v>0</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="68"/>
       <c r="P2" s="43">
         <v>510055</v>
       </c>
@@ -2099,37 +2087,36 @@
       <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="56">
         <v>0</v>
       </c>
-      <c r="M3" s="67" t="s">
+      <c r="M3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="67" t="s">
+      <c r="N3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="68"/>
       <c r="P3" s="44" t="s">
         <v>51</v>
       </c>
@@ -2155,37 +2142,36 @@
       <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="56">
         <v>20</v>
       </c>
-      <c r="M4" s="67" t="s">
+      <c r="M4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="68"/>
       <c r="P4" s="43" t="s">
         <v>63</v>
       </c>
@@ -2211,37 +2197,36 @@
       <c r="D5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="56">
         <v>20</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="68"/>
       <c r="P5" s="43">
         <v>14469</v>
       </c>
@@ -2267,37 +2252,37 @@
       <c r="D6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="68" t="s">
+      <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="56">
         <v>0</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="68" t="s">
+      <c r="O6" t="s">
         <v>77</v>
       </c>
       <c r="P6" s="43">
@@ -2325,37 +2310,36 @@
       <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="56">
         <v>18</v>
       </c>
-      <c r="M7" s="67" t="s">
+      <c r="M7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="O7" s="68"/>
       <c r="P7" s="43">
         <v>627001</v>
       </c>
@@ -2381,37 +2365,36 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="56">
         <v>0</v>
       </c>
-      <c r="M8" s="67" t="s">
+      <c r="M8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="67" t="s">
+      <c r="N8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="68"/>
       <c r="P8" s="43">
         <v>210008</v>
       </c>
@@ -2437,37 +2420,36 @@
       <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="68" t="s">
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="56">
         <v>0</v>
       </c>
-      <c r="M9" s="67" t="s">
+      <c r="M9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="67" t="s">
+      <c r="N9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O9" s="68"/>
       <c r="P9" s="44" t="s">
         <v>51</v>
       </c>
@@ -2493,37 +2475,36 @@
       <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="56">
         <v>20</v>
       </c>
-      <c r="M10" s="67" t="s">
+      <c r="M10" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="O10" s="68"/>
       <c r="P10" s="43" t="s">
         <v>63</v>
       </c>
@@ -2549,37 +2530,36 @@
       <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="56">
         <v>20</v>
       </c>
-      <c r="M11" s="67" t="s">
+      <c r="M11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N11" s="67" t="s">
+      <c r="N11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="O11" s="68"/>
       <c r="P11" s="43">
         <v>14469</v>
       </c>
@@ -2605,37 +2585,37 @@
       <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="56">
         <v>0</v>
       </c>
-      <c r="M12" s="67" t="s">
+      <c r="M12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="67" t="s">
+      <c r="N12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="68" t="s">
+      <c r="O12" t="s">
         <v>107</v>
       </c>
       <c r="P12" s="43">
@@ -2663,37 +2643,36 @@
       <c r="D13" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="68" t="s">
+      <c r="K13" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="69">
+      <c r="L13" s="56">
         <v>18</v>
       </c>
-      <c r="M13" s="67" t="s">
+      <c r="M13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="N13" s="67" t="s">
+      <c r="N13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="68"/>
       <c r="P13" s="43">
         <v>627001</v>
       </c>
@@ -2719,35 +2698,33 @@
       <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="69">
+      <c r="L14" s="56">
         <v>0</v>
       </c>
-      <c r="M14" s="67" t="s">
+      <c r="M14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="67" t="s">
+      <c r="N14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="68"/>
       <c r="P14" s="43">
         <v>510055</v>
       </c>
@@ -2773,37 +2750,36 @@
       <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="68" t="s">
+      <c r="J15" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="68" t="s">
+      <c r="K15" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="69">
+      <c r="L15" s="56">
         <v>0</v>
       </c>
-      <c r="M15" s="67" t="s">
+      <c r="M15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="67" t="s">
+      <c r="N15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O15" s="68"/>
       <c r="P15" s="44" t="s">
         <v>51</v>
       </c>
@@ -2829,37 +2805,36 @@
       <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="67" t="s">
+      <c r="I16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="68" t="s">
+      <c r="K16" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="56">
         <v>20</v>
       </c>
-      <c r="M16" s="67" t="s">
+      <c r="M16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N16" s="67" t="s">
+      <c r="N16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O16" s="68"/>
       <c r="P16" s="43" t="s">
         <v>63</v>
       </c>
@@ -2885,37 +2860,37 @@
       <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="68" t="s">
+      <c r="J17" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="68" t="s">
+      <c r="K17" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="69">
+      <c r="L17" s="56">
         <v>0</v>
       </c>
-      <c r="M17" s="67" t="s">
+      <c r="M17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="67" t="s">
+      <c r="N17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O17" s="70" t="s">
+      <c r="O17" s="11" t="s">
         <v>77</v>
       </c>
       <c r="P17" s="43">
@@ -2943,37 +2918,36 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="68" t="s">
+      <c r="J18" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="68" t="s">
+      <c r="K18" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="69">
+      <c r="L18" s="56">
         <v>20</v>
       </c>
-      <c r="M18" s="67" t="s">
+      <c r="M18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="67" t="s">
+      <c r="N18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O18" s="68"/>
       <c r="P18" s="43">
         <v>14469</v>
       </c>
@@ -2999,37 +2973,36 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="67" t="s">
+      <c r="I19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="J19" s="68" t="s">
+      <c r="J19" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="68" t="s">
+      <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="69">
+      <c r="L19" s="56">
         <v>18</v>
       </c>
-      <c r="M19" s="67" t="s">
+      <c r="M19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="N19" s="67" t="s">
+      <c r="N19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O19" s="68"/>
       <c r="P19" s="43">
         <v>627001</v>
       </c>
@@ -3055,35 +3028,33 @@
       <c r="D20" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="68" t="s">
+      <c r="J20" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69">
+      <c r="L20" s="56">
         <v>0</v>
       </c>
-      <c r="M20" s="67" t="s">
+      <c r="M20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="67" t="s">
+      <c r="N20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="68"/>
       <c r="P20" s="43">
         <v>210008</v>
       </c>
@@ -3109,37 +3080,36 @@
       <c r="D21" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="H21" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="69" t="s">
+      <c r="L21" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="71" t="s">
+      <c r="N21" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="O21" s="71"/>
       <c r="P21" s="55" t="s">
         <v>51</v>
       </c>
@@ -3160,37 +3130,36 @@
       <c r="D22" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="I22" s="71" t="s">
+      <c r="I22" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="J22" s="71" t="s">
+      <c r="J22" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="71" t="s">
+      <c r="K22" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="L22" s="69" t="s">
+      <c r="L22" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="M22" s="71" t="s">
+      <c r="M22" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="N22" s="71" t="s">
+      <c r="N22" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="O22" s="71"/>
       <c r="P22" s="55" t="s">
         <v>63</v>
       </c>
@@ -3211,37 +3180,37 @@
       <c r="D23" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="J23" s="71" t="s">
+      <c r="J23" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="69" t="s">
+      <c r="L23" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="71" t="s">
+      <c r="N23" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="O23" s="71" t="s">
+      <c r="O23" s="49" t="s">
         <v>77</v>
       </c>
       <c r="P23" s="55">
@@ -3264,37 +3233,36 @@
       <c r="D24" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="71" t="s">
+      <c r="G24" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="71" t="s">
+      <c r="H24" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="71" t="s">
+      <c r="I24" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="J24" s="71" t="s">
+      <c r="J24" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="71" t="s">
+      <c r="K24" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="L24" s="69" t="s">
+      <c r="L24" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="M24" s="71" t="s">
+      <c r="M24" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="N24" s="71" t="s">
+      <c r="N24" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="O24" s="71"/>
       <c r="P24" s="55">
         <v>14469</v>
       </c>
@@ -3315,37 +3283,36 @@
       <c r="D25" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I25" s="71" t="s">
+      <c r="I25" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="L25" s="69" t="s">
+      <c r="L25" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="M25" s="71" t="s">
+      <c r="M25" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="N25" s="71" t="s">
+      <c r="N25" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="O25" s="71"/>
       <c r="P25" s="55">
         <v>627001</v>
       </c>
@@ -3366,37 +3333,36 @@
       <c r="D26" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="71" t="s">
+      <c r="G26" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="71" t="s">
+      <c r="I26" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="J26" s="71" t="s">
+      <c r="J26" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="K26" s="71" t="s">
+      <c r="K26" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="L26" s="69" t="s">
+      <c r="L26" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="71" t="s">
+      <c r="M26" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N26" s="71" t="s">
+      <c r="N26" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="O26" s="71"/>
       <c r="P26" s="55">
         <v>510055</v>
       </c>
@@ -3417,37 +3383,36 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="67" t="s">
+      <c r="I27" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="J27" s="68" t="s">
+      <c r="J27" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="68" t="s">
+      <c r="K27" t="s">
         <v>49</v>
       </c>
-      <c r="L27" s="72" t="s">
+      <c r="L27" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="67" t="s">
+      <c r="M27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="73" t="s">
+      <c r="N27" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="O27" s="68"/>
       <c r="P27" s="44" t="s">
         <v>51</v>
       </c>
@@ -3473,37 +3438,36 @@
       <c r="D28" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="F28" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I28" s="67" t="s">
+      <c r="I28" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="J28" s="68" t="s">
+      <c r="J28" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="68" t="s">
+      <c r="K28" t="s">
         <v>146</v>
       </c>
-      <c r="L28" s="72" t="s">
+      <c r="L28" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="M28" s="67" t="s">
+      <c r="M28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="N28" s="67" t="s">
+      <c r="N28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O28" s="68"/>
       <c r="P28" s="43" t="s">
         <v>63</v>
       </c>
@@ -3529,37 +3493,37 @@
       <c r="D29" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="67" t="s">
+      <c r="I29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="J29" s="68" t="s">
+      <c r="J29" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="68" t="s">
+      <c r="K29" t="s">
         <v>166</v>
       </c>
-      <c r="L29" s="72" t="s">
+      <c r="L29" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="67" t="s">
+      <c r="M29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N29" s="67" t="s">
+      <c r="N29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="O29" s="68" t="s">
+      <c r="O29" t="s">
         <v>77</v>
       </c>
       <c r="P29" s="43">
@@ -3587,37 +3551,36 @@
       <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I30" s="67" t="s">
+      <c r="I30" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="J30" s="68" t="s">
+      <c r="J30" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="68" t="s">
+      <c r="K30" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="72" t="s">
+      <c r="L30" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="M30" s="67" t="s">
+      <c r="M30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="N30" s="67" t="s">
+      <c r="N30" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="O30" s="68"/>
       <c r="P30" s="43">
         <v>14469</v>
       </c>
@@ -3643,37 +3606,36 @@
       <c r="D31" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="68" t="s">
+      <c r="G31" t="s">
         <v>172</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="67" t="s">
+      <c r="I31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="J31" s="68" t="s">
+      <c r="J31" t="s">
         <v>83</v>
       </c>
-      <c r="K31" s="68" t="s">
+      <c r="K31" t="s">
         <v>84</v>
       </c>
-      <c r="L31" s="72" t="s">
+      <c r="L31" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="M31" s="67" t="s">
+      <c r="M31" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N31" s="67" t="s">
+      <c r="N31" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="O31" s="68"/>
       <c r="P31" s="43">
         <v>627001</v>
       </c>
@@ -3699,37 +3661,36 @@
       <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" t="s">
         <v>172</v>
       </c>
-      <c r="H32" s="67" t="s">
+      <c r="H32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I32" s="67" t="s">
+      <c r="I32" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="J32" s="68" t="s">
+      <c r="J32" t="s">
         <v>155</v>
       </c>
-      <c r="K32" s="68" t="s">
+      <c r="K32" t="s">
         <v>156</v>
       </c>
-      <c r="L32" s="72" t="s">
+      <c r="L32" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="67" t="s">
+      <c r="M32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="67" t="s">
+      <c r="N32" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="O32" s="68"/>
       <c r="P32" s="43">
         <v>210008</v>
       </c>
@@ -3755,35 +3716,33 @@
       <c r="D33" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="E33" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" t="s">
         <v>130</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="67" t="s">
+      <c r="I33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="68" t="s">
+      <c r="J33" t="s">
         <v>48</v>
       </c>
-      <c r="K33" s="68"/>
-      <c r="L33" s="72" t="s">
+      <c r="L33" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="67" t="s">
+      <c r="M33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N33" s="67" t="s">
+      <c r="N33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="68"/>
       <c r="P33" s="43">
         <v>210008</v>
       </c>
@@ -3797,17 +3756,6 @@
       <c r="V33"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
@@ -3815,17 +3763,6 @@
       <c r="V34"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
@@ -3833,17 +3770,6 @@
       <c r="V35"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -3851,17 +3777,6 @@
       <c r="V36"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
@@ -3869,17 +3784,6 @@
       <c r="V37"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
@@ -3887,17 +3791,6 @@
       <c r="V38"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39"/>
@@ -3905,17 +3798,6 @@
       <c r="V39"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
@@ -3923,17 +3805,6 @@
       <c r="V40"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
@@ -3941,17 +3812,6 @@
       <c r="V41"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
@@ -3959,17 +3819,6 @@
       <c r="V42"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
@@ -3977,17 +3826,6 @@
       <c r="V43"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="68"/>
       <c r="R44"/>
       <c r="S44"/>
       <c r="T44"/>
@@ -3995,17 +3833,6 @@
       <c r="V44"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
       <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
@@ -4013,17 +3840,6 @@
       <c r="V45"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46"/>
@@ -4031,17 +3847,6 @@
       <c r="V46"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47"/>
@@ -4169,33 +3974,33 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="63" t="s">
         <v>192</v>
       </c>
       <c r="H2" s="22"/>
-      <c r="I2" s="62">
+      <c r="I2" s="64">
         <v>0</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="58" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4244,20 +4049,20 @@
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="65" t="s">
         <v>195</v>
       </c>
       <c r="E7" s="25" t="s">
@@ -4310,10 +4115,10 @@
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="65" t="s">
         <v>201</v>
       </c>
       <c r="G9" s="26" t="s">
@@ -4335,8 +4140,8 @@
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="26" t="s">
         <v>204</v>
       </c>
@@ -4356,7 +4161,7 @@
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="65" t="s">
         <v>190</v>
       </c>
       <c r="F11" s="26" t="s">
@@ -4380,8 +4185,8 @@
       <c r="A12" s="59"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="26" t="s">
         <v>206</v>
       </c>
@@ -4403,7 +4208,7 @@
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="66" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="28" t="s">
@@ -4456,10 +4261,10 @@
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="66" t="s">
         <v>201</v>
       </c>
       <c r="G15" s="29" t="s">
@@ -4481,8 +4286,8 @@
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="29" t="s">
         <v>204</v>
       </c>
@@ -4502,7 +4307,7 @@
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="66" t="s">
         <v>190</v>
       </c>
       <c r="F17" s="29" t="s">
@@ -4526,8 +4331,8 @@
       <c r="A18" s="59"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="29" t="s">
         <v>206</v>
       </c>
@@ -4549,7 +4354,7 @@
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="61" t="s">
         <v>113</v>
       </c>
       <c r="E19" s="20" t="s">
@@ -4602,10 +4407,10 @@
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="61" t="s">
         <v>201</v>
       </c>
       <c r="G21" s="19" t="s">
@@ -4627,8 +4432,8 @@
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="19" t="s">
         <v>204</v>
       </c>
@@ -4648,7 +4453,7 @@
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="61" t="s">
         <v>190</v>
       </c>
       <c r="F23" s="19" t="s">
@@ -4669,11 +4474,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="19" t="s">
         <v>206</v>
       </c>
@@ -4693,11 +4498,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="B2:B24"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="C2:C24"/>
     <mergeCell ref="G2:G6"/>
@@ -4714,6 +4514,11 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E15:E16"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="B2:B24"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="E11:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4775,31 +4580,31 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="68" t="s">
         <v>190</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="67">
         <v>0</v>
       </c>
       <c r="J2" s="18" t="s">
@@ -4810,13 +4615,13 @@
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
-      <c r="D3" s="57"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="59"/>
       <c r="F3" s="35" t="s">
         <v>211</v>
       </c>
       <c r="G3" s="59"/>
-      <c r="H3" s="57"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="59"/>
       <c r="J3" s="18" t="s">
         <v>212</v>
@@ -4826,7 +4631,7 @@
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="65" t="s">
         <v>195</v>
       </c>
       <c r="E4" s="25" t="s">
@@ -4877,7 +4682,7 @@
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="65" t="s">
         <v>200</v>
       </c>
       <c r="F6" s="36" t="s">
@@ -4901,7 +4706,7 @@
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
-      <c r="E7" s="57"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="37" t="s">
         <v>215</v>
       </c>
@@ -4923,7 +4728,7 @@
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="65" t="s">
         <v>190</v>
       </c>
       <c r="F8" s="36" t="s">
@@ -4946,8 +4751,8 @@
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="36" t="s">
         <v>217</v>
       </c>
@@ -4968,7 +4773,7 @@
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="66" t="s">
         <v>92</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -5019,7 +4824,7 @@
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="66" t="s">
         <v>200</v>
       </c>
       <c r="F12" s="38" t="s">
@@ -5043,7 +4848,7 @@
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
-      <c r="E13" s="57"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="38" t="s">
         <v>211</v>
       </c>
@@ -5065,7 +4870,7 @@
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="66" t="s">
         <v>190</v>
       </c>
       <c r="F14" s="38" t="s">
@@ -5085,11 +4890,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="38" t="s">
         <v>83</v>
       </c>
